--- a/OverView/interview.xlsx
+++ b/OverView/interview.xlsx
@@ -4,19 +4,22 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="14640" windowHeight="11790"/>
+    <workbookView windowWidth="17490" windowHeight="11790" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Sheet2!$C$1:$C$34</definedName>
+  </definedNames>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="238" uniqueCount="138">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="308" uniqueCount="168">
   <si>
     <t>时间</t>
   </si>
@@ -430,6 +433,96 @@
   </si>
   <si>
     <t>黑湖科技</t>
+  </si>
+  <si>
+    <t>地点</t>
+  </si>
+  <si>
+    <t>安永(中国)企业咨询有限公司</t>
+  </si>
+  <si>
+    <t>上海</t>
+  </si>
+  <si>
+    <t>25-35 13</t>
+  </si>
+  <si>
+    <t>负责人聊过，做前端数据处理</t>
+  </si>
+  <si>
+    <t>宝付-上海漫道投资有限公司</t>
+  </si>
+  <si>
+    <t>简历已发 未回复</t>
+  </si>
+  <si>
+    <t>未回复</t>
+  </si>
+  <si>
+    <t>安徽电信</t>
+  </si>
+  <si>
+    <t>合肥</t>
+  </si>
+  <si>
+    <t>15-22 14</t>
+  </si>
+  <si>
+    <t>上海还银网络科技有限公司</t>
+  </si>
+  <si>
+    <t>20-35 14</t>
+  </si>
+  <si>
+    <t>太平金科</t>
+  </si>
+  <si>
+    <t>20-30 15</t>
+  </si>
+  <si>
+    <t>蔚来</t>
+  </si>
+  <si>
+    <t>卫宁健康</t>
+  </si>
+  <si>
+    <t>12-24 14</t>
+  </si>
+  <si>
+    <t>诺博医疗</t>
+  </si>
+  <si>
+    <t>12-20 13</t>
+  </si>
+  <si>
+    <t>薪资不合适</t>
+  </si>
+  <si>
+    <t>药联健康</t>
+  </si>
+  <si>
+    <t>20-35 16</t>
+  </si>
+  <si>
+    <t>25-50 18</t>
+  </si>
+  <si>
+    <t>樊登读书</t>
+  </si>
+  <si>
+    <t>未发消息</t>
+  </si>
+  <si>
+    <t>拼多多</t>
+  </si>
+  <si>
+    <t>咪咕视频</t>
+  </si>
+  <si>
+    <t>东方福利网</t>
+  </si>
+  <si>
+    <t>27-35</t>
   </si>
 </sst>
 </file>
@@ -437,10 +530,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -473,16 +566,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -496,6 +581,21 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -503,24 +603,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <i/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -543,23 +628,22 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -574,15 +658,31 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -597,20 +697,13 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="33">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -619,7 +712,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -631,13 +772,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -655,25 +790,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -691,7 +808,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -703,7 +826,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -715,13 +862,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -733,49 +874,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -793,13 +892,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -882,11 +981,18 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
+      <top/>
+      <bottom style="medium">
         <color theme="4"/>
-      </top>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -923,8 +1029,10 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -953,15 +1061,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -970,10 +1069,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -982,154 +1081,169 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="23" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="29" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
@@ -1493,1219 +1607,1219 @@
   <sheetPr/>
   <dimension ref="A1:E99"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="B29" sqref="B29"/>
+      <selection pane="bottomLeft" activeCell="A1" sqref="$A1:$XFD1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16" customHeight="1" outlineLevelCol="4"/>
   <cols>
-    <col min="1" max="1" width="9" style="2"/>
-    <col min="2" max="2" width="49.75" style="2" customWidth="1"/>
-    <col min="3" max="3" width="26.25" style="2" customWidth="1"/>
-    <col min="4" max="4" width="20.25" style="2" customWidth="1"/>
-    <col min="5" max="5" width="22.5" style="2" customWidth="1"/>
-    <col min="6" max="16384" width="9" style="2"/>
+    <col min="1" max="1" width="9" style="9"/>
+    <col min="2" max="2" width="49.75" style="9" customWidth="1"/>
+    <col min="3" max="3" width="26.25" style="9" customWidth="1"/>
+    <col min="4" max="4" width="20.25" style="9" customWidth="1"/>
+    <col min="5" max="5" width="22.5" style="9" customWidth="1"/>
+    <col min="6" max="16384" width="9" style="9"/>
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="1" customHeight="1" spans="1:5">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="4" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="2" customHeight="1" spans="1:5">
-      <c r="A2" s="4">
+      <c r="A2" s="10">
         <v>8.13</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="C2" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="6"/>
-      <c r="E2" s="5" t="s">
+      <c r="D2" s="11"/>
+      <c r="E2" s="11" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="3" customHeight="1" spans="1:5">
-      <c r="A3" s="4"/>
-      <c r="B3" s="5" t="s">
+      <c r="A3" s="10"/>
+      <c r="B3" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="5" t="s">
+      <c r="C3" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="D3" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="E3" s="6"/>
+      <c r="D3" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="E3" s="11"/>
     </row>
     <row r="4" customHeight="1" spans="1:5">
-      <c r="A4" s="4"/>
-      <c r="B4" s="5" t="s">
+      <c r="A4" s="10"/>
+      <c r="B4" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="C4" s="5" t="s">
+      <c r="C4" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="D4" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="E4" s="6"/>
+      <c r="D4" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="E4" s="11"/>
     </row>
     <row r="5" customHeight="1" spans="1:5">
-      <c r="A5" s="4"/>
-      <c r="B5" s="5" t="s">
+      <c r="A5" s="10"/>
+      <c r="B5" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="5" t="s">
+      <c r="C5" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="D5" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="E5" s="6"/>
+      <c r="D5" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="E5" s="11"/>
     </row>
     <row r="6" customHeight="1" spans="1:5">
-      <c r="A6" s="4">
+      <c r="A6" s="10">
         <v>8.16</v>
       </c>
-      <c r="B6" s="5" t="s">
+      <c r="B6" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="C6" s="5" t="s">
+      <c r="C6" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="D6" s="6"/>
-      <c r="E6" s="5" t="s">
+      <c r="D6" s="11"/>
+      <c r="E6" s="11" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="7" customHeight="1" spans="1:5">
-      <c r="A7" s="4"/>
-      <c r="B7" s="5" t="s">
+      <c r="A7" s="10"/>
+      <c r="B7" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="C7" s="5" t="s">
+      <c r="C7" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="D7" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="E7" s="6"/>
+      <c r="D7" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="E7" s="11"/>
     </row>
     <row r="8" customHeight="1" spans="1:5">
-      <c r="A8" s="4"/>
-      <c r="B8" s="5" t="s">
+      <c r="A8" s="10"/>
+      <c r="B8" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="C8" s="5" t="s">
+      <c r="C8" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="D8" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="E8" s="6"/>
+      <c r="D8" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="E8" s="11"/>
     </row>
     <row r="9" customHeight="1" spans="1:5">
-      <c r="A9" s="4"/>
-      <c r="B9" s="5" t="s">
+      <c r="A9" s="10"/>
+      <c r="B9" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="C9" s="5" t="s">
+      <c r="C9" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="D9" s="5" t="s">
+      <c r="D9" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="E9" s="6"/>
+      <c r="E9" s="11"/>
     </row>
     <row r="10" customHeight="1" spans="1:5">
-      <c r="A10" s="4"/>
-      <c r="B10" s="5" t="s">
+      <c r="A10" s="10"/>
+      <c r="B10" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="C10" s="5" t="s">
+      <c r="C10" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="D10" s="5" t="s">
+      <c r="D10" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="E10" s="6"/>
+      <c r="E10" s="11"/>
     </row>
     <row r="11" customHeight="1" spans="1:5">
-      <c r="A11" s="4">
+      <c r="A11" s="10">
         <v>8.17</v>
       </c>
-      <c r="B11" s="5" t="s">
+      <c r="B11" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="C11" s="5" t="s">
+      <c r="C11" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="D11" s="5" t="s">
+      <c r="D11" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="E11" s="6"/>
+      <c r="E11" s="11"/>
     </row>
     <row r="12" customHeight="1" spans="1:5">
-      <c r="A12" s="4"/>
-      <c r="B12" s="5" t="s">
+      <c r="A12" s="10"/>
+      <c r="B12" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="C12" s="5" t="s">
+      <c r="C12" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="D12" s="5" t="s">
+      <c r="D12" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="E12" s="6"/>
+      <c r="E12" s="11"/>
     </row>
     <row r="13" customHeight="1" spans="1:5">
-      <c r="A13" s="4"/>
-      <c r="B13" s="5" t="s">
+      <c r="A13" s="10"/>
+      <c r="B13" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="C13" s="5" t="s">
+      <c r="C13" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="D13" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="E13" s="6"/>
+      <c r="D13" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="E13" s="11"/>
     </row>
     <row r="14" customHeight="1" spans="1:5">
-      <c r="A14" s="4"/>
-      <c r="B14" s="5" t="s">
+      <c r="A14" s="10"/>
+      <c r="B14" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="C14" s="5" t="s">
+      <c r="C14" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="D14" s="5" t="s">
+      <c r="D14" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="E14" s="6"/>
+      <c r="E14" s="11"/>
     </row>
     <row r="15" customHeight="1" spans="1:5">
-      <c r="A15" s="4"/>
-      <c r="B15" s="5" t="s">
+      <c r="A15" s="10"/>
+      <c r="B15" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="C15" s="5" t="s">
+      <c r="C15" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="D15" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="E15" s="6"/>
+      <c r="D15" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="E15" s="11"/>
     </row>
     <row r="16" customHeight="1" spans="1:5">
-      <c r="A16" s="4"/>
-      <c r="B16" s="5" t="s">
+      <c r="A16" s="10"/>
+      <c r="B16" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="C16" s="5" t="s">
+      <c r="C16" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="D16" s="5" t="s">
+      <c r="D16" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="E16" s="6"/>
+      <c r="E16" s="11"/>
     </row>
     <row r="17" customHeight="1" spans="1:5">
-      <c r="A17" s="4"/>
-      <c r="B17" s="5" t="s">
+      <c r="A17" s="10"/>
+      <c r="B17" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="C17" s="5" t="s">
+      <c r="C17" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="D17" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="E17" s="6"/>
+      <c r="D17" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="E17" s="11"/>
     </row>
     <row r="18" customHeight="1" spans="1:5">
-      <c r="A18" s="4"/>
-      <c r="B18" s="5" t="s">
+      <c r="A18" s="10"/>
+      <c r="B18" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="C18" s="5" t="s">
+      <c r="C18" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="D18" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="E18" s="6"/>
+      <c r="D18" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="E18" s="11"/>
     </row>
     <row r="19" customHeight="1" spans="1:5">
-      <c r="A19" s="4"/>
-      <c r="B19" s="5" t="s">
+      <c r="A19" s="10"/>
+      <c r="B19" s="11" t="s">
         <v>41</v>
       </c>
-      <c r="C19" s="5" t="s">
+      <c r="C19" s="11" t="s">
         <v>42</v>
       </c>
-      <c r="D19" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="E19" s="6"/>
+      <c r="D19" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="E19" s="11"/>
     </row>
     <row r="20" customHeight="1" spans="1:5">
-      <c r="A20" s="4"/>
-      <c r="B20" s="5" t="s">
+      <c r="A20" s="10"/>
+      <c r="B20" s="11" t="s">
         <v>43</v>
       </c>
-      <c r="C20" s="5" t="s">
+      <c r="C20" s="11" t="s">
         <v>44</v>
       </c>
-      <c r="D20" s="6"/>
-      <c r="E20" s="5" t="s">
+      <c r="D20" s="11"/>
+      <c r="E20" s="11" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="21" ht="24" customHeight="1" spans="1:5">
-      <c r="A21" s="7">
+      <c r="A21" s="12">
         <v>8.18</v>
       </c>
-      <c r="B21" s="5" t="s">
+      <c r="B21" s="11" t="s">
         <v>46</v>
       </c>
-      <c r="C21" s="5" t="s">
+      <c r="C21" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="D21" s="6" t="s">
+      <c r="D21" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="E21" s="6"/>
+      <c r="E21" s="11"/>
     </row>
     <row r="22" customHeight="1" spans="1:5">
-      <c r="A22" s="8"/>
-      <c r="B22" s="5" t="s">
+      <c r="A22" s="13"/>
+      <c r="B22" s="11" t="s">
         <v>47</v>
       </c>
-      <c r="C22" s="5" t="s">
+      <c r="C22" s="11" t="s">
         <v>48</v>
       </c>
-      <c r="D22" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="E22" s="6"/>
+      <c r="D22" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="E22" s="11"/>
     </row>
     <row r="23" customHeight="1" spans="1:5">
-      <c r="A23" s="8"/>
-      <c r="B23" s="5" t="s">
+      <c r="A23" s="13"/>
+      <c r="B23" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="C23" s="6" t="s">
+      <c r="C23" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="D23" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="E23" s="6"/>
+      <c r="D23" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="E23" s="11"/>
     </row>
     <row r="24" customHeight="1" spans="1:5">
-      <c r="A24" s="8"/>
-      <c r="B24" s="5" t="s">
+      <c r="A24" s="13"/>
+      <c r="B24" s="11" t="s">
         <v>49</v>
       </c>
-      <c r="C24" s="6" t="s">
+      <c r="C24" s="11" t="s">
         <v>50</v>
       </c>
-      <c r="D24" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="E24" s="6"/>
+      <c r="D24" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="E24" s="11"/>
     </row>
     <row r="25" customHeight="1" spans="1:5">
-      <c r="A25" s="8"/>
-      <c r="B25" s="5" t="s">
+      <c r="A25" s="13"/>
+      <c r="B25" s="11" t="s">
         <v>51</v>
       </c>
-      <c r="C25" s="6" t="s">
+      <c r="C25" s="11" t="s">
         <v>52</v>
       </c>
-      <c r="D25" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="E25" s="6"/>
+      <c r="D25" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="E25" s="11"/>
     </row>
     <row r="26" customHeight="1" spans="1:5">
-      <c r="A26" s="8"/>
-      <c r="B26" s="5" t="s">
+      <c r="A26" s="13"/>
+      <c r="B26" s="11" t="s">
         <v>53</v>
       </c>
-      <c r="C26" s="6" t="s">
+      <c r="C26" s="11" t="s">
         <v>54</v>
       </c>
-      <c r="D26" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="E26" s="6"/>
+      <c r="D26" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="E26" s="11"/>
     </row>
     <row r="27" customHeight="1" spans="1:5">
-      <c r="A27" s="8"/>
-      <c r="B27" s="5" t="s">
+      <c r="A27" s="13"/>
+      <c r="B27" s="11" t="s">
         <v>43</v>
       </c>
-      <c r="C27" s="6" t="s">
+      <c r="C27" s="11" t="s">
         <v>55</v>
       </c>
-      <c r="D27" s="6" t="s">
+      <c r="D27" s="11" t="s">
         <v>56</v>
       </c>
-      <c r="E27" s="6"/>
+      <c r="E27" s="11"/>
     </row>
     <row r="28" customHeight="1" spans="1:5">
-      <c r="A28" s="8"/>
-      <c r="B28" s="5" t="s">
+      <c r="A28" s="13"/>
+      <c r="B28" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="C28" s="6" t="s">
+      <c r="C28" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="D28" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="E28" s="6"/>
+      <c r="D28" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="E28" s="11"/>
     </row>
     <row r="29" customHeight="1" spans="1:5">
-      <c r="A29" s="8"/>
-      <c r="B29" s="5" t="s">
+      <c r="A29" s="13"/>
+      <c r="B29" s="11" t="s">
         <v>59</v>
       </c>
-      <c r="C29" s="6" t="s">
+      <c r="C29" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="D29" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="E29" s="6"/>
+      <c r="D29" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="E29" s="11"/>
     </row>
     <row r="30" customHeight="1" spans="1:5">
-      <c r="A30" s="9"/>
-      <c r="B30" s="5" t="s">
+      <c r="A30" s="14"/>
+      <c r="B30" s="11" t="s">
         <v>60</v>
       </c>
-      <c r="C30" s="6" t="s">
+      <c r="C30" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="D30" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="E30" s="6"/>
+      <c r="D30" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="E30" s="11"/>
     </row>
     <row r="31" customHeight="1" spans="1:5">
-      <c r="A31" s="4">
+      <c r="A31" s="10">
         <v>8.23</v>
       </c>
-      <c r="B31" s="6" t="s">
+      <c r="B31" s="11" t="s">
         <v>61</v>
       </c>
-      <c r="C31" s="6" t="s">
+      <c r="C31" s="11" t="s">
         <v>62</v>
       </c>
-      <c r="D31" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="E31" s="6"/>
+      <c r="D31" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="E31" s="11"/>
     </row>
     <row r="32" customHeight="1" spans="1:5">
-      <c r="A32" s="4">
+      <c r="A32" s="10">
         <v>8.24</v>
       </c>
-      <c r="B32" s="6" t="s">
+      <c r="B32" s="11" t="s">
         <v>63</v>
       </c>
-      <c r="C32" s="6" t="s">
+      <c r="C32" s="11" t="s">
         <v>64</v>
       </c>
-      <c r="D32" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="E32" s="6"/>
+      <c r="D32" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="E32" s="11"/>
     </row>
     <row r="33" customHeight="1" spans="1:5">
-      <c r="A33" s="7">
+      <c r="A33" s="12">
         <v>8.25</v>
       </c>
-      <c r="B33" s="6" t="s">
+      <c r="B33" s="11" t="s">
         <v>65</v>
       </c>
-      <c r="C33" s="6" t="s">
+      <c r="C33" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="D33" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="E33" s="6"/>
+      <c r="D33" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="E33" s="11"/>
     </row>
     <row r="34" customHeight="1" spans="1:5">
-      <c r="A34" s="8"/>
-      <c r="B34" s="6" t="s">
+      <c r="A34" s="13"/>
+      <c r="B34" s="11" t="s">
         <v>66</v>
       </c>
-      <c r="C34" s="6" t="s">
+      <c r="C34" s="11" t="s">
         <v>67</v>
       </c>
-      <c r="D34" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="E34" s="6"/>
+      <c r="D34" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="E34" s="11"/>
     </row>
     <row r="35" customHeight="1" spans="1:5">
-      <c r="A35" s="8"/>
-      <c r="B35" s="6" t="s">
+      <c r="A35" s="13"/>
+      <c r="B35" s="11" t="s">
         <v>68</v>
       </c>
-      <c r="C35" s="6" t="s">
+      <c r="C35" s="11" t="s">
         <v>69</v>
       </c>
-      <c r="D35" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="E35" s="6"/>
+      <c r="D35" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="E35" s="11"/>
     </row>
     <row r="36" customHeight="1" spans="1:5">
-      <c r="A36" s="8"/>
-      <c r="B36" s="6" t="s">
+      <c r="A36" s="13"/>
+      <c r="B36" s="11" t="s">
         <v>70</v>
       </c>
-      <c r="C36" s="6" t="s">
+      <c r="C36" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="D36" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="E36" s="6"/>
+      <c r="D36" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="E36" s="11"/>
     </row>
     <row r="37" customHeight="1" spans="1:5">
-      <c r="A37" s="8"/>
-      <c r="B37" s="6" t="s">
+      <c r="A37" s="13"/>
+      <c r="B37" s="11" t="s">
         <v>71</v>
       </c>
-      <c r="C37" s="6" t="s">
+      <c r="C37" s="11" t="s">
         <v>72</v>
       </c>
-      <c r="D37" s="6" t="s">
+      <c r="D37" s="11" t="s">
         <v>73</v>
       </c>
-      <c r="E37" s="6"/>
+      <c r="E37" s="11"/>
     </row>
     <row r="38" customHeight="1" spans="1:5">
-      <c r="A38" s="9"/>
-      <c r="B38" s="6" t="s">
+      <c r="A38" s="14"/>
+      <c r="B38" s="11" t="s">
         <v>74</v>
       </c>
-      <c r="C38" s="6" t="s">
+      <c r="C38" s="11" t="s">
         <v>75</v>
       </c>
-      <c r="D38" s="6" t="s">
+      <c r="D38" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="E38" s="6"/>
+      <c r="E38" s="11"/>
     </row>
     <row r="39" customHeight="1" spans="1:5">
-      <c r="A39" s="7">
+      <c r="A39" s="12">
         <v>9.1</v>
       </c>
-      <c r="B39" s="6" t="s">
+      <c r="B39" s="11" t="s">
         <v>76</v>
       </c>
-      <c r="C39" s="6" t="s">
+      <c r="C39" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="D39" s="6" t="s">
+      <c r="D39" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="E39" s="6"/>
+      <c r="E39" s="11"/>
     </row>
     <row r="40" customHeight="1" spans="1:5">
-      <c r="A40" s="8"/>
-      <c r="B40" s="6" t="s">
+      <c r="A40" s="13"/>
+      <c r="B40" s="11" t="s">
         <v>77</v>
       </c>
-      <c r="C40" s="6" t="s">
+      <c r="C40" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="D40" s="6" t="s">
+      <c r="D40" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="E40" s="6"/>
+      <c r="E40" s="11"/>
     </row>
     <row r="41" customHeight="1" spans="1:5">
-      <c r="A41" s="8"/>
-      <c r="B41" s="6" t="s">
+      <c r="A41" s="13"/>
+      <c r="B41" s="11" t="s">
         <v>78</v>
       </c>
-      <c r="C41" s="6" t="s">
+      <c r="C41" s="11" t="s">
         <v>79</v>
       </c>
-      <c r="D41" s="6" t="s">
+      <c r="D41" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="E41" s="6"/>
+      <c r="E41" s="11"/>
     </row>
     <row r="42" customHeight="1" spans="1:5">
-      <c r="A42" s="8"/>
-      <c r="B42" s="6" t="s">
+      <c r="A42" s="13"/>
+      <c r="B42" s="11" t="s">
         <v>80</v>
       </c>
-      <c r="C42" s="6" t="s">
+      <c r="C42" s="11" t="s">
         <v>81</v>
       </c>
-      <c r="D42" s="6" t="s">
+      <c r="D42" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="E42" s="6"/>
+      <c r="E42" s="11"/>
     </row>
     <row r="43" customHeight="1" spans="1:5">
-      <c r="A43" s="8"/>
-      <c r="B43" s="6" t="s">
+      <c r="A43" s="13"/>
+      <c r="B43" s="11" t="s">
         <v>82</v>
       </c>
-      <c r="C43" s="6" t="s">
+      <c r="C43" s="11" t="s">
         <v>83</v>
       </c>
-      <c r="D43" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="E43" s="6"/>
+      <c r="D43" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="E43" s="11"/>
     </row>
     <row r="44" customHeight="1" spans="1:5">
-      <c r="A44" s="8"/>
-      <c r="B44" s="6" t="s">
+      <c r="A44" s="13"/>
+      <c r="B44" s="11" t="s">
         <v>84</v>
       </c>
-      <c r="C44" s="6" t="s">
+      <c r="C44" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="D44" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="E44" s="6"/>
+      <c r="D44" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="E44" s="11"/>
     </row>
     <row r="45" customHeight="1" spans="1:5">
-      <c r="A45" s="8"/>
-      <c r="B45" s="6" t="s">
+      <c r="A45" s="13"/>
+      <c r="B45" s="11" t="s">
         <v>85</v>
       </c>
-      <c r="C45" s="6" t="s">
+      <c r="C45" s="11" t="s">
         <v>86</v>
       </c>
-      <c r="D45" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="E45" s="6"/>
+      <c r="D45" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="E45" s="11"/>
     </row>
     <row r="46" customHeight="1" spans="1:5">
-      <c r="A46" s="8"/>
-      <c r="B46" s="6" t="s">
+      <c r="A46" s="13"/>
+      <c r="B46" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="C46" s="6" t="s">
+      <c r="C46" s="11" t="s">
         <v>87</v>
       </c>
-      <c r="D46" s="6" t="s">
+      <c r="D46" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="E46" s="6"/>
+      <c r="E46" s="11"/>
     </row>
     <row r="47" customHeight="1" spans="1:5">
-      <c r="A47" s="9"/>
-      <c r="B47" s="6" t="s">
+      <c r="A47" s="14"/>
+      <c r="B47" s="11" t="s">
         <v>88</v>
       </c>
-      <c r="C47" s="6" t="s">
+      <c r="C47" s="11" t="s">
         <v>89</v>
       </c>
-      <c r="D47" s="6" t="s">
+      <c r="D47" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="E47" s="6"/>
+      <c r="E47" s="11"/>
     </row>
     <row r="48" customHeight="1" spans="1:5">
-      <c r="A48" s="7">
+      <c r="A48" s="12">
         <v>9.2</v>
       </c>
-      <c r="B48" s="6" t="s">
+      <c r="B48" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="C48" s="6" t="s">
+      <c r="C48" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="D48" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="E48" s="6"/>
+      <c r="D48" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="E48" s="11"/>
     </row>
     <row r="49" customHeight="1" spans="1:5">
-      <c r="A49" s="8"/>
-      <c r="B49" s="6" t="s">
+      <c r="A49" s="13"/>
+      <c r="B49" s="11" t="s">
         <v>90</v>
       </c>
-      <c r="C49" s="6" t="s">
+      <c r="C49" s="11" t="s">
         <v>91</v>
       </c>
-      <c r="D49" s="6" t="s">
+      <c r="D49" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="E49" s="6"/>
+      <c r="E49" s="11"/>
     </row>
     <row r="50" customHeight="1" spans="1:5">
-      <c r="A50" s="8"/>
-      <c r="B50" s="6" t="s">
+      <c r="A50" s="13"/>
+      <c r="B50" s="11" t="s">
         <v>92</v>
       </c>
-      <c r="C50" s="6" t="s">
+      <c r="C50" s="11" t="s">
         <v>89</v>
       </c>
-      <c r="D50" s="6" t="s">
+      <c r="D50" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="E50" s="6"/>
+      <c r="E50" s="11"/>
     </row>
     <row r="51" customHeight="1" spans="1:5">
-      <c r="A51" s="8"/>
-      <c r="B51" s="6" t="s">
+      <c r="A51" s="13"/>
+      <c r="B51" s="11" t="s">
         <v>93</v>
       </c>
-      <c r="C51" s="6" t="s">
+      <c r="C51" s="11" t="s">
         <v>94</v>
       </c>
-      <c r="D51" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="E51" s="6"/>
+      <c r="D51" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="E51" s="11"/>
     </row>
     <row r="52" customHeight="1" spans="1:5">
-      <c r="A52" s="8"/>
-      <c r="B52" s="6" t="s">
+      <c r="A52" s="13"/>
+      <c r="B52" s="11" t="s">
         <v>95</v>
       </c>
-      <c r="C52" s="6" t="s">
+      <c r="C52" s="11" t="s">
         <v>79</v>
       </c>
-      <c r="D52" s="6" t="s">
+      <c r="D52" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="E52" s="6"/>
+      <c r="E52" s="11"/>
     </row>
     <row r="53" customHeight="1" spans="1:5">
-      <c r="A53" s="8"/>
-      <c r="B53" s="6" t="s">
+      <c r="A53" s="13"/>
+      <c r="B53" s="11" t="s">
         <v>96</v>
       </c>
-      <c r="D53" s="6"/>
-      <c r="E53" s="6" t="s">
+      <c r="D53" s="11"/>
+      <c r="E53" s="11" t="s">
         <v>97</v>
       </c>
     </row>
     <row r="54" customHeight="1" spans="1:5">
-      <c r="A54" s="8"/>
-      <c r="B54" s="6" t="s">
+      <c r="A54" s="13"/>
+      <c r="B54" s="11" t="s">
         <v>98</v>
       </c>
-      <c r="C54" s="6" t="s">
+      <c r="C54" s="11" t="s">
         <v>79</v>
       </c>
-      <c r="D54" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="E54" s="6"/>
+      <c r="D54" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="E54" s="11"/>
     </row>
     <row r="55" customHeight="1" spans="1:5">
-      <c r="A55" s="8"/>
-      <c r="B55" s="6" t="s">
+      <c r="A55" s="13"/>
+      <c r="B55" s="11" t="s">
         <v>99</v>
       </c>
-      <c r="C55" s="6" t="s">
+      <c r="C55" s="11" t="s">
         <v>100</v>
       </c>
-      <c r="D55" s="6" t="s">
+      <c r="D55" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="E55" s="6"/>
+      <c r="E55" s="11"/>
     </row>
     <row r="56" customHeight="1" spans="1:5">
-      <c r="A56" s="8"/>
-      <c r="B56" s="6" t="s">
+      <c r="A56" s="13"/>
+      <c r="B56" s="11" t="s">
         <v>101</v>
       </c>
-      <c r="C56" s="6" t="s">
+      <c r="C56" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="D56" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="E56" s="6"/>
+      <c r="D56" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="E56" s="11"/>
     </row>
     <row r="57" customHeight="1" spans="1:5">
-      <c r="A57" s="9"/>
-      <c r="B57" s="6" t="s">
+      <c r="A57" s="14"/>
+      <c r="B57" s="11" t="s">
         <v>102</v>
       </c>
-      <c r="C57" s="6" t="s">
+      <c r="C57" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="D57" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="E57" s="6"/>
+      <c r="D57" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="E57" s="11"/>
     </row>
     <row r="58" customHeight="1" spans="1:5">
-      <c r="A58" s="7">
+      <c r="A58" s="12">
         <v>9.3</v>
       </c>
-      <c r="B58" s="6" t="s">
+      <c r="B58" s="11" t="s">
         <v>103</v>
       </c>
-      <c r="C58" s="6" t="s">
+      <c r="C58" s="11" t="s">
         <v>75</v>
       </c>
-      <c r="D58" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="E58" s="6"/>
+      <c r="D58" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="E58" s="11"/>
     </row>
     <row r="59" customHeight="1" spans="1:5">
-      <c r="A59" s="8"/>
-      <c r="B59" s="6" t="s">
+      <c r="A59" s="13"/>
+      <c r="B59" s="11" t="s">
         <v>104</v>
       </c>
-      <c r="C59" s="6" t="s">
+      <c r="C59" s="11" t="s">
         <v>105</v>
       </c>
-      <c r="D59" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="E59" s="6"/>
+      <c r="D59" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="E59" s="11"/>
     </row>
     <row r="60" customHeight="1" spans="1:5">
-      <c r="A60" s="9"/>
-      <c r="B60" s="6" t="s">
+      <c r="A60" s="14"/>
+      <c r="B60" s="11" t="s">
         <v>106</v>
       </c>
-      <c r="C60" s="6" t="s">
+      <c r="C60" s="11" t="s">
         <v>107</v>
       </c>
-      <c r="D60" s="6" t="s">
+      <c r="D60" s="11" t="s">
         <v>108</v>
       </c>
-      <c r="E60" s="6"/>
+      <c r="E60" s="11"/>
     </row>
     <row r="61" customHeight="1" spans="1:5">
-      <c r="A61" s="7">
+      <c r="A61" s="12">
         <v>9.23</v>
       </c>
-      <c r="B61" s="6" t="s">
+      <c r="B61" s="11" t="s">
         <v>109</v>
       </c>
-      <c r="C61" s="6" t="s">
+      <c r="C61" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="D61" s="6" t="s">
+      <c r="D61" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="E61" s="6"/>
+      <c r="E61" s="11"/>
     </row>
     <row r="62" customHeight="1" spans="1:5">
-      <c r="A62" s="8"/>
-      <c r="B62" s="6" t="s">
+      <c r="A62" s="13"/>
+      <c r="B62" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="C62" s="6" t="s">
+      <c r="C62" s="11" t="s">
         <v>110</v>
       </c>
-      <c r="D62" s="6" t="s">
+      <c r="D62" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="E62" s="6"/>
+      <c r="E62" s="11"/>
     </row>
     <row r="63" customHeight="1" spans="1:5">
-      <c r="A63" s="8"/>
-      <c r="B63" s="6" t="s">
+      <c r="A63" s="13"/>
+      <c r="B63" s="11" t="s">
         <v>111</v>
       </c>
-      <c r="C63" s="6" t="s">
+      <c r="C63" s="11" t="s">
         <v>72</v>
       </c>
-      <c r="D63" s="6" t="s">
+      <c r="D63" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="E63" s="6"/>
+      <c r="E63" s="11"/>
     </row>
     <row r="64" customHeight="1" spans="1:5">
-      <c r="A64" s="8"/>
-      <c r="B64" s="6" t="s">
+      <c r="A64" s="13"/>
+      <c r="B64" s="11" t="s">
         <v>61</v>
       </c>
-      <c r="C64" s="6" t="s">
+      <c r="C64" s="11" t="s">
         <v>112</v>
       </c>
-      <c r="D64" s="6" t="s">
+      <c r="D64" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="E64" s="6"/>
+      <c r="E64" s="11"/>
     </row>
     <row r="65" customHeight="1" spans="1:5">
-      <c r="A65" s="9"/>
-      <c r="B65" s="6" t="s">
+      <c r="A65" s="14"/>
+      <c r="B65" s="11" t="s">
         <v>113</v>
       </c>
-      <c r="C65" s="6" t="s">
+      <c r="C65" s="11" t="s">
         <v>89</v>
       </c>
-      <c r="D65" s="6" t="s">
+      <c r="D65" s="11" t="s">
         <v>114</v>
       </c>
-      <c r="E65" s="6"/>
+      <c r="E65" s="11"/>
     </row>
     <row r="66" customHeight="1" spans="1:5">
-      <c r="A66" s="7">
+      <c r="A66" s="12">
         <v>9.24</v>
       </c>
-      <c r="B66" s="6" t="s">
+      <c r="B66" s="11" t="s">
         <v>115</v>
       </c>
-      <c r="C66" s="6" t="s">
+      <c r="C66" s="11" t="s">
         <v>116</v>
       </c>
-      <c r="D66" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="E66" s="6"/>
+      <c r="D66" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="E66" s="11"/>
     </row>
     <row r="67" customHeight="1" spans="1:5">
-      <c r="A67" s="8"/>
-      <c r="B67" s="6" t="s">
+      <c r="A67" s="13"/>
+      <c r="B67" s="11" t="s">
         <v>117</v>
       </c>
-      <c r="C67" s="6" t="s">
+      <c r="C67" s="11" t="s">
         <v>118</v>
       </c>
-      <c r="D67" s="6" t="s">
+      <c r="D67" s="11" t="s">
         <v>114</v>
       </c>
-      <c r="E67" s="6"/>
+      <c r="E67" s="11"/>
     </row>
     <row r="68" customHeight="1" spans="1:5">
-      <c r="A68" s="8"/>
-      <c r="B68" s="6" t="s">
+      <c r="A68" s="13"/>
+      <c r="B68" s="11" t="s">
         <v>119</v>
       </c>
-      <c r="C68" s="6" t="s">
+      <c r="C68" s="11" t="s">
         <v>120</v>
       </c>
-      <c r="D68" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="E68" s="6"/>
+      <c r="D68" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="E68" s="11"/>
     </row>
     <row r="69" customHeight="1" spans="1:5">
-      <c r="A69" s="8"/>
-      <c r="B69" s="6" t="s">
+      <c r="A69" s="13"/>
+      <c r="B69" s="11" t="s">
         <v>121</v>
       </c>
-      <c r="C69" s="6" t="s">
+      <c r="C69" s="11" t="s">
         <v>122</v>
       </c>
-      <c r="D69" s="6" t="s">
+      <c r="D69" s="11" t="s">
         <v>123</v>
       </c>
-      <c r="E69" s="6"/>
+      <c r="E69" s="11"/>
     </row>
     <row r="70" customHeight="1" spans="1:5">
-      <c r="A70" s="8"/>
-      <c r="B70" s="6" t="s">
+      <c r="A70" s="13"/>
+      <c r="B70" s="11" t="s">
         <v>124</v>
       </c>
-      <c r="C70" s="6" t="s">
+      <c r="C70" s="11" t="s">
         <v>120</v>
       </c>
-      <c r="D70" s="6" t="s">
+      <c r="D70" s="11" t="s">
         <v>125</v>
       </c>
-      <c r="E70" s="6"/>
+      <c r="E70" s="11"/>
     </row>
     <row r="71" customHeight="1" spans="1:5">
-      <c r="A71" s="8"/>
-      <c r="B71" s="6" t="s">
+      <c r="A71" s="13"/>
+      <c r="B71" s="11" t="s">
         <v>126</v>
       </c>
-      <c r="C71" s="6" t="s">
+      <c r="C71" s="11" t="s">
         <v>62</v>
       </c>
-      <c r="D71" s="6" t="s">
+      <c r="D71" s="11" t="s">
         <v>125</v>
       </c>
-      <c r="E71" s="6"/>
+      <c r="E71" s="11"/>
     </row>
     <row r="72" customHeight="1" spans="1:5">
-      <c r="A72" s="9"/>
-      <c r="B72" s="6" t="s">
+      <c r="A72" s="14"/>
+      <c r="B72" s="11" t="s">
         <v>127</v>
       </c>
-      <c r="C72" s="6" t="s">
+      <c r="C72" s="11" t="s">
         <v>128</v>
       </c>
-      <c r="D72" s="6" t="s">
+      <c r="D72" s="11" t="s">
         <v>125</v>
       </c>
-      <c r="E72" s="6"/>
+      <c r="E72" s="11"/>
     </row>
     <row r="73" customHeight="1" spans="1:5">
-      <c r="A73" s="7">
+      <c r="A73" s="12">
         <v>9.26</v>
       </c>
-      <c r="B73" s="6" t="s">
+      <c r="B73" s="11" t="s">
         <v>129</v>
       </c>
-      <c r="C73" s="6" t="s">
+      <c r="C73" s="11" t="s">
         <v>130</v>
       </c>
-      <c r="D73" s="6" t="s">
+      <c r="D73" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="E73" s="6"/>
+      <c r="E73" s="11"/>
     </row>
     <row r="74" customHeight="1" spans="1:5">
-      <c r="A74" s="8"/>
-      <c r="B74" s="6" t="s">
+      <c r="A74" s="13"/>
+      <c r="B74" s="11" t="s">
         <v>131</v>
       </c>
-      <c r="C74" s="6" t="s">
+      <c r="C74" s="11" t="s">
         <v>132</v>
       </c>
-      <c r="D74" s="6" t="s">
+      <c r="D74" s="11" t="s">
         <v>133</v>
       </c>
-      <c r="E74" s="6"/>
+      <c r="E74" s="11"/>
     </row>
     <row r="75" customHeight="1" spans="1:5">
-      <c r="A75" s="9"/>
-      <c r="B75" s="6" t="s">
+      <c r="A75" s="14"/>
+      <c r="B75" s="11" t="s">
         <v>134</v>
       </c>
-      <c r="C75" s="6"/>
-      <c r="D75" s="6" t="s">
+      <c r="C75" s="11"/>
+      <c r="D75" s="11" t="s">
         <v>125</v>
       </c>
-      <c r="E75" s="6"/>
+      <c r="E75" s="11"/>
     </row>
     <row r="76" customHeight="1" spans="1:5">
-      <c r="A76" s="7">
+      <c r="A76" s="12">
         <v>9.27</v>
       </c>
-      <c r="B76" s="6" t="s">
+      <c r="B76" s="11" t="s">
         <v>135</v>
       </c>
-      <c r="C76" s="6" t="s">
+      <c r="C76" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="D76" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="E76" s="6"/>
+      <c r="D76" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="E76" s="11"/>
     </row>
     <row r="77" customHeight="1" spans="1:5">
-      <c r="A77" s="8"/>
-      <c r="B77" s="6" t="s">
+      <c r="A77" s="13"/>
+      <c r="B77" s="11" t="s">
         <v>136</v>
       </c>
-      <c r="C77" s="6" t="s">
+      <c r="C77" s="11" t="s">
         <v>64</v>
       </c>
-      <c r="D77" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="E77" s="6"/>
+      <c r="D77" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="E77" s="11"/>
     </row>
     <row r="78" customHeight="1" spans="1:5">
-      <c r="A78" s="9"/>
-      <c r="B78" s="6" t="s">
+      <c r="A78" s="14"/>
+      <c r="B78" s="11" t="s">
         <v>109</v>
       </c>
-      <c r="C78" s="6" t="s">
+      <c r="C78" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="D78" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="E78" s="6"/>
+      <c r="D78" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="E78" s="11"/>
     </row>
     <row r="79" customHeight="1" spans="1:5">
-      <c r="A79" s="7">
+      <c r="A79" s="12">
         <v>10.13</v>
       </c>
-      <c r="B79" s="6" t="s">
+      <c r="B79" s="11" t="s">
         <v>137</v>
       </c>
-      <c r="C79" s="6" t="s">
+      <c r="C79" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="D79" s="6"/>
-      <c r="E79" s="6"/>
+      <c r="D79" s="11"/>
+      <c r="E79" s="11"/>
     </row>
     <row r="80" customHeight="1" spans="1:5">
-      <c r="A80" s="9"/>
-      <c r="B80" s="6" t="s">
+      <c r="A80" s="14"/>
+      <c r="B80" s="11" t="s">
         <v>78</v>
       </c>
-      <c r="C80" s="6" t="s">
+      <c r="C80" s="11" t="s">
         <v>79</v>
       </c>
-      <c r="D80" s="6"/>
-      <c r="E80" s="6"/>
+      <c r="D80" s="11"/>
+      <c r="E80" s="11"/>
     </row>
     <row r="81" customHeight="1" spans="1:5">
-      <c r="A81" s="6"/>
-      <c r="B81" s="6"/>
-      <c r="C81" s="6"/>
-      <c r="D81" s="6"/>
-      <c r="E81" s="6"/>
+      <c r="A81" s="11"/>
+      <c r="B81" s="11"/>
+      <c r="C81" s="11"/>
+      <c r="D81" s="11"/>
+      <c r="E81" s="11"/>
     </row>
     <row r="82" customHeight="1" spans="1:5">
-      <c r="A82" s="6"/>
-      <c r="B82" s="6"/>
-      <c r="C82" s="6"/>
-      <c r="D82" s="6"/>
-      <c r="E82" s="6"/>
+      <c r="A82" s="11"/>
+      <c r="B82" s="11"/>
+      <c r="C82" s="11"/>
+      <c r="D82" s="11"/>
+      <c r="E82" s="11"/>
     </row>
     <row r="83" customHeight="1" spans="1:5">
-      <c r="A83" s="6"/>
-      <c r="B83" s="6"/>
-      <c r="C83" s="6"/>
-      <c r="D83" s="6"/>
-      <c r="E83" s="6"/>
+      <c r="A83" s="11"/>
+      <c r="B83" s="11"/>
+      <c r="C83" s="11"/>
+      <c r="D83" s="11"/>
+      <c r="E83" s="11"/>
     </row>
     <row r="84" customHeight="1" spans="1:5">
-      <c r="A84" s="6"/>
-      <c r="B84" s="6"/>
-      <c r="C84" s="6"/>
-      <c r="D84" s="6"/>
-      <c r="E84" s="6"/>
+      <c r="A84" s="11"/>
+      <c r="B84" s="11"/>
+      <c r="C84" s="11"/>
+      <c r="D84" s="11"/>
+      <c r="E84" s="11"/>
     </row>
     <row r="85" customHeight="1" spans="1:5">
-      <c r="A85" s="6"/>
-      <c r="B85" s="6"/>
-      <c r="C85" s="6"/>
-      <c r="D85" s="6"/>
-      <c r="E85" s="6"/>
+      <c r="A85" s="11"/>
+      <c r="B85" s="11"/>
+      <c r="C85" s="11"/>
+      <c r="D85" s="11"/>
+      <c r="E85" s="11"/>
     </row>
     <row r="86" customHeight="1" spans="1:5">
-      <c r="A86" s="6"/>
-      <c r="B86" s="6"/>
-      <c r="C86" s="6"/>
-      <c r="D86" s="6"/>
-      <c r="E86" s="6"/>
+      <c r="A86" s="11"/>
+      <c r="B86" s="11"/>
+      <c r="C86" s="11"/>
+      <c r="D86" s="11"/>
+      <c r="E86" s="11"/>
     </row>
     <row r="87" customHeight="1" spans="1:5">
-      <c r="A87" s="6"/>
-      <c r="B87" s="6"/>
-      <c r="C87" s="6"/>
-      <c r="D87" s="6"/>
-      <c r="E87" s="6"/>
+      <c r="A87" s="11"/>
+      <c r="B87" s="11"/>
+      <c r="C87" s="11"/>
+      <c r="D87" s="11"/>
+      <c r="E87" s="11"/>
     </row>
     <row r="88" customHeight="1" spans="1:5">
-      <c r="A88" s="6"/>
-      <c r="B88" s="6"/>
-      <c r="C88" s="6"/>
-      <c r="D88" s="6"/>
-      <c r="E88" s="6"/>
+      <c r="A88" s="11"/>
+      <c r="B88" s="11"/>
+      <c r="C88" s="11"/>
+      <c r="D88" s="11"/>
+      <c r="E88" s="11"/>
     </row>
     <row r="89" customHeight="1" spans="1:5">
-      <c r="A89" s="6"/>
-      <c r="B89" s="6"/>
-      <c r="C89" s="6"/>
-      <c r="D89" s="6"/>
-      <c r="E89" s="6"/>
+      <c r="A89" s="11"/>
+      <c r="B89" s="11"/>
+      <c r="C89" s="11"/>
+      <c r="D89" s="11"/>
+      <c r="E89" s="11"/>
     </row>
     <row r="90" customHeight="1" spans="1:5">
-      <c r="A90" s="6"/>
-      <c r="B90" s="6"/>
-      <c r="C90" s="6"/>
-      <c r="D90" s="6"/>
-      <c r="E90" s="6"/>
+      <c r="A90" s="11"/>
+      <c r="B90" s="11"/>
+      <c r="C90" s="11"/>
+      <c r="D90" s="11"/>
+      <c r="E90" s="11"/>
     </row>
     <row r="91" customHeight="1" spans="1:5">
-      <c r="A91" s="6"/>
-      <c r="B91" s="6"/>
-      <c r="C91" s="6"/>
-      <c r="D91" s="6"/>
-      <c r="E91" s="6"/>
+      <c r="A91" s="11"/>
+      <c r="B91" s="11"/>
+      <c r="C91" s="11"/>
+      <c r="D91" s="11"/>
+      <c r="E91" s="11"/>
     </row>
     <row r="92" customHeight="1" spans="1:5">
-      <c r="A92" s="6"/>
-      <c r="B92" s="6"/>
-      <c r="C92" s="6"/>
-      <c r="D92" s="6"/>
-      <c r="E92" s="6"/>
+      <c r="A92" s="11"/>
+      <c r="B92" s="11"/>
+      <c r="C92" s="11"/>
+      <c r="D92" s="11"/>
+      <c r="E92" s="11"/>
     </row>
     <row r="93" customHeight="1" spans="1:5">
-      <c r="A93" s="6"/>
-      <c r="B93" s="6"/>
-      <c r="C93" s="6"/>
-      <c r="D93" s="6"/>
-      <c r="E93" s="6"/>
+      <c r="A93" s="11"/>
+      <c r="B93" s="11"/>
+      <c r="C93" s="11"/>
+      <c r="D93" s="11"/>
+      <c r="E93" s="11"/>
     </row>
     <row r="94" customHeight="1" spans="1:5">
-      <c r="A94" s="6"/>
-      <c r="B94" s="6"/>
-      <c r="C94" s="6"/>
-      <c r="D94" s="6"/>
-      <c r="E94" s="6"/>
+      <c r="A94" s="11"/>
+      <c r="B94" s="11"/>
+      <c r="C94" s="11"/>
+      <c r="D94" s="11"/>
+      <c r="E94" s="11"/>
     </row>
     <row r="95" customHeight="1" spans="1:5">
-      <c r="A95" s="6"/>
-      <c r="B95" s="6"/>
-      <c r="C95" s="6"/>
-      <c r="D95" s="6"/>
-      <c r="E95" s="6"/>
+      <c r="A95" s="11"/>
+      <c r="B95" s="11"/>
+      <c r="C95" s="11"/>
+      <c r="D95" s="11"/>
+      <c r="E95" s="11"/>
     </row>
     <row r="96" customHeight="1" spans="1:5">
-      <c r="A96" s="6"/>
-      <c r="B96" s="6"/>
-      <c r="C96" s="6"/>
-      <c r="D96" s="6"/>
-      <c r="E96" s="6"/>
+      <c r="A96" s="11"/>
+      <c r="B96" s="11"/>
+      <c r="C96" s="11"/>
+      <c r="D96" s="11"/>
+      <c r="E96" s="11"/>
     </row>
     <row r="97" customHeight="1" spans="1:5">
-      <c r="A97" s="6"/>
-      <c r="B97" s="6"/>
-      <c r="C97" s="6"/>
-      <c r="D97" s="6"/>
-      <c r="E97" s="6"/>
+      <c r="A97" s="11"/>
+      <c r="B97" s="11"/>
+      <c r="C97" s="11"/>
+      <c r="D97" s="11"/>
+      <c r="E97" s="11"/>
     </row>
     <row r="98" customHeight="1" spans="1:5">
-      <c r="A98" s="6"/>
-      <c r="B98" s="6"/>
-      <c r="C98" s="6"/>
-      <c r="D98" s="6"/>
-      <c r="E98" s="6"/>
+      <c r="A98" s="11"/>
+      <c r="B98" s="11"/>
+      <c r="C98" s="11"/>
+      <c r="D98" s="11"/>
+      <c r="E98" s="11"/>
     </row>
     <row r="99" customHeight="1" spans="1:5">
-      <c r="A99" s="6"/>
-      <c r="B99" s="6"/>
-      <c r="C99" s="6"/>
-      <c r="D99" s="6"/>
-      <c r="E99" s="6"/>
+      <c r="A99" s="11"/>
+      <c r="B99" s="11"/>
+      <c r="C99" s="11"/>
+      <c r="D99" s="11"/>
+      <c r="E99" s="11"/>
     </row>
   </sheetData>
   <mergeCells count="13">
@@ -2732,14 +2846,469 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1"/>
+  <dimension ref="A1:F34"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
-  <sheetData/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
+  <cols>
+    <col min="1" max="1" width="15.5" style="2" customWidth="1"/>
+    <col min="2" max="2" width="31.375" customWidth="1"/>
+    <col min="3" max="4" width="13.25" customWidth="1"/>
+    <col min="5" max="5" width="32.75" customWidth="1"/>
+    <col min="6" max="6" width="21.125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" s="1" customFormat="1" ht="16" customHeight="1" spans="1:6">
+      <c r="A1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" ht="18" customHeight="1" spans="1:6">
+      <c r="A2" s="5">
+        <v>3.8</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>139</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>140</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>141</v>
+      </c>
+      <c r="E2" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="F2" s="6"/>
+    </row>
+    <row r="3" ht="18" customHeight="1" spans="1:6">
+      <c r="A3" s="5">
+        <v>3.8</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>143</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>140</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="E3" s="6" t="s">
+        <v>144</v>
+      </c>
+      <c r="F3" s="6"/>
+    </row>
+    <row r="4" ht="18" customHeight="1" spans="1:6">
+      <c r="A4" s="5">
+        <v>3.8</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>140</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="E4" s="6" t="s">
+        <v>145</v>
+      </c>
+      <c r="F4" s="6"/>
+    </row>
+    <row r="5" ht="18" customHeight="1" spans="1:6">
+      <c r="A5" s="5">
+        <v>3.8</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>146</v>
+      </c>
+      <c r="C5" s="8" t="s">
+        <v>147</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>148</v>
+      </c>
+      <c r="E5" s="6" t="s">
+        <v>145</v>
+      </c>
+      <c r="F5" s="6"/>
+    </row>
+    <row r="6" ht="18" customHeight="1" spans="1:6">
+      <c r="A6" s="5">
+        <v>3.7</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>149</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>140</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>150</v>
+      </c>
+      <c r="E6" s="6" t="s">
+        <v>145</v>
+      </c>
+      <c r="F6" s="6"/>
+    </row>
+    <row r="7" ht="18" customHeight="1" spans="1:6">
+      <c r="A7" s="5">
+        <v>3.7</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>151</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>140</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>152</v>
+      </c>
+      <c r="E7" s="6" t="s">
+        <v>145</v>
+      </c>
+      <c r="F7" s="6"/>
+    </row>
+    <row r="8" ht="18" customHeight="1" spans="1:6">
+      <c r="A8" s="5">
+        <v>3.7</v>
+      </c>
+      <c r="B8" s="6" t="s">
+        <v>153</v>
+      </c>
+      <c r="C8" s="8" t="s">
+        <v>147</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="E8" s="6" t="s">
+        <v>145</v>
+      </c>
+      <c r="F8" s="6"/>
+    </row>
+    <row r="9" ht="18" customHeight="1" spans="1:6">
+      <c r="A9" s="5">
+        <v>3.4</v>
+      </c>
+      <c r="B9" s="6" t="s">
+        <v>154</v>
+      </c>
+      <c r="C9" s="8" t="s">
+        <v>147</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>155</v>
+      </c>
+      <c r="E9" s="6" t="s">
+        <v>144</v>
+      </c>
+      <c r="F9" s="6"/>
+    </row>
+    <row r="10" ht="18" customHeight="1" spans="1:6">
+      <c r="A10" s="5">
+        <v>3.4</v>
+      </c>
+      <c r="B10" s="6" t="s">
+        <v>156</v>
+      </c>
+      <c r="C10" s="8" t="s">
+        <v>147</v>
+      </c>
+      <c r="D10" s="6" t="s">
+        <v>157</v>
+      </c>
+      <c r="E10" s="6" t="s">
+        <v>158</v>
+      </c>
+      <c r="F10" s="6"/>
+    </row>
+    <row r="11" ht="18" customHeight="1" spans="1:6">
+      <c r="A11" s="5">
+        <v>2.25</v>
+      </c>
+      <c r="B11" s="6" t="s">
+        <v>159</v>
+      </c>
+      <c r="C11" s="6" t="s">
+        <v>140</v>
+      </c>
+      <c r="D11" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="E11" s="6" t="s">
+        <v>144</v>
+      </c>
+      <c r="F11" s="6"/>
+    </row>
+    <row r="12" ht="18" customHeight="1" spans="1:6">
+      <c r="A12" s="5">
+        <v>2.25</v>
+      </c>
+      <c r="B12" s="6" t="s">
+        <v>136</v>
+      </c>
+      <c r="C12" s="6" t="s">
+        <v>140</v>
+      </c>
+      <c r="D12" s="6" t="s">
+        <v>160</v>
+      </c>
+      <c r="E12" s="6" t="s">
+        <v>145</v>
+      </c>
+      <c r="F12" s="6"/>
+    </row>
+    <row r="13" ht="18" customHeight="1" spans="1:6">
+      <c r="A13" s="5">
+        <v>2.25</v>
+      </c>
+      <c r="B13" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="C13" s="6" t="s">
+        <v>140</v>
+      </c>
+      <c r="D13" s="6" t="s">
+        <v>161</v>
+      </c>
+      <c r="E13" s="6" t="s">
+        <v>145</v>
+      </c>
+      <c r="F13" s="6"/>
+    </row>
+    <row r="14" ht="18" customHeight="1" spans="1:6">
+      <c r="A14" s="5">
+        <v>2.17</v>
+      </c>
+      <c r="B14" s="6" t="s">
+        <v>162</v>
+      </c>
+      <c r="C14" s="6" t="s">
+        <v>140</v>
+      </c>
+      <c r="D14" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="E14" s="6" t="s">
+        <v>163</v>
+      </c>
+      <c r="F14" s="6"/>
+    </row>
+    <row r="15" ht="18" customHeight="1" spans="1:6">
+      <c r="A15" s="5">
+        <v>2.16</v>
+      </c>
+      <c r="B15" s="6" t="s">
+        <v>164</v>
+      </c>
+      <c r="C15" s="6" t="s">
+        <v>140</v>
+      </c>
+      <c r="D15" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="E15" s="6" t="s">
+        <v>144</v>
+      </c>
+      <c r="F15" s="6"/>
+    </row>
+    <row r="16" ht="18" customHeight="1" spans="1:6">
+      <c r="A16" s="5">
+        <v>2.15</v>
+      </c>
+      <c r="B16" s="6" t="s">
+        <v>165</v>
+      </c>
+      <c r="C16" s="6" t="s">
+        <v>140</v>
+      </c>
+      <c r="D16" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="E16" s="6" t="s">
+        <v>145</v>
+      </c>
+      <c r="F16" s="6"/>
+    </row>
+    <row r="17" ht="18" customHeight="1" spans="1:6">
+      <c r="A17" s="5">
+        <v>2.14</v>
+      </c>
+      <c r="B17" s="6" t="s">
+        <v>166</v>
+      </c>
+      <c r="C17" s="6" t="s">
+        <v>140</v>
+      </c>
+      <c r="D17" s="6" t="s">
+        <v>167</v>
+      </c>
+      <c r="E17" s="6" t="s">
+        <v>144</v>
+      </c>
+      <c r="F17" s="6"/>
+    </row>
+    <row r="18" ht="18" customHeight="1" spans="1:6">
+      <c r="A18" s="5"/>
+      <c r="B18" s="6"/>
+      <c r="C18" s="6"/>
+      <c r="D18" s="6"/>
+      <c r="E18" s="6"/>
+      <c r="F18" s="6"/>
+    </row>
+    <row r="19" ht="18" customHeight="1" spans="1:6">
+      <c r="A19" s="5"/>
+      <c r="B19" s="6"/>
+      <c r="C19" s="6"/>
+      <c r="D19" s="6"/>
+      <c r="E19" s="6"/>
+      <c r="F19" s="6"/>
+    </row>
+    <row r="20" ht="18" customHeight="1" spans="1:6">
+      <c r="A20" s="5"/>
+      <c r="B20" s="6"/>
+      <c r="C20" s="6"/>
+      <c r="D20" s="6"/>
+      <c r="E20" s="6"/>
+      <c r="F20" s="6"/>
+    </row>
+    <row r="21" ht="18" customHeight="1" spans="1:6">
+      <c r="A21" s="5"/>
+      <c r="B21" s="6"/>
+      <c r="C21" s="6"/>
+      <c r="D21" s="6"/>
+      <c r="E21" s="6"/>
+      <c r="F21" s="6"/>
+    </row>
+    <row r="22" ht="18" customHeight="1" spans="1:6">
+      <c r="A22" s="5"/>
+      <c r="B22" s="6"/>
+      <c r="C22" s="6"/>
+      <c r="D22" s="6"/>
+      <c r="E22" s="6"/>
+      <c r="F22" s="6"/>
+    </row>
+    <row r="23" ht="18" customHeight="1" spans="1:6">
+      <c r="A23" s="5"/>
+      <c r="B23" s="6"/>
+      <c r="C23" s="6"/>
+      <c r="D23" s="6"/>
+      <c r="E23" s="6"/>
+      <c r="F23" s="6"/>
+    </row>
+    <row r="24" ht="18" customHeight="1" spans="1:6">
+      <c r="A24" s="5"/>
+      <c r="B24" s="6"/>
+      <c r="C24" s="6"/>
+      <c r="D24" s="6"/>
+      <c r="E24" s="6"/>
+      <c r="F24" s="6"/>
+    </row>
+    <row r="25" spans="1:6">
+      <c r="A25" s="5"/>
+      <c r="B25" s="6"/>
+      <c r="C25" s="6"/>
+      <c r="D25" s="6"/>
+      <c r="E25" s="6"/>
+      <c r="F25" s="6"/>
+    </row>
+    <row r="26" spans="1:6">
+      <c r="A26" s="5"/>
+      <c r="B26" s="6"/>
+      <c r="C26" s="6"/>
+      <c r="D26" s="6"/>
+      <c r="E26" s="6"/>
+      <c r="F26" s="6"/>
+    </row>
+    <row r="27" spans="1:6">
+      <c r="A27" s="5"/>
+      <c r="B27" s="6"/>
+      <c r="C27" s="6"/>
+      <c r="D27" s="6"/>
+      <c r="E27" s="6"/>
+      <c r="F27" s="6"/>
+    </row>
+    <row r="28" spans="1:6">
+      <c r="A28" s="5"/>
+      <c r="B28" s="6"/>
+      <c r="C28" s="6"/>
+      <c r="D28" s="6"/>
+      <c r="E28" s="6"/>
+      <c r="F28" s="6"/>
+    </row>
+    <row r="29" spans="1:6">
+      <c r="A29" s="5"/>
+      <c r="B29" s="6"/>
+      <c r="C29" s="6"/>
+      <c r="D29" s="6"/>
+      <c r="E29" s="6"/>
+      <c r="F29" s="6"/>
+    </row>
+    <row r="30" spans="1:6">
+      <c r="A30" s="5"/>
+      <c r="B30" s="6"/>
+      <c r="C30" s="6"/>
+      <c r="D30" s="6"/>
+      <c r="E30" s="6"/>
+      <c r="F30" s="6"/>
+    </row>
+    <row r="31" spans="1:6">
+      <c r="A31" s="5"/>
+      <c r="B31" s="6"/>
+      <c r="C31" s="6"/>
+      <c r="D31" s="6"/>
+      <c r="E31" s="6"/>
+      <c r="F31" s="6"/>
+    </row>
+    <row r="32" spans="1:6">
+      <c r="A32" s="5"/>
+      <c r="B32" s="6"/>
+      <c r="C32" s="6"/>
+      <c r="D32" s="6"/>
+      <c r="E32" s="6"/>
+      <c r="F32" s="6"/>
+    </row>
+    <row r="33" spans="1:6">
+      <c r="A33" s="5"/>
+      <c r="B33" s="6"/>
+      <c r="C33" s="6"/>
+      <c r="D33" s="6"/>
+      <c r="E33" s="6"/>
+      <c r="F33" s="6"/>
+    </row>
+    <row r="34" spans="1:6">
+      <c r="A34" s="5"/>
+      <c r="B34" s="6"/>
+      <c r="C34" s="6"/>
+      <c r="D34" s="6"/>
+      <c r="E34" s="6"/>
+      <c r="F34" s="6"/>
+    </row>
+  </sheetData>
+  <autoFilter ref="C1:C34">
+    <extLst/>
+  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>

--- a/OverView/interview.xlsx
+++ b/OverView/interview.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="17490" windowHeight="11790" activeTab="1"/>
+    <workbookView windowWidth="16005" windowHeight="11790" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -532,8 +532,8 @@
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -567,6 +567,13 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -575,7 +582,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -597,15 +604,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -613,29 +612,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -657,11 +634,26 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -681,6 +673,22 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
       <name val="宋体"/>
@@ -688,16 +696,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -718,13 +718,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -736,31 +736,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -772,7 +766,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -784,13 +784,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -808,31 +814,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -844,61 +862,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -964,16 +964,16 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
+      <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
+      <right style="double">
         <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
+      <top style="double">
         <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
+      <bottom style="double">
         <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
@@ -990,9 +990,11 @@
     <border>
       <left/>
       <right/>
-      <top/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1027,13 +1029,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1047,17 +1053,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1069,10 +1069,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="25" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="25" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1081,133 +1081,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="29" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2845,11 +2845,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:F34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
@@ -2881,7 +2881,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" ht="18" customHeight="1" spans="1:6">
+    <row r="2" ht="18" hidden="1" customHeight="1" spans="1:6">
       <c r="A2" s="5">
         <v>3.8</v>
       </c>
@@ -2899,7 +2899,7 @@
       </c>
       <c r="F2" s="6"/>
     </row>
-    <row r="3" ht="18" customHeight="1" spans="1:6">
+    <row r="3" ht="18" hidden="1" customHeight="1" spans="1:6">
       <c r="A3" s="5">
         <v>3.8</v>
       </c>
@@ -2917,7 +2917,7 @@
       </c>
       <c r="F3" s="6"/>
     </row>
-    <row r="4" ht="18" customHeight="1" spans="1:6">
+    <row r="4" ht="18" hidden="1" customHeight="1" spans="1:6">
       <c r="A4" s="5">
         <v>3.8</v>
       </c>
@@ -2953,7 +2953,7 @@
       </c>
       <c r="F5" s="6"/>
     </row>
-    <row r="6" ht="18" customHeight="1" spans="1:6">
+    <row r="6" ht="18" hidden="1" customHeight="1" spans="1:6">
       <c r="A6" s="5">
         <v>3.7</v>
       </c>
@@ -2971,7 +2971,7 @@
       </c>
       <c r="F6" s="6"/>
     </row>
-    <row r="7" ht="18" customHeight="1" spans="1:6">
+    <row r="7" ht="18" hidden="1" customHeight="1" spans="1:6">
       <c r="A7" s="5">
         <v>3.7</v>
       </c>
@@ -3043,7 +3043,7 @@
       </c>
       <c r="F10" s="6"/>
     </row>
-    <row r="11" ht="18" customHeight="1" spans="1:6">
+    <row r="11" ht="18" hidden="1" customHeight="1" spans="1:6">
       <c r="A11" s="5">
         <v>2.25</v>
       </c>
@@ -3061,7 +3061,7 @@
       </c>
       <c r="F11" s="6"/>
     </row>
-    <row r="12" ht="18" customHeight="1" spans="1:6">
+    <row r="12" ht="18" hidden="1" customHeight="1" spans="1:6">
       <c r="A12" s="5">
         <v>2.25</v>
       </c>
@@ -3079,7 +3079,7 @@
       </c>
       <c r="F12" s="6"/>
     </row>
-    <row r="13" ht="18" customHeight="1" spans="1:6">
+    <row r="13" ht="18" hidden="1" customHeight="1" spans="1:6">
       <c r="A13" s="5">
         <v>2.25</v>
       </c>
@@ -3097,7 +3097,7 @@
       </c>
       <c r="F13" s="6"/>
     </row>
-    <row r="14" ht="18" customHeight="1" spans="1:6">
+    <row r="14" ht="18" hidden="1" customHeight="1" spans="1:6">
       <c r="A14" s="5">
         <v>2.17</v>
       </c>
@@ -3115,7 +3115,7 @@
       </c>
       <c r="F14" s="6"/>
     </row>
-    <row r="15" ht="18" customHeight="1" spans="1:6">
+    <row r="15" ht="18" hidden="1" customHeight="1" spans="1:6">
       <c r="A15" s="5">
         <v>2.16</v>
       </c>
@@ -3133,7 +3133,7 @@
       </c>
       <c r="F15" s="6"/>
     </row>
-    <row r="16" ht="18" customHeight="1" spans="1:6">
+    <row r="16" ht="18" hidden="1" customHeight="1" spans="1:6">
       <c r="A16" s="5">
         <v>2.15</v>
       </c>
@@ -3151,7 +3151,7 @@
       </c>
       <c r="F16" s="6"/>
     </row>
-    <row r="17" ht="18" customHeight="1" spans="1:6">
+    <row r="17" ht="18" hidden="1" customHeight="1" spans="1:6">
       <c r="A17" s="5">
         <v>2.14</v>
       </c>
@@ -3169,7 +3169,7 @@
       </c>
       <c r="F17" s="6"/>
     </row>
-    <row r="18" ht="18" customHeight="1" spans="1:6">
+    <row r="18" ht="18" hidden="1" customHeight="1" spans="1:6">
       <c r="A18" s="5"/>
       <c r="B18" s="6"/>
       <c r="C18" s="6"/>
@@ -3177,7 +3177,7 @@
       <c r="E18" s="6"/>
       <c r="F18" s="6"/>
     </row>
-    <row r="19" ht="18" customHeight="1" spans="1:6">
+    <row r="19" ht="18" hidden="1" customHeight="1" spans="1:6">
       <c r="A19" s="5"/>
       <c r="B19" s="6"/>
       <c r="C19" s="6"/>
@@ -3185,7 +3185,7 @@
       <c r="E19" s="6"/>
       <c r="F19" s="6"/>
     </row>
-    <row r="20" ht="18" customHeight="1" spans="1:6">
+    <row r="20" ht="18" hidden="1" customHeight="1" spans="1:6">
       <c r="A20" s="5"/>
       <c r="B20" s="6"/>
       <c r="C20" s="6"/>
@@ -3193,7 +3193,7 @@
       <c r="E20" s="6"/>
       <c r="F20" s="6"/>
     </row>
-    <row r="21" ht="18" customHeight="1" spans="1:6">
+    <row r="21" ht="18" hidden="1" customHeight="1" spans="1:6">
       <c r="A21" s="5"/>
       <c r="B21" s="6"/>
       <c r="C21" s="6"/>
@@ -3201,7 +3201,7 @@
       <c r="E21" s="6"/>
       <c r="F21" s="6"/>
     </row>
-    <row r="22" ht="18" customHeight="1" spans="1:6">
+    <row r="22" ht="18" hidden="1" customHeight="1" spans="1:6">
       <c r="A22" s="5"/>
       <c r="B22" s="6"/>
       <c r="C22" s="6"/>
@@ -3209,7 +3209,7 @@
       <c r="E22" s="6"/>
       <c r="F22" s="6"/>
     </row>
-    <row r="23" ht="18" customHeight="1" spans="1:6">
+    <row r="23" ht="18" hidden="1" customHeight="1" spans="1:6">
       <c r="A23" s="5"/>
       <c r="B23" s="6"/>
       <c r="C23" s="6"/>
@@ -3217,7 +3217,7 @@
       <c r="E23" s="6"/>
       <c r="F23" s="6"/>
     </row>
-    <row r="24" ht="18" customHeight="1" spans="1:6">
+    <row r="24" ht="18" hidden="1" customHeight="1" spans="1:6">
       <c r="A24" s="5"/>
       <c r="B24" s="6"/>
       <c r="C24" s="6"/>
@@ -3225,7 +3225,7 @@
       <c r="E24" s="6"/>
       <c r="F24" s="6"/>
     </row>
-    <row r="25" spans="1:6">
+    <row r="25" hidden="1" spans="1:6">
       <c r="A25" s="5"/>
       <c r="B25" s="6"/>
       <c r="C25" s="6"/>
@@ -3233,7 +3233,7 @@
       <c r="E25" s="6"/>
       <c r="F25" s="6"/>
     </row>
-    <row r="26" spans="1:6">
+    <row r="26" hidden="1" spans="1:6">
       <c r="A26" s="5"/>
       <c r="B26" s="6"/>
       <c r="C26" s="6"/>
@@ -3241,7 +3241,7 @@
       <c r="E26" s="6"/>
       <c r="F26" s="6"/>
     </row>
-    <row r="27" spans="1:6">
+    <row r="27" hidden="1" spans="1:6">
       <c r="A27" s="5"/>
       <c r="B27" s="6"/>
       <c r="C27" s="6"/>
@@ -3249,7 +3249,7 @@
       <c r="E27" s="6"/>
       <c r="F27" s="6"/>
     </row>
-    <row r="28" spans="1:6">
+    <row r="28" hidden="1" spans="1:6">
       <c r="A28" s="5"/>
       <c r="B28" s="6"/>
       <c r="C28" s="6"/>
@@ -3257,7 +3257,7 @@
       <c r="E28" s="6"/>
       <c r="F28" s="6"/>
     </row>
-    <row r="29" spans="1:6">
+    <row r="29" hidden="1" spans="1:6">
       <c r="A29" s="5"/>
       <c r="B29" s="6"/>
       <c r="C29" s="6"/>
@@ -3265,7 +3265,7 @@
       <c r="E29" s="6"/>
       <c r="F29" s="6"/>
     </row>
-    <row r="30" spans="1:6">
+    <row r="30" hidden="1" spans="1:6">
       <c r="A30" s="5"/>
       <c r="B30" s="6"/>
       <c r="C30" s="6"/>
@@ -3273,7 +3273,7 @@
       <c r="E30" s="6"/>
       <c r="F30" s="6"/>
     </row>
-    <row r="31" spans="1:6">
+    <row r="31" hidden="1" spans="1:6">
       <c r="A31" s="5"/>
       <c r="B31" s="6"/>
       <c r="C31" s="6"/>
@@ -3281,7 +3281,7 @@
       <c r="E31" s="6"/>
       <c r="F31" s="6"/>
     </row>
-    <row r="32" spans="1:6">
+    <row r="32" hidden="1" spans="1:6">
       <c r="A32" s="5"/>
       <c r="B32" s="6"/>
       <c r="C32" s="6"/>
@@ -3289,7 +3289,7 @@
       <c r="E32" s="6"/>
       <c r="F32" s="6"/>
     </row>
-    <row r="33" spans="1:6">
+    <row r="33" hidden="1" spans="1:6">
       <c r="A33" s="5"/>
       <c r="B33" s="6"/>
       <c r="C33" s="6"/>
@@ -3297,7 +3297,7 @@
       <c r="E33" s="6"/>
       <c r="F33" s="6"/>
     </row>
-    <row r="34" spans="1:6">
+    <row r="34" hidden="1" spans="1:6">
       <c r="A34" s="5"/>
       <c r="B34" s="6"/>
       <c r="C34" s="6"/>
@@ -3307,6 +3307,11 @@
     </row>
   </sheetData>
   <autoFilter ref="C1:C34">
+    <filterColumn colId="0">
+      <customFilters>
+        <customFilter operator="equal" val="合肥"/>
+      </customFilters>
+    </filterColumn>
     <extLst/>
   </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/OverView/interview.xlsx
+++ b/OverView/interview.xlsx
@@ -12,14 +12,14 @@
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Sheet2!$C$1:$C$34</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Sheet2!$C$1:$C$35</definedName>
   </definedNames>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="308" uniqueCount="168">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="368" uniqueCount="197">
   <si>
     <t>时间</t>
   </si>
@@ -438,12 +438,87 @@
     <t>地点</t>
   </si>
   <si>
+    <t>东方福利网</t>
+  </si>
+  <si>
+    <t>上海</t>
+  </si>
+  <si>
+    <t>27-35</t>
+  </si>
+  <si>
+    <t>简历已发 未回复</t>
+  </si>
+  <si>
+    <t>咪咕视频</t>
+  </si>
+  <si>
+    <t>未回复</t>
+  </si>
+  <si>
+    <t>拼多多</t>
+  </si>
+  <si>
+    <t>樊登读书</t>
+  </si>
+  <si>
+    <t>未发消息</t>
+  </si>
+  <si>
+    <t>药联健康</t>
+  </si>
+  <si>
+    <t>20-35 16</t>
+  </si>
+  <si>
+    <t>25-50 18</t>
+  </si>
+  <si>
+    <t>路歌</t>
+  </si>
+  <si>
+    <t>合肥</t>
+  </si>
+  <si>
+    <t>20-30 14</t>
+  </si>
+  <si>
+    <t>技术栈不符react</t>
+  </si>
+  <si>
+    <t>卫宁健康</t>
+  </si>
+  <si>
+    <t>12-24 14</t>
+  </si>
+  <si>
+    <t>诺博医疗</t>
+  </si>
+  <si>
+    <t>12-20 13</t>
+  </si>
+  <si>
+    <t>薪资不合适</t>
+  </si>
+  <si>
+    <t>上海还银网络科技有限公司</t>
+  </si>
+  <si>
+    <t>20-35 14</t>
+  </si>
+  <si>
+    <t>太平金科</t>
+  </si>
+  <si>
+    <t>20-30 15</t>
+  </si>
+  <si>
+    <t>蔚来</t>
+  </si>
+  <si>
     <t>安永(中国)企业咨询有限公司</t>
   </si>
   <si>
-    <t>上海</t>
-  </si>
-  <si>
     <t>25-35 13</t>
   </si>
   <si>
@@ -453,76 +528,88 @@
     <t>宝付-上海漫道投资有限公司</t>
   </si>
   <si>
-    <t>简历已发 未回复</t>
-  </si>
-  <si>
-    <t>未回复</t>
-  </si>
-  <si>
     <t>安徽电信</t>
   </si>
   <si>
-    <t>合肥</t>
-  </si>
-  <si>
     <t>15-22 14</t>
   </si>
   <si>
-    <t>上海还银网络科技有限公司</t>
-  </si>
-  <si>
-    <t>20-35 14</t>
-  </si>
-  <si>
-    <t>太平金科</t>
-  </si>
-  <si>
-    <t>20-30 15</t>
-  </si>
-  <si>
-    <t>蔚来</t>
-  </si>
-  <si>
-    <t>卫宁健康</t>
-  </si>
-  <si>
-    <t>12-24 14</t>
-  </si>
-  <si>
-    <t>诺博医疗</t>
-  </si>
-  <si>
-    <t>12-20 13</t>
-  </si>
-  <si>
-    <t>薪资不合适</t>
-  </si>
-  <si>
-    <t>药联健康</t>
-  </si>
-  <si>
-    <t>20-35 16</t>
-  </si>
-  <si>
-    <t>25-50 18</t>
-  </si>
-  <si>
-    <t>樊登读书</t>
-  </si>
-  <si>
-    <t>未发消息</t>
-  </si>
-  <si>
-    <t>拼多多</t>
-  </si>
-  <si>
-    <t>咪咕视频</t>
-  </si>
-  <si>
-    <t>东方福利网</t>
-  </si>
-  <si>
-    <t>27-35</t>
+    <t>阳光电源</t>
+  </si>
+  <si>
+    <t>12-24 15</t>
+  </si>
+  <si>
+    <t>五纪</t>
+  </si>
+  <si>
+    <t>12-24 13</t>
+  </si>
+  <si>
+    <t>甜程物流</t>
+  </si>
+  <si>
+    <t>16-25 15</t>
+  </si>
+  <si>
+    <t>看过，未回复，HR捕捉不到重点</t>
+  </si>
+  <si>
+    <t>绿洲安全</t>
+  </si>
+  <si>
+    <t>14-25</t>
+  </si>
+  <si>
+    <t>新华三</t>
+  </si>
+  <si>
+    <t>12 24</t>
+  </si>
+  <si>
+    <t>八度网络</t>
+  </si>
+  <si>
+    <t>16-30</t>
+  </si>
+  <si>
+    <t>已面试(未通过)</t>
+  </si>
+  <si>
+    <t>作业帮</t>
+  </si>
+  <si>
+    <t>15-30 15</t>
+  </si>
+  <si>
+    <t>科大讯飞(消费者BG)</t>
+  </si>
+  <si>
+    <t>15-30 14</t>
+  </si>
+  <si>
+    <t>云南白药</t>
+  </si>
+  <si>
+    <t>11-20 15</t>
+  </si>
+  <si>
+    <t>21号面试</t>
+  </si>
+  <si>
+    <t>18号已面试</t>
+  </si>
+  <si>
+    <t>科大讯飞(智慧城市)被上面锁了</t>
+  </si>
+  <si>
+    <t>15-24 14</t>
+  </si>
+  <si>
+    <t>简历被锁了，等。。。</t>
+  </si>
+  <si>
+    <t>大智慧</t>
   </si>
 </sst>
 </file>
@@ -530,9 +617,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
@@ -574,6 +661,21 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -589,44 +691,6 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
@@ -635,15 +699,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -673,6 +736,44 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
@@ -684,20 +785,6 @@
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -718,43 +805,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -766,7 +829,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -784,19 +859,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -808,31 +883,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -844,7 +895,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -862,13 +919,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -880,13 +931,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -898,7 +967,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -964,6 +1051,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -988,32 +1090,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -1025,6 +1101,35 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1043,24 +1148,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1069,10 +1156,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="25" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1081,137 +1168,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="10" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="12" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1233,10 +1320,19 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+    <xf numFmtId="58" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
@@ -1615,12 +1711,12 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16" customHeight="1" outlineLevelCol="4"/>
   <cols>
-    <col min="1" max="1" width="9" style="9"/>
-    <col min="2" max="2" width="49.75" style="9" customWidth="1"/>
-    <col min="3" max="3" width="26.25" style="9" customWidth="1"/>
-    <col min="4" max="4" width="20.25" style="9" customWidth="1"/>
-    <col min="5" max="5" width="22.5" style="9" customWidth="1"/>
-    <col min="6" max="16384" width="9" style="9"/>
+    <col min="1" max="1" width="9" style="12"/>
+    <col min="2" max="2" width="49.75" style="12" customWidth="1"/>
+    <col min="3" max="3" width="26.25" style="12" customWidth="1"/>
+    <col min="4" max="4" width="20.25" style="12" customWidth="1"/>
+    <col min="5" max="5" width="22.5" style="12" customWidth="1"/>
+    <col min="6" max="16384" width="9" style="12"/>
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="1" customHeight="1" spans="1:5">
@@ -1641,1185 +1737,1185 @@
       </c>
     </row>
     <row r="2" customHeight="1" spans="1:5">
-      <c r="A2" s="10">
+      <c r="A2" s="13">
         <v>8.13</v>
       </c>
-      <c r="B2" s="11" t="s">
+      <c r="B2" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="11" t="s">
+      <c r="C2" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="11"/>
-      <c r="E2" s="11" t="s">
+      <c r="D2" s="14"/>
+      <c r="E2" s="14" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="3" customHeight="1" spans="1:5">
-      <c r="A3" s="10"/>
-      <c r="B3" s="11" t="s">
+      <c r="A3" s="13"/>
+      <c r="B3" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="11" t="s">
+      <c r="C3" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="D3" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="E3" s="11"/>
+      <c r="D3" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="E3" s="14"/>
     </row>
     <row r="4" customHeight="1" spans="1:5">
-      <c r="A4" s="10"/>
-      <c r="B4" s="11" t="s">
+      <c r="A4" s="13"/>
+      <c r="B4" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="C4" s="11" t="s">
+      <c r="C4" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="D4" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="E4" s="11"/>
+      <c r="D4" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="E4" s="14"/>
     </row>
     <row r="5" customHeight="1" spans="1:5">
-      <c r="A5" s="10"/>
-      <c r="B5" s="11" t="s">
+      <c r="A5" s="13"/>
+      <c r="B5" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="11" t="s">
+      <c r="C5" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="D5" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="E5" s="11"/>
+      <c r="D5" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="E5" s="14"/>
     </row>
     <row r="6" customHeight="1" spans="1:5">
-      <c r="A6" s="10">
+      <c r="A6" s="13">
         <v>8.16</v>
       </c>
-      <c r="B6" s="11" t="s">
+      <c r="B6" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="C6" s="11" t="s">
+      <c r="C6" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="D6" s="11"/>
-      <c r="E6" s="11" t="s">
+      <c r="D6" s="14"/>
+      <c r="E6" s="14" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="7" customHeight="1" spans="1:5">
-      <c r="A7" s="10"/>
-      <c r="B7" s="11" t="s">
+      <c r="A7" s="13"/>
+      <c r="B7" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="C7" s="11" t="s">
+      <c r="C7" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="D7" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="E7" s="11"/>
+      <c r="D7" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="E7" s="14"/>
     </row>
     <row r="8" customHeight="1" spans="1:5">
-      <c r="A8" s="10"/>
-      <c r="B8" s="11" t="s">
+      <c r="A8" s="13"/>
+      <c r="B8" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="C8" s="11" t="s">
+      <c r="C8" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="D8" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="E8" s="11"/>
+      <c r="D8" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="E8" s="14"/>
     </row>
     <row r="9" customHeight="1" spans="1:5">
-      <c r="A9" s="10"/>
-      <c r="B9" s="11" t="s">
+      <c r="A9" s="13"/>
+      <c r="B9" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="C9" s="11" t="s">
+      <c r="C9" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="D9" s="11" t="s">
+      <c r="D9" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="E9" s="11"/>
+      <c r="E9" s="14"/>
     </row>
     <row r="10" customHeight="1" spans="1:5">
-      <c r="A10" s="10"/>
-      <c r="B10" s="11" t="s">
+      <c r="A10" s="13"/>
+      <c r="B10" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="C10" s="11" t="s">
+      <c r="C10" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="D10" s="11" t="s">
+      <c r="D10" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="E10" s="11"/>
+      <c r="E10" s="14"/>
     </row>
     <row r="11" customHeight="1" spans="1:5">
-      <c r="A11" s="10">
+      <c r="A11" s="13">
         <v>8.17</v>
       </c>
-      <c r="B11" s="11" t="s">
+      <c r="B11" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="C11" s="11" t="s">
+      <c r="C11" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="D11" s="11" t="s">
+      <c r="D11" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="E11" s="11"/>
+      <c r="E11" s="14"/>
     </row>
     <row r="12" customHeight="1" spans="1:5">
-      <c r="A12" s="10"/>
-      <c r="B12" s="11" t="s">
+      <c r="A12" s="13"/>
+      <c r="B12" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="C12" s="11" t="s">
+      <c r="C12" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="D12" s="11" t="s">
+      <c r="D12" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="E12" s="11"/>
+      <c r="E12" s="14"/>
     </row>
     <row r="13" customHeight="1" spans="1:5">
-      <c r="A13" s="10"/>
-      <c r="B13" s="11" t="s">
+      <c r="A13" s="13"/>
+      <c r="B13" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="C13" s="11" t="s">
+      <c r="C13" s="14" t="s">
         <v>31</v>
       </c>
-      <c r="D13" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="E13" s="11"/>
+      <c r="D13" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="E13" s="14"/>
     </row>
     <row r="14" customHeight="1" spans="1:5">
-      <c r="A14" s="10"/>
-      <c r="B14" s="11" t="s">
+      <c r="A14" s="13"/>
+      <c r="B14" s="14" t="s">
         <v>32</v>
       </c>
-      <c r="C14" s="11" t="s">
+      <c r="C14" s="14" t="s">
         <v>33</v>
       </c>
-      <c r="D14" s="11" t="s">
+      <c r="D14" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="E14" s="11"/>
+      <c r="E14" s="14"/>
     </row>
     <row r="15" customHeight="1" spans="1:5">
-      <c r="A15" s="10"/>
-      <c r="B15" s="11" t="s">
+      <c r="A15" s="13"/>
+      <c r="B15" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="C15" s="11" t="s">
+      <c r="C15" s="14" t="s">
         <v>35</v>
       </c>
-      <c r="D15" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="E15" s="11"/>
+      <c r="D15" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="E15" s="14"/>
     </row>
     <row r="16" customHeight="1" spans="1:5">
-      <c r="A16" s="10"/>
-      <c r="B16" s="11" t="s">
+      <c r="A16" s="13"/>
+      <c r="B16" s="14" t="s">
         <v>36</v>
       </c>
-      <c r="C16" s="11" t="s">
+      <c r="C16" s="14" t="s">
         <v>37</v>
       </c>
-      <c r="D16" s="11" t="s">
+      <c r="D16" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="E16" s="11"/>
+      <c r="E16" s="14"/>
     </row>
     <row r="17" customHeight="1" spans="1:5">
-      <c r="A17" s="10"/>
-      <c r="B17" s="11" t="s">
+      <c r="A17" s="13"/>
+      <c r="B17" s="14" t="s">
         <v>38</v>
       </c>
-      <c r="C17" s="11" t="s">
+      <c r="C17" s="14" t="s">
         <v>35</v>
       </c>
-      <c r="D17" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="E17" s="11"/>
+      <c r="D17" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="E17" s="14"/>
     </row>
     <row r="18" customHeight="1" spans="1:5">
-      <c r="A18" s="10"/>
-      <c r="B18" s="11" t="s">
+      <c r="A18" s="13"/>
+      <c r="B18" s="14" t="s">
         <v>39</v>
       </c>
-      <c r="C18" s="11" t="s">
+      <c r="C18" s="14" t="s">
         <v>40</v>
       </c>
-      <c r="D18" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="E18" s="11"/>
+      <c r="D18" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="E18" s="14"/>
     </row>
     <row r="19" customHeight="1" spans="1:5">
-      <c r="A19" s="10"/>
-      <c r="B19" s="11" t="s">
+      <c r="A19" s="13"/>
+      <c r="B19" s="14" t="s">
         <v>41</v>
       </c>
-      <c r="C19" s="11" t="s">
+      <c r="C19" s="14" t="s">
         <v>42</v>
       </c>
-      <c r="D19" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="E19" s="11"/>
+      <c r="D19" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="E19" s="14"/>
     </row>
     <row r="20" customHeight="1" spans="1:5">
-      <c r="A20" s="10"/>
-      <c r="B20" s="11" t="s">
+      <c r="A20" s="13"/>
+      <c r="B20" s="14" t="s">
         <v>43</v>
       </c>
-      <c r="C20" s="11" t="s">
+      <c r="C20" s="14" t="s">
         <v>44</v>
       </c>
-      <c r="D20" s="11"/>
-      <c r="E20" s="11" t="s">
+      <c r="D20" s="14"/>
+      <c r="E20" s="14" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="21" ht="24" customHeight="1" spans="1:5">
-      <c r="A21" s="12">
+      <c r="A21" s="15">
         <v>8.18</v>
       </c>
-      <c r="B21" s="11" t="s">
+      <c r="B21" s="14" t="s">
         <v>46</v>
       </c>
-      <c r="C21" s="11" t="s">
+      <c r="C21" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="D21" s="11" t="s">
+      <c r="D21" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="E21" s="11"/>
+      <c r="E21" s="14"/>
     </row>
     <row r="22" customHeight="1" spans="1:5">
-      <c r="A22" s="13"/>
-      <c r="B22" s="11" t="s">
+      <c r="A22" s="16"/>
+      <c r="B22" s="14" t="s">
         <v>47</v>
       </c>
-      <c r="C22" s="11" t="s">
+      <c r="C22" s="14" t="s">
         <v>48</v>
       </c>
-      <c r="D22" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="E22" s="11"/>
+      <c r="D22" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="E22" s="14"/>
     </row>
     <row r="23" customHeight="1" spans="1:5">
-      <c r="A23" s="13"/>
-      <c r="B23" s="11" t="s">
+      <c r="A23" s="16"/>
+      <c r="B23" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="C23" s="11" t="s">
+      <c r="C23" s="14" t="s">
         <v>31</v>
       </c>
-      <c r="D23" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="E23" s="11"/>
+      <c r="D23" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="E23" s="14"/>
     </row>
     <row r="24" customHeight="1" spans="1:5">
-      <c r="A24" s="13"/>
-      <c r="B24" s="11" t="s">
+      <c r="A24" s="16"/>
+      <c r="B24" s="14" t="s">
         <v>49</v>
       </c>
-      <c r="C24" s="11" t="s">
+      <c r="C24" s="14" t="s">
         <v>50</v>
       </c>
-      <c r="D24" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="E24" s="11"/>
+      <c r="D24" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="E24" s="14"/>
     </row>
     <row r="25" customHeight="1" spans="1:5">
-      <c r="A25" s="13"/>
-      <c r="B25" s="11" t="s">
+      <c r="A25" s="16"/>
+      <c r="B25" s="14" t="s">
         <v>51</v>
       </c>
-      <c r="C25" s="11" t="s">
+      <c r="C25" s="14" t="s">
         <v>52</v>
       </c>
-      <c r="D25" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="E25" s="11"/>
+      <c r="D25" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="E25" s="14"/>
     </row>
     <row r="26" customHeight="1" spans="1:5">
-      <c r="A26" s="13"/>
-      <c r="B26" s="11" t="s">
+      <c r="A26" s="16"/>
+      <c r="B26" s="14" t="s">
         <v>53</v>
       </c>
-      <c r="C26" s="11" t="s">
+      <c r="C26" s="14" t="s">
         <v>54</v>
       </c>
-      <c r="D26" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="E26" s="11"/>
+      <c r="D26" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="E26" s="14"/>
     </row>
     <row r="27" customHeight="1" spans="1:5">
-      <c r="A27" s="13"/>
-      <c r="B27" s="11" t="s">
+      <c r="A27" s="16"/>
+      <c r="B27" s="14" t="s">
         <v>43</v>
       </c>
-      <c r="C27" s="11" t="s">
+      <c r="C27" s="14" t="s">
         <v>55</v>
       </c>
-      <c r="D27" s="11" t="s">
+      <c r="D27" s="14" t="s">
         <v>56</v>
       </c>
-      <c r="E27" s="11"/>
+      <c r="E27" s="14"/>
     </row>
     <row r="28" customHeight="1" spans="1:5">
-      <c r="A28" s="13"/>
-      <c r="B28" s="11" t="s">
+      <c r="A28" s="16"/>
+      <c r="B28" s="14" t="s">
         <v>57</v>
       </c>
-      <c r="C28" s="11" t="s">
+      <c r="C28" s="14" t="s">
         <v>58</v>
       </c>
-      <c r="D28" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="E28" s="11"/>
+      <c r="D28" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="E28" s="14"/>
     </row>
     <row r="29" customHeight="1" spans="1:5">
-      <c r="A29" s="13"/>
-      <c r="B29" s="11" t="s">
+      <c r="A29" s="16"/>
+      <c r="B29" s="14" t="s">
         <v>59</v>
       </c>
-      <c r="C29" s="11" t="s">
+      <c r="C29" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="D29" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="E29" s="11"/>
+      <c r="D29" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="E29" s="14"/>
     </row>
     <row r="30" customHeight="1" spans="1:5">
-      <c r="A30" s="14"/>
-      <c r="B30" s="11" t="s">
+      <c r="A30" s="17"/>
+      <c r="B30" s="14" t="s">
         <v>60</v>
       </c>
-      <c r="C30" s="11" t="s">
+      <c r="C30" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="D30" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="E30" s="11"/>
+      <c r="D30" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="E30" s="14"/>
     </row>
     <row r="31" customHeight="1" spans="1:5">
-      <c r="A31" s="10">
+      <c r="A31" s="13">
         <v>8.23</v>
       </c>
-      <c r="B31" s="11" t="s">
+      <c r="B31" s="14" t="s">
         <v>61</v>
       </c>
-      <c r="C31" s="11" t="s">
+      <c r="C31" s="14" t="s">
         <v>62</v>
       </c>
-      <c r="D31" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="E31" s="11"/>
+      <c r="D31" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="E31" s="14"/>
     </row>
     <row r="32" customHeight="1" spans="1:5">
-      <c r="A32" s="10">
+      <c r="A32" s="13">
         <v>8.24</v>
       </c>
-      <c r="B32" s="11" t="s">
+      <c r="B32" s="14" t="s">
         <v>63</v>
       </c>
-      <c r="C32" s="11" t="s">
+      <c r="C32" s="14" t="s">
         <v>64</v>
       </c>
-      <c r="D32" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="E32" s="11"/>
+      <c r="D32" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="E32" s="14"/>
     </row>
     <row r="33" customHeight="1" spans="1:5">
-      <c r="A33" s="12">
+      <c r="A33" s="15">
         <v>8.25</v>
       </c>
-      <c r="B33" s="11" t="s">
+      <c r="B33" s="14" t="s">
         <v>65</v>
       </c>
-      <c r="C33" s="11" t="s">
+      <c r="C33" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="D33" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="E33" s="11"/>
+      <c r="D33" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="E33" s="14"/>
     </row>
     <row r="34" customHeight="1" spans="1:5">
-      <c r="A34" s="13"/>
-      <c r="B34" s="11" t="s">
+      <c r="A34" s="16"/>
+      <c r="B34" s="14" t="s">
         <v>66</v>
       </c>
-      <c r="C34" s="11" t="s">
+      <c r="C34" s="14" t="s">
         <v>67</v>
       </c>
-      <c r="D34" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="E34" s="11"/>
+      <c r="D34" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="E34" s="14"/>
     </row>
     <row r="35" customHeight="1" spans="1:5">
-      <c r="A35" s="13"/>
-      <c r="B35" s="11" t="s">
+      <c r="A35" s="16"/>
+      <c r="B35" s="14" t="s">
         <v>68</v>
       </c>
-      <c r="C35" s="11" t="s">
+      <c r="C35" s="14" t="s">
         <v>69</v>
       </c>
-      <c r="D35" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="E35" s="11"/>
+      <c r="D35" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="E35" s="14"/>
     </row>
     <row r="36" customHeight="1" spans="1:5">
-      <c r="A36" s="13"/>
-      <c r="B36" s="11" t="s">
+      <c r="A36" s="16"/>
+      <c r="B36" s="14" t="s">
         <v>70</v>
       </c>
-      <c r="C36" s="11" t="s">
+      <c r="C36" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="D36" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="E36" s="11"/>
+      <c r="D36" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="E36" s="14"/>
     </row>
     <row r="37" customHeight="1" spans="1:5">
-      <c r="A37" s="13"/>
-      <c r="B37" s="11" t="s">
+      <c r="A37" s="16"/>
+      <c r="B37" s="14" t="s">
         <v>71</v>
       </c>
-      <c r="C37" s="11" t="s">
+      <c r="C37" s="14" t="s">
         <v>72</v>
       </c>
-      <c r="D37" s="11" t="s">
+      <c r="D37" s="14" t="s">
         <v>73</v>
       </c>
-      <c r="E37" s="11"/>
+      <c r="E37" s="14"/>
     </row>
     <row r="38" customHeight="1" spans="1:5">
-      <c r="A38" s="14"/>
-      <c r="B38" s="11" t="s">
+      <c r="A38" s="17"/>
+      <c r="B38" s="14" t="s">
         <v>74</v>
       </c>
-      <c r="C38" s="11" t="s">
+      <c r="C38" s="14" t="s">
         <v>75</v>
       </c>
-      <c r="D38" s="11" t="s">
+      <c r="D38" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="E38" s="11"/>
+      <c r="E38" s="14"/>
     </row>
     <row r="39" customHeight="1" spans="1:5">
-      <c r="A39" s="12">
+      <c r="A39" s="15">
         <v>9.1</v>
       </c>
-      <c r="B39" s="11" t="s">
+      <c r="B39" s="14" t="s">
         <v>76</v>
       </c>
-      <c r="C39" s="11" t="s">
+      <c r="C39" s="14" t="s">
         <v>33</v>
       </c>
-      <c r="D39" s="11" t="s">
+      <c r="D39" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="E39" s="11"/>
+      <c r="E39" s="14"/>
     </row>
     <row r="40" customHeight="1" spans="1:5">
-      <c r="A40" s="13"/>
-      <c r="B40" s="11" t="s">
+      <c r="A40" s="16"/>
+      <c r="B40" s="14" t="s">
         <v>77</v>
       </c>
-      <c r="C40" s="11" t="s">
+      <c r="C40" s="14" t="s">
         <v>33</v>
       </c>
-      <c r="D40" s="11" t="s">
+      <c r="D40" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="E40" s="11"/>
+      <c r="E40" s="14"/>
     </row>
     <row r="41" customHeight="1" spans="1:5">
-      <c r="A41" s="13"/>
-      <c r="B41" s="11" t="s">
+      <c r="A41" s="16"/>
+      <c r="B41" s="14" t="s">
         <v>78</v>
       </c>
-      <c r="C41" s="11" t="s">
+      <c r="C41" s="14" t="s">
         <v>79</v>
       </c>
-      <c r="D41" s="11" t="s">
+      <c r="D41" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="E41" s="11"/>
+      <c r="E41" s="14"/>
     </row>
     <row r="42" customHeight="1" spans="1:5">
-      <c r="A42" s="13"/>
-      <c r="B42" s="11" t="s">
+      <c r="A42" s="16"/>
+      <c r="B42" s="14" t="s">
         <v>80</v>
       </c>
-      <c r="C42" s="11" t="s">
+      <c r="C42" s="14" t="s">
         <v>81</v>
       </c>
-      <c r="D42" s="11" t="s">
+      <c r="D42" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="E42" s="11"/>
+      <c r="E42" s="14"/>
     </row>
     <row r="43" customHeight="1" spans="1:5">
-      <c r="A43" s="13"/>
-      <c r="B43" s="11" t="s">
+      <c r="A43" s="16"/>
+      <c r="B43" s="14" t="s">
         <v>82</v>
       </c>
-      <c r="C43" s="11" t="s">
+      <c r="C43" s="14" t="s">
         <v>83</v>
       </c>
-      <c r="D43" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="E43" s="11"/>
+      <c r="D43" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="E43" s="14"/>
     </row>
     <row r="44" customHeight="1" spans="1:5">
-      <c r="A44" s="13"/>
-      <c r="B44" s="11" t="s">
+      <c r="A44" s="16"/>
+      <c r="B44" s="14" t="s">
         <v>84</v>
       </c>
-      <c r="C44" s="11" t="s">
+      <c r="C44" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="D44" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="E44" s="11"/>
+      <c r="D44" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="E44" s="14"/>
     </row>
     <row r="45" customHeight="1" spans="1:5">
-      <c r="A45" s="13"/>
-      <c r="B45" s="11" t="s">
+      <c r="A45" s="16"/>
+      <c r="B45" s="14" t="s">
         <v>85</v>
       </c>
-      <c r="C45" s="11" t="s">
+      <c r="C45" s="14" t="s">
         <v>86</v>
       </c>
-      <c r="D45" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="E45" s="11"/>
+      <c r="D45" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="E45" s="14"/>
     </row>
     <row r="46" customHeight="1" spans="1:5">
-      <c r="A46" s="13"/>
-      <c r="B46" s="11" t="s">
+      <c r="A46" s="16"/>
+      <c r="B46" s="14" t="s">
         <v>36</v>
       </c>
-      <c r="C46" s="11" t="s">
+      <c r="C46" s="14" t="s">
         <v>87</v>
       </c>
-      <c r="D46" s="11" t="s">
+      <c r="D46" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="E46" s="11"/>
+      <c r="E46" s="14"/>
     </row>
     <row r="47" customHeight="1" spans="1:5">
-      <c r="A47" s="14"/>
-      <c r="B47" s="11" t="s">
+      <c r="A47" s="17"/>
+      <c r="B47" s="14" t="s">
         <v>88</v>
       </c>
-      <c r="C47" s="11" t="s">
+      <c r="C47" s="14" t="s">
         <v>89</v>
       </c>
-      <c r="D47" s="11" t="s">
+      <c r="D47" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="E47" s="11"/>
+      <c r="E47" s="14"/>
     </row>
     <row r="48" customHeight="1" spans="1:5">
-      <c r="A48" s="12">
+      <c r="A48" s="15">
         <v>9.2</v>
       </c>
-      <c r="B48" s="11" t="s">
+      <c r="B48" s="14" t="s">
         <v>39</v>
       </c>
-      <c r="C48" s="11" t="s">
+      <c r="C48" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="D48" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="E48" s="11"/>
+      <c r="D48" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="E48" s="14"/>
     </row>
     <row r="49" customHeight="1" spans="1:5">
-      <c r="A49" s="13"/>
-      <c r="B49" s="11" t="s">
+      <c r="A49" s="16"/>
+      <c r="B49" s="14" t="s">
         <v>90</v>
       </c>
-      <c r="C49" s="11" t="s">
+      <c r="C49" s="14" t="s">
         <v>91</v>
       </c>
-      <c r="D49" s="11" t="s">
+      <c r="D49" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="E49" s="11"/>
+      <c r="E49" s="14"/>
     </row>
     <row r="50" customHeight="1" spans="1:5">
-      <c r="A50" s="13"/>
-      <c r="B50" s="11" t="s">
+      <c r="A50" s="16"/>
+      <c r="B50" s="14" t="s">
         <v>92</v>
       </c>
-      <c r="C50" s="11" t="s">
+      <c r="C50" s="14" t="s">
         <v>89</v>
       </c>
-      <c r="D50" s="11" t="s">
+      <c r="D50" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="E50" s="11"/>
+      <c r="E50" s="14"/>
     </row>
     <row r="51" customHeight="1" spans="1:5">
-      <c r="A51" s="13"/>
-      <c r="B51" s="11" t="s">
+      <c r="A51" s="16"/>
+      <c r="B51" s="14" t="s">
         <v>93</v>
       </c>
-      <c r="C51" s="11" t="s">
+      <c r="C51" s="14" t="s">
         <v>94</v>
       </c>
-      <c r="D51" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="E51" s="11"/>
+      <c r="D51" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="E51" s="14"/>
     </row>
     <row r="52" customHeight="1" spans="1:5">
-      <c r="A52" s="13"/>
-      <c r="B52" s="11" t="s">
+      <c r="A52" s="16"/>
+      <c r="B52" s="14" t="s">
         <v>95</v>
       </c>
-      <c r="C52" s="11" t="s">
+      <c r="C52" s="14" t="s">
         <v>79</v>
       </c>
-      <c r="D52" s="11" t="s">
+      <c r="D52" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="E52" s="11"/>
+      <c r="E52" s="14"/>
     </row>
     <row r="53" customHeight="1" spans="1:5">
-      <c r="A53" s="13"/>
-      <c r="B53" s="11" t="s">
+      <c r="A53" s="16"/>
+      <c r="B53" s="14" t="s">
         <v>96</v>
       </c>
-      <c r="D53" s="11"/>
-      <c r="E53" s="11" t="s">
+      <c r="D53" s="14"/>
+      <c r="E53" s="14" t="s">
         <v>97</v>
       </c>
     </row>
     <row r="54" customHeight="1" spans="1:5">
-      <c r="A54" s="13"/>
-      <c r="B54" s="11" t="s">
+      <c r="A54" s="16"/>
+      <c r="B54" s="14" t="s">
         <v>98</v>
       </c>
-      <c r="C54" s="11" t="s">
+      <c r="C54" s="14" t="s">
         <v>79</v>
       </c>
-      <c r="D54" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="E54" s="11"/>
+      <c r="D54" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="E54" s="14"/>
     </row>
     <row r="55" customHeight="1" spans="1:5">
-      <c r="A55" s="13"/>
-      <c r="B55" s="11" t="s">
+      <c r="A55" s="16"/>
+      <c r="B55" s="14" t="s">
         <v>99</v>
       </c>
-      <c r="C55" s="11" t="s">
+      <c r="C55" s="14" t="s">
         <v>100</v>
       </c>
-      <c r="D55" s="11" t="s">
+      <c r="D55" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="E55" s="11"/>
+      <c r="E55" s="14"/>
     </row>
     <row r="56" customHeight="1" spans="1:5">
-      <c r="A56" s="13"/>
-      <c r="B56" s="11" t="s">
+      <c r="A56" s="16"/>
+      <c r="B56" s="14" t="s">
         <v>101</v>
       </c>
-      <c r="C56" s="11" t="s">
+      <c r="C56" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="D56" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="E56" s="11"/>
+      <c r="D56" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="E56" s="14"/>
     </row>
     <row r="57" customHeight="1" spans="1:5">
-      <c r="A57" s="14"/>
-      <c r="B57" s="11" t="s">
+      <c r="A57" s="17"/>
+      <c r="B57" s="14" t="s">
         <v>102</v>
       </c>
-      <c r="C57" s="11" t="s">
+      <c r="C57" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="D57" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="E57" s="11"/>
+      <c r="D57" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="E57" s="14"/>
     </row>
     <row r="58" customHeight="1" spans="1:5">
-      <c r="A58" s="12">
+      <c r="A58" s="15">
         <v>9.3</v>
       </c>
-      <c r="B58" s="11" t="s">
+      <c r="B58" s="14" t="s">
         <v>103</v>
       </c>
-      <c r="C58" s="11" t="s">
+      <c r="C58" s="14" t="s">
         <v>75</v>
       </c>
-      <c r="D58" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="E58" s="11"/>
+      <c r="D58" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="E58" s="14"/>
     </row>
     <row r="59" customHeight="1" spans="1:5">
-      <c r="A59" s="13"/>
-      <c r="B59" s="11" t="s">
+      <c r="A59" s="16"/>
+      <c r="B59" s="14" t="s">
         <v>104</v>
       </c>
-      <c r="C59" s="11" t="s">
+      <c r="C59" s="14" t="s">
         <v>105</v>
       </c>
-      <c r="D59" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="E59" s="11"/>
+      <c r="D59" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="E59" s="14"/>
     </row>
     <row r="60" customHeight="1" spans="1:5">
-      <c r="A60" s="14"/>
-      <c r="B60" s="11" t="s">
+      <c r="A60" s="17"/>
+      <c r="B60" s="14" t="s">
         <v>106</v>
       </c>
-      <c r="C60" s="11" t="s">
+      <c r="C60" s="14" t="s">
         <v>107</v>
       </c>
-      <c r="D60" s="11" t="s">
+      <c r="D60" s="14" t="s">
         <v>108</v>
       </c>
-      <c r="E60" s="11"/>
+      <c r="E60" s="14"/>
     </row>
     <row r="61" customHeight="1" spans="1:5">
-      <c r="A61" s="12">
+      <c r="A61" s="15">
         <v>9.23</v>
       </c>
-      <c r="B61" s="11" t="s">
+      <c r="B61" s="14" t="s">
         <v>109</v>
       </c>
-      <c r="C61" s="11" t="s">
+      <c r="C61" s="14" t="s">
         <v>33</v>
       </c>
-      <c r="D61" s="11" t="s">
+      <c r="D61" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="E61" s="11"/>
+      <c r="E61" s="14"/>
     </row>
     <row r="62" customHeight="1" spans="1:5">
-      <c r="A62" s="13"/>
-      <c r="B62" s="11" t="s">
+      <c r="A62" s="16"/>
+      <c r="B62" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="C62" s="11" t="s">
+      <c r="C62" s="14" t="s">
         <v>110</v>
       </c>
-      <c r="D62" s="11" t="s">
+      <c r="D62" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="E62" s="11"/>
+      <c r="E62" s="14"/>
     </row>
     <row r="63" customHeight="1" spans="1:5">
-      <c r="A63" s="13"/>
-      <c r="B63" s="11" t="s">
+      <c r="A63" s="16"/>
+      <c r="B63" s="14" t="s">
         <v>111</v>
       </c>
-      <c r="C63" s="11" t="s">
+      <c r="C63" s="14" t="s">
         <v>72</v>
       </c>
-      <c r="D63" s="11" t="s">
+      <c r="D63" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="E63" s="11"/>
+      <c r="E63" s="14"/>
     </row>
     <row r="64" customHeight="1" spans="1:5">
-      <c r="A64" s="13"/>
-      <c r="B64" s="11" t="s">
+      <c r="A64" s="16"/>
+      <c r="B64" s="14" t="s">
         <v>61</v>
       </c>
-      <c r="C64" s="11" t="s">
+      <c r="C64" s="14" t="s">
         <v>112</v>
       </c>
-      <c r="D64" s="11" t="s">
+      <c r="D64" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="E64" s="11"/>
+      <c r="E64" s="14"/>
     </row>
     <row r="65" customHeight="1" spans="1:5">
-      <c r="A65" s="14"/>
-      <c r="B65" s="11" t="s">
+      <c r="A65" s="17"/>
+      <c r="B65" s="14" t="s">
         <v>113</v>
       </c>
-      <c r="C65" s="11" t="s">
+      <c r="C65" s="14" t="s">
         <v>89</v>
       </c>
-      <c r="D65" s="11" t="s">
+      <c r="D65" s="14" t="s">
         <v>114</v>
       </c>
-      <c r="E65" s="11"/>
+      <c r="E65" s="14"/>
     </row>
     <row r="66" customHeight="1" spans="1:5">
-      <c r="A66" s="12">
+      <c r="A66" s="15">
         <v>9.24</v>
       </c>
-      <c r="B66" s="11" t="s">
+      <c r="B66" s="14" t="s">
         <v>115</v>
       </c>
-      <c r="C66" s="11" t="s">
+      <c r="C66" s="14" t="s">
         <v>116</v>
       </c>
-      <c r="D66" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="E66" s="11"/>
+      <c r="D66" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="E66" s="14"/>
     </row>
     <row r="67" customHeight="1" spans="1:5">
-      <c r="A67" s="13"/>
-      <c r="B67" s="11" t="s">
+      <c r="A67" s="16"/>
+      <c r="B67" s="14" t="s">
         <v>117</v>
       </c>
-      <c r="C67" s="11" t="s">
+      <c r="C67" s="14" t="s">
         <v>118</v>
       </c>
-      <c r="D67" s="11" t="s">
+      <c r="D67" s="14" t="s">
         <v>114</v>
       </c>
-      <c r="E67" s="11"/>
+      <c r="E67" s="14"/>
     </row>
     <row r="68" customHeight="1" spans="1:5">
-      <c r="A68" s="13"/>
-      <c r="B68" s="11" t="s">
+      <c r="A68" s="16"/>
+      <c r="B68" s="14" t="s">
         <v>119</v>
       </c>
-      <c r="C68" s="11" t="s">
+      <c r="C68" s="14" t="s">
         <v>120</v>
       </c>
-      <c r="D68" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="E68" s="11"/>
+      <c r="D68" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="E68" s="14"/>
     </row>
     <row r="69" customHeight="1" spans="1:5">
-      <c r="A69" s="13"/>
-      <c r="B69" s="11" t="s">
+      <c r="A69" s="16"/>
+      <c r="B69" s="14" t="s">
         <v>121</v>
       </c>
-      <c r="C69" s="11" t="s">
+      <c r="C69" s="14" t="s">
         <v>122</v>
       </c>
-      <c r="D69" s="11" t="s">
+      <c r="D69" s="14" t="s">
         <v>123</v>
       </c>
-      <c r="E69" s="11"/>
+      <c r="E69" s="14"/>
     </row>
     <row r="70" customHeight="1" spans="1:5">
-      <c r="A70" s="13"/>
-      <c r="B70" s="11" t="s">
+      <c r="A70" s="16"/>
+      <c r="B70" s="14" t="s">
         <v>124</v>
       </c>
-      <c r="C70" s="11" t="s">
+      <c r="C70" s="14" t="s">
         <v>120</v>
       </c>
-      <c r="D70" s="11" t="s">
+      <c r="D70" s="14" t="s">
         <v>125</v>
       </c>
-      <c r="E70" s="11"/>
+      <c r="E70" s="14"/>
     </row>
     <row r="71" customHeight="1" spans="1:5">
-      <c r="A71" s="13"/>
-      <c r="B71" s="11" t="s">
+      <c r="A71" s="16"/>
+      <c r="B71" s="14" t="s">
         <v>126</v>
       </c>
-      <c r="C71" s="11" t="s">
+      <c r="C71" s="14" t="s">
         <v>62</v>
       </c>
-      <c r="D71" s="11" t="s">
+      <c r="D71" s="14" t="s">
         <v>125</v>
       </c>
-      <c r="E71" s="11"/>
+      <c r="E71" s="14"/>
     </row>
     <row r="72" customHeight="1" spans="1:5">
-      <c r="A72" s="14"/>
-      <c r="B72" s="11" t="s">
+      <c r="A72" s="17"/>
+      <c r="B72" s="14" t="s">
         <v>127</v>
       </c>
-      <c r="C72" s="11" t="s">
+      <c r="C72" s="14" t="s">
         <v>128</v>
       </c>
-      <c r="D72" s="11" t="s">
+      <c r="D72" s="14" t="s">
         <v>125</v>
       </c>
-      <c r="E72" s="11"/>
+      <c r="E72" s="14"/>
     </row>
     <row r="73" customHeight="1" spans="1:5">
-      <c r="A73" s="12">
+      <c r="A73" s="15">
         <v>9.26</v>
       </c>
-      <c r="B73" s="11" t="s">
+      <c r="B73" s="14" t="s">
         <v>129</v>
       </c>
-      <c r="C73" s="11" t="s">
+      <c r="C73" s="14" t="s">
         <v>130</v>
       </c>
-      <c r="D73" s="11" t="s">
+      <c r="D73" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="E73" s="11"/>
+      <c r="E73" s="14"/>
     </row>
     <row r="74" customHeight="1" spans="1:5">
-      <c r="A74" s="13"/>
-      <c r="B74" s="11" t="s">
+      <c r="A74" s="16"/>
+      <c r="B74" s="14" t="s">
         <v>131</v>
       </c>
-      <c r="C74" s="11" t="s">
+      <c r="C74" s="14" t="s">
         <v>132</v>
       </c>
-      <c r="D74" s="11" t="s">
+      <c r="D74" s="14" t="s">
         <v>133</v>
       </c>
-      <c r="E74" s="11"/>
+      <c r="E74" s="14"/>
     </row>
     <row r="75" customHeight="1" spans="1:5">
-      <c r="A75" s="14"/>
-      <c r="B75" s="11" t="s">
+      <c r="A75" s="17"/>
+      <c r="B75" s="14" t="s">
         <v>134</v>
       </c>
-      <c r="C75" s="11"/>
-      <c r="D75" s="11" t="s">
+      <c r="C75" s="14"/>
+      <c r="D75" s="14" t="s">
         <v>125</v>
       </c>
-      <c r="E75" s="11"/>
+      <c r="E75" s="14"/>
     </row>
     <row r="76" customHeight="1" spans="1:5">
-      <c r="A76" s="12">
+      <c r="A76" s="15">
         <v>9.27</v>
       </c>
-      <c r="B76" s="11" t="s">
+      <c r="B76" s="14" t="s">
         <v>135</v>
       </c>
-      <c r="C76" s="11" t="s">
+      <c r="C76" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="D76" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="E76" s="11"/>
+      <c r="D76" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="E76" s="14"/>
     </row>
     <row r="77" customHeight="1" spans="1:5">
-      <c r="A77" s="13"/>
-      <c r="B77" s="11" t="s">
+      <c r="A77" s="16"/>
+      <c r="B77" s="14" t="s">
         <v>136</v>
       </c>
-      <c r="C77" s="11" t="s">
+      <c r="C77" s="14" t="s">
         <v>64</v>
       </c>
-      <c r="D77" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="E77" s="11"/>
+      <c r="D77" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="E77" s="14"/>
     </row>
     <row r="78" customHeight="1" spans="1:5">
-      <c r="A78" s="14"/>
-      <c r="B78" s="11" t="s">
+      <c r="A78" s="17"/>
+      <c r="B78" s="14" t="s">
         <v>109</v>
       </c>
-      <c r="C78" s="11" t="s">
+      <c r="C78" s="14" t="s">
         <v>33</v>
       </c>
-      <c r="D78" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="E78" s="11"/>
+      <c r="D78" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="E78" s="14"/>
     </row>
     <row r="79" customHeight="1" spans="1:5">
-      <c r="A79" s="12">
+      <c r="A79" s="15">
         <v>10.13</v>
       </c>
-      <c r="B79" s="11" t="s">
+      <c r="B79" s="14" t="s">
         <v>137</v>
       </c>
-      <c r="C79" s="11" t="s">
+      <c r="C79" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="D79" s="11"/>
-      <c r="E79" s="11"/>
+      <c r="D79" s="14"/>
+      <c r="E79" s="14"/>
     </row>
     <row r="80" customHeight="1" spans="1:5">
-      <c r="A80" s="14"/>
-      <c r="B80" s="11" t="s">
+      <c r="A80" s="17"/>
+      <c r="B80" s="14" t="s">
         <v>78</v>
       </c>
-      <c r="C80" s="11" t="s">
+      <c r="C80" s="14" t="s">
         <v>79</v>
       </c>
-      <c r="D80" s="11"/>
-      <c r="E80" s="11"/>
+      <c r="D80" s="14"/>
+      <c r="E80" s="14"/>
     </row>
     <row r="81" customHeight="1" spans="1:5">
-      <c r="A81" s="11"/>
-      <c r="B81" s="11"/>
-      <c r="C81" s="11"/>
-      <c r="D81" s="11"/>
-      <c r="E81" s="11"/>
+      <c r="A81" s="14"/>
+      <c r="B81" s="14"/>
+      <c r="C81" s="14"/>
+      <c r="D81" s="14"/>
+      <c r="E81" s="14"/>
     </row>
     <row r="82" customHeight="1" spans="1:5">
-      <c r="A82" s="11"/>
-      <c r="B82" s="11"/>
-      <c r="C82" s="11"/>
-      <c r="D82" s="11"/>
-      <c r="E82" s="11"/>
+      <c r="A82" s="14"/>
+      <c r="B82" s="14"/>
+      <c r="C82" s="14"/>
+      <c r="D82" s="14"/>
+      <c r="E82" s="14"/>
     </row>
     <row r="83" customHeight="1" spans="1:5">
-      <c r="A83" s="11"/>
-      <c r="B83" s="11"/>
-      <c r="C83" s="11"/>
-      <c r="D83" s="11"/>
-      <c r="E83" s="11"/>
+      <c r="A83" s="14"/>
+      <c r="B83" s="14"/>
+      <c r="C83" s="14"/>
+      <c r="D83" s="14"/>
+      <c r="E83" s="14"/>
     </row>
     <row r="84" customHeight="1" spans="1:5">
-      <c r="A84" s="11"/>
-      <c r="B84" s="11"/>
-      <c r="C84" s="11"/>
-      <c r="D84" s="11"/>
-      <c r="E84" s="11"/>
+      <c r="A84" s="14"/>
+      <c r="B84" s="14"/>
+      <c r="C84" s="14"/>
+      <c r="D84" s="14"/>
+      <c r="E84" s="14"/>
     </row>
     <row r="85" customHeight="1" spans="1:5">
-      <c r="A85" s="11"/>
-      <c r="B85" s="11"/>
-      <c r="C85" s="11"/>
-      <c r="D85" s="11"/>
-      <c r="E85" s="11"/>
+      <c r="A85" s="14"/>
+      <c r="B85" s="14"/>
+      <c r="C85" s="14"/>
+      <c r="D85" s="14"/>
+      <c r="E85" s="14"/>
     </row>
     <row r="86" customHeight="1" spans="1:5">
-      <c r="A86" s="11"/>
-      <c r="B86" s="11"/>
-      <c r="C86" s="11"/>
-      <c r="D86" s="11"/>
-      <c r="E86" s="11"/>
+      <c r="A86" s="14"/>
+      <c r="B86" s="14"/>
+      <c r="C86" s="14"/>
+      <c r="D86" s="14"/>
+      <c r="E86" s="14"/>
     </row>
     <row r="87" customHeight="1" spans="1:5">
-      <c r="A87" s="11"/>
-      <c r="B87" s="11"/>
-      <c r="C87" s="11"/>
-      <c r="D87" s="11"/>
-      <c r="E87" s="11"/>
+      <c r="A87" s="14"/>
+      <c r="B87" s="14"/>
+      <c r="C87" s="14"/>
+      <c r="D87" s="14"/>
+      <c r="E87" s="14"/>
     </row>
     <row r="88" customHeight="1" spans="1:5">
-      <c r="A88" s="11"/>
-      <c r="B88" s="11"/>
-      <c r="C88" s="11"/>
-      <c r="D88" s="11"/>
-      <c r="E88" s="11"/>
+      <c r="A88" s="14"/>
+      <c r="B88" s="14"/>
+      <c r="C88" s="14"/>
+      <c r="D88" s="14"/>
+      <c r="E88" s="14"/>
     </row>
     <row r="89" customHeight="1" spans="1:5">
-      <c r="A89" s="11"/>
-      <c r="B89" s="11"/>
-      <c r="C89" s="11"/>
-      <c r="D89" s="11"/>
-      <c r="E89" s="11"/>
+      <c r="A89" s="14"/>
+      <c r="B89" s="14"/>
+      <c r="C89" s="14"/>
+      <c r="D89" s="14"/>
+      <c r="E89" s="14"/>
     </row>
     <row r="90" customHeight="1" spans="1:5">
-      <c r="A90" s="11"/>
-      <c r="B90" s="11"/>
-      <c r="C90" s="11"/>
-      <c r="D90" s="11"/>
-      <c r="E90" s="11"/>
+      <c r="A90" s="14"/>
+      <c r="B90" s="14"/>
+      <c r="C90" s="14"/>
+      <c r="D90" s="14"/>
+      <c r="E90" s="14"/>
     </row>
     <row r="91" customHeight="1" spans="1:5">
-      <c r="A91" s="11"/>
-      <c r="B91" s="11"/>
-      <c r="C91" s="11"/>
-      <c r="D91" s="11"/>
-      <c r="E91" s="11"/>
+      <c r="A91" s="14"/>
+      <c r="B91" s="14"/>
+      <c r="C91" s="14"/>
+      <c r="D91" s="14"/>
+      <c r="E91" s="14"/>
     </row>
     <row r="92" customHeight="1" spans="1:5">
-      <c r="A92" s="11"/>
-      <c r="B92" s="11"/>
-      <c r="C92" s="11"/>
-      <c r="D92" s="11"/>
-      <c r="E92" s="11"/>
+      <c r="A92" s="14"/>
+      <c r="B92" s="14"/>
+      <c r="C92" s="14"/>
+      <c r="D92" s="14"/>
+      <c r="E92" s="14"/>
     </row>
     <row r="93" customHeight="1" spans="1:5">
-      <c r="A93" s="11"/>
-      <c r="B93" s="11"/>
-      <c r="C93" s="11"/>
-      <c r="D93" s="11"/>
-      <c r="E93" s="11"/>
+      <c r="A93" s="14"/>
+      <c r="B93" s="14"/>
+      <c r="C93" s="14"/>
+      <c r="D93" s="14"/>
+      <c r="E93" s="14"/>
     </row>
     <row r="94" customHeight="1" spans="1:5">
-      <c r="A94" s="11"/>
-      <c r="B94" s="11"/>
-      <c r="C94" s="11"/>
-      <c r="D94" s="11"/>
-      <c r="E94" s="11"/>
+      <c r="A94" s="14"/>
+      <c r="B94" s="14"/>
+      <c r="C94" s="14"/>
+      <c r="D94" s="14"/>
+      <c r="E94" s="14"/>
     </row>
     <row r="95" customHeight="1" spans="1:5">
-      <c r="A95" s="11"/>
-      <c r="B95" s="11"/>
-      <c r="C95" s="11"/>
-      <c r="D95" s="11"/>
-      <c r="E95" s="11"/>
+      <c r="A95" s="14"/>
+      <c r="B95" s="14"/>
+      <c r="C95" s="14"/>
+      <c r="D95" s="14"/>
+      <c r="E95" s="14"/>
     </row>
     <row r="96" customHeight="1" spans="1:5">
-      <c r="A96" s="11"/>
-      <c r="B96" s="11"/>
-      <c r="C96" s="11"/>
-      <c r="D96" s="11"/>
-      <c r="E96" s="11"/>
+      <c r="A96" s="14"/>
+      <c r="B96" s="14"/>
+      <c r="C96" s="14"/>
+      <c r="D96" s="14"/>
+      <c r="E96" s="14"/>
     </row>
     <row r="97" customHeight="1" spans="1:5">
-      <c r="A97" s="11"/>
-      <c r="B97" s="11"/>
-      <c r="C97" s="11"/>
-      <c r="D97" s="11"/>
-      <c r="E97" s="11"/>
+      <c r="A97" s="14"/>
+      <c r="B97" s="14"/>
+      <c r="C97" s="14"/>
+      <c r="D97" s="14"/>
+      <c r="E97" s="14"/>
     </row>
     <row r="98" customHeight="1" spans="1:5">
-      <c r="A98" s="11"/>
-      <c r="B98" s="11"/>
-      <c r="C98" s="11"/>
-      <c r="D98" s="11"/>
-      <c r="E98" s="11"/>
+      <c r="A98" s="14"/>
+      <c r="B98" s="14"/>
+      <c r="C98" s="14"/>
+      <c r="D98" s="14"/>
+      <c r="E98" s="14"/>
     </row>
     <row r="99" customHeight="1" spans="1:5">
-      <c r="A99" s="11"/>
-      <c r="B99" s="11"/>
-      <c r="C99" s="11"/>
-      <c r="D99" s="11"/>
-      <c r="E99" s="11"/>
+      <c r="A99" s="14"/>
+      <c r="B99" s="14"/>
+      <c r="C99" s="14"/>
+      <c r="D99" s="14"/>
+      <c r="E99" s="14"/>
     </row>
   </sheetData>
   <mergeCells count="13">
@@ -2845,11 +2941,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr filterMode="1"/>
-  <dimension ref="A1:F34"/>
+  <sheetPr/>
+  <dimension ref="A1:F35"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="B28" sqref="B28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
@@ -2881,9 +2977,9 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" ht="18" hidden="1" customHeight="1" spans="1:6">
+    <row r="2" ht="18" customHeight="1" spans="1:6">
       <c r="A2" s="5">
-        <v>3.8</v>
+        <v>2.14</v>
       </c>
       <c r="B2" s="6" t="s">
         <v>139</v>
@@ -2894,14 +2990,14 @@
       <c r="D2" s="6" t="s">
         <v>141</v>
       </c>
-      <c r="E2" s="7" t="s">
+      <c r="E2" s="6" t="s">
         <v>142</v>
       </c>
       <c r="F2" s="6"/>
     </row>
-    <row r="3" ht="18" hidden="1" customHeight="1" spans="1:6">
+    <row r="3" ht="18" customHeight="1" spans="1:6">
       <c r="A3" s="5">
-        <v>3.8</v>
+        <v>2.15</v>
       </c>
       <c r="B3" s="6" t="s">
         <v>143</v>
@@ -2910,118 +3006,118 @@
         <v>140</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>48</v>
+        <v>89</v>
       </c>
       <c r="E3" s="6" t="s">
         <v>144</v>
       </c>
       <c r="F3" s="6"/>
     </row>
-    <row r="4" ht="18" hidden="1" customHeight="1" spans="1:6">
+    <row r="4" ht="18" customHeight="1" spans="1:6">
       <c r="A4" s="5">
-        <v>3.8</v>
+        <v>2.16</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>77</v>
+        <v>145</v>
       </c>
       <c r="C4" s="6" t="s">
         <v>140</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="E4" s="6" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="F4" s="6"/>
     </row>
     <row r="5" ht="18" customHeight="1" spans="1:6">
       <c r="A5" s="5">
-        <v>3.8</v>
+        <v>2.17</v>
       </c>
       <c r="B5" s="6" t="s">
         <v>146</v>
       </c>
-      <c r="C5" s="8" t="s">
+      <c r="C5" s="6" t="s">
+        <v>140</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="E5" s="6" t="s">
         <v>147</v>
       </c>
-      <c r="D5" s="6" t="s">
+      <c r="F5" s="6"/>
+    </row>
+    <row r="6" ht="18" customHeight="1" spans="1:6">
+      <c r="A6" s="5">
+        <v>2.25</v>
+      </c>
+      <c r="B6" s="6" t="s">
         <v>148</v>
-      </c>
-      <c r="E5" s="6" t="s">
-        <v>145</v>
-      </c>
-      <c r="F5" s="6"/>
-    </row>
-    <row r="6" ht="18" hidden="1" customHeight="1" spans="1:6">
-      <c r="A6" s="5">
-        <v>3.7</v>
-      </c>
-      <c r="B6" s="6" t="s">
-        <v>149</v>
       </c>
       <c r="C6" s="6" t="s">
         <v>140</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>150</v>
+        <v>27</v>
       </c>
       <c r="E6" s="6" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="F6" s="6"/>
     </row>
-    <row r="7" ht="18" hidden="1" customHeight="1" spans="1:6">
+    <row r="7" ht="18" customHeight="1" spans="1:6">
       <c r="A7" s="5">
-        <v>3.7</v>
+        <v>2.25</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>151</v>
+        <v>136</v>
       </c>
       <c r="C7" s="6" t="s">
         <v>140</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="E7" s="6" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="F7" s="6"/>
     </row>
     <row r="8" ht="18" customHeight="1" spans="1:6">
       <c r="A8" s="5">
-        <v>3.7</v>
+        <v>2.25</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>153</v>
-      </c>
-      <c r="C8" s="8" t="s">
-        <v>147</v>
+        <v>36</v>
+      </c>
+      <c r="C8" s="6" t="s">
+        <v>140</v>
       </c>
       <c r="D8" s="6" t="s">
-        <v>58</v>
+        <v>150</v>
       </c>
       <c r="E8" s="6" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="F8" s="6"/>
     </row>
     <row r="9" ht="18" customHeight="1" spans="1:6">
       <c r="A9" s="5">
-        <v>3.4</v>
+        <v>3.14</v>
       </c>
       <c r="B9" s="6" t="s">
+        <v>151</v>
+      </c>
+      <c r="C9" s="6" t="s">
+        <v>152</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>153</v>
+      </c>
+      <c r="E9" s="6" t="s">
         <v>154</v>
-      </c>
-      <c r="C9" s="8" t="s">
-        <v>147</v>
-      </c>
-      <c r="D9" s="6" t="s">
-        <v>155</v>
-      </c>
-      <c r="E9" s="6" t="s">
-        <v>144</v>
       </c>
       <c r="F9" s="6"/>
     </row>
@@ -3030,266 +3126,416 @@
         <v>3.4</v>
       </c>
       <c r="B10" s="6" t="s">
+        <v>155</v>
+      </c>
+      <c r="C10" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="D10" s="6" t="s">
         <v>156</v>
       </c>
-      <c r="C10" s="8" t="s">
-        <v>147</v>
-      </c>
-      <c r="D10" s="6" t="s">
+      <c r="E10" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="F10" s="6"/>
+    </row>
+    <row r="11" ht="18" customHeight="1" spans="1:6">
+      <c r="A11" s="5">
+        <v>3.4</v>
+      </c>
+      <c r="B11" s="6" t="s">
         <v>157</v>
       </c>
-      <c r="E10" s="6" t="s">
+      <c r="C11" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="D11" s="6" t="s">
         <v>158</v>
       </c>
-      <c r="F10" s="6"/>
-    </row>
-    <row r="11" ht="18" hidden="1" customHeight="1" spans="1:6">
-      <c r="A11" s="5">
-        <v>2.25</v>
-      </c>
-      <c r="B11" s="6" t="s">
+      <c r="E11" s="6" t="s">
         <v>159</v>
       </c>
-      <c r="C11" s="6" t="s">
-        <v>140</v>
-      </c>
-      <c r="D11" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="E11" s="6" t="s">
-        <v>144</v>
-      </c>
       <c r="F11" s="6"/>
     </row>
-    <row r="12" ht="18" hidden="1" customHeight="1" spans="1:6">
+    <row r="12" ht="18" customHeight="1" spans="1:6">
       <c r="A12" s="5">
-        <v>2.25</v>
+        <v>3.7</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>136</v>
+        <v>160</v>
       </c>
       <c r="C12" s="6" t="s">
         <v>140</v>
       </c>
       <c r="D12" s="6" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="E12" s="6" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="F12" s="6"/>
     </row>
-    <row r="13" ht="18" hidden="1" customHeight="1" spans="1:6">
+    <row r="13" ht="18" customHeight="1" spans="1:6">
       <c r="A13" s="5">
-        <v>2.25</v>
+        <v>3.7</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>36</v>
+        <v>162</v>
       </c>
       <c r="C13" s="6" t="s">
         <v>140</v>
       </c>
       <c r="D13" s="6" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="E13" s="6" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="F13" s="6"/>
     </row>
-    <row r="14" ht="18" hidden="1" customHeight="1" spans="1:6">
+    <row r="14" ht="18" customHeight="1" spans="1:6">
       <c r="A14" s="5">
-        <v>2.17</v>
+        <v>3.7</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>162</v>
-      </c>
-      <c r="C14" s="6" t="s">
-        <v>140</v>
+        <v>164</v>
+      </c>
+      <c r="C14" s="7" t="s">
+        <v>152</v>
       </c>
       <c r="D14" s="6" t="s">
-        <v>33</v>
+        <v>58</v>
       </c>
       <c r="E14" s="6" t="s">
-        <v>163</v>
+        <v>144</v>
       </c>
       <c r="F14" s="6"/>
     </row>
-    <row r="15" ht="18" hidden="1" customHeight="1" spans="1:6">
+    <row r="15" ht="18" customHeight="1" spans="1:6">
       <c r="A15" s="5">
-        <v>2.16</v>
+        <v>3.8</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="C15" s="6" t="s">
         <v>140</v>
       </c>
       <c r="D15" s="6" t="s">
-        <v>91</v>
-      </c>
-      <c r="E15" s="6" t="s">
-        <v>144</v>
+        <v>166</v>
+      </c>
+      <c r="E15" s="8" t="s">
+        <v>167</v>
       </c>
       <c r="F15" s="6"/>
     </row>
-    <row r="16" ht="18" hidden="1" customHeight="1" spans="1:6">
+    <row r="16" ht="18" customHeight="1" spans="1:6">
       <c r="A16" s="5">
-        <v>2.15</v>
+        <v>3.8</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="C16" s="6" t="s">
         <v>140</v>
       </c>
       <c r="D16" s="6" t="s">
-        <v>89</v>
+        <v>48</v>
       </c>
       <c r="E16" s="6" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="F16" s="6"/>
     </row>
-    <row r="17" ht="18" hidden="1" customHeight="1" spans="1:6">
+    <row r="17" ht="18" customHeight="1" spans="1:6">
       <c r="A17" s="5">
-        <v>2.14</v>
+        <v>3.8</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>166</v>
+        <v>77</v>
       </c>
       <c r="C17" s="6" t="s">
         <v>140</v>
       </c>
       <c r="D17" s="6" t="s">
-        <v>167</v>
+        <v>79</v>
       </c>
       <c r="E17" s="6" t="s">
         <v>144</v>
       </c>
       <c r="F17" s="6"/>
     </row>
-    <row r="18" ht="18" hidden="1" customHeight="1" spans="1:6">
-      <c r="A18" s="5"/>
-      <c r="B18" s="6"/>
-      <c r="C18" s="6"/>
-      <c r="D18" s="6"/>
-      <c r="E18" s="6"/>
+    <row r="18" ht="18" customHeight="1" spans="1:6">
+      <c r="A18" s="5">
+        <v>3.8</v>
+      </c>
+      <c r="B18" s="6" t="s">
+        <v>169</v>
+      </c>
+      <c r="C18" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="D18" s="6" t="s">
+        <v>170</v>
+      </c>
+      <c r="E18" s="6" t="s">
+        <v>144</v>
+      </c>
       <c r="F18" s="6"/>
     </row>
-    <row r="19" ht="18" hidden="1" customHeight="1" spans="1:6">
-      <c r="A19" s="5"/>
-      <c r="B19" s="6"/>
-      <c r="C19" s="6"/>
-      <c r="D19" s="6"/>
-      <c r="E19" s="6"/>
+    <row r="19" ht="18" customHeight="1" spans="1:6">
+      <c r="A19" s="5">
+        <v>3.14</v>
+      </c>
+      <c r="B19" s="6" t="s">
+        <v>151</v>
+      </c>
+      <c r="C19" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="D19" s="6" t="s">
+        <v>153</v>
+      </c>
+      <c r="E19" s="6" t="s">
+        <v>154</v>
+      </c>
       <c r="F19" s="6"/>
     </row>
-    <row r="20" ht="18" hidden="1" customHeight="1" spans="1:6">
-      <c r="A20" s="5"/>
-      <c r="B20" s="6"/>
-      <c r="C20" s="6"/>
-      <c r="D20" s="6"/>
-      <c r="E20" s="6"/>
+    <row r="20" ht="18" customHeight="1" spans="1:6">
+      <c r="A20" s="5">
+        <v>3.14</v>
+      </c>
+      <c r="B20" s="6" t="s">
+        <v>171</v>
+      </c>
+      <c r="C20" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="D20" s="6" t="s">
+        <v>172</v>
+      </c>
+      <c r="E20" s="6" t="s">
+        <v>144</v>
+      </c>
       <c r="F20" s="6"/>
     </row>
-    <row r="21" ht="18" hidden="1" customHeight="1" spans="1:6">
-      <c r="A21" s="5"/>
-      <c r="B21" s="6"/>
-      <c r="C21" s="6"/>
-      <c r="D21" s="6"/>
-      <c r="E21" s="6"/>
+    <row r="21" ht="18" customHeight="1" spans="1:6">
+      <c r="A21" s="5">
+        <v>3.16</v>
+      </c>
+      <c r="B21" s="6" t="s">
+        <v>173</v>
+      </c>
+      <c r="C21" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="D21" s="6" t="s">
+        <v>174</v>
+      </c>
+      <c r="E21" s="6" t="s">
+        <v>142</v>
+      </c>
       <c r="F21" s="6"/>
     </row>
-    <row r="22" ht="18" hidden="1" customHeight="1" spans="1:6">
-      <c r="A22" s="5"/>
-      <c r="B22" s="6"/>
-      <c r="C22" s="6"/>
-      <c r="D22" s="6"/>
-      <c r="E22" s="6"/>
+    <row r="22" ht="18" customHeight="1" spans="1:6">
+      <c r="A22" s="5">
+        <v>3.16</v>
+      </c>
+      <c r="B22" s="6" t="s">
+        <v>175</v>
+      </c>
+      <c r="C22" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="D22" s="6" t="s">
+        <v>176</v>
+      </c>
+      <c r="E22" s="6" t="s">
+        <v>177</v>
+      </c>
       <c r="F22" s="6"/>
     </row>
-    <row r="23" ht="18" hidden="1" customHeight="1" spans="1:6">
-      <c r="A23" s="5"/>
-      <c r="B23" s="6"/>
-      <c r="C23" s="6"/>
-      <c r="D23" s="6"/>
-      <c r="E23" s="6"/>
+    <row r="23" ht="18" customHeight="1" spans="1:6">
+      <c r="A23" s="5">
+        <v>3.16</v>
+      </c>
+      <c r="B23" s="6" t="s">
+        <v>178</v>
+      </c>
+      <c r="C23" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="D23" s="6" t="s">
+        <v>179</v>
+      </c>
+      <c r="E23" s="6" t="s">
+        <v>142</v>
+      </c>
       <c r="F23" s="6"/>
     </row>
-    <row r="24" ht="18" hidden="1" customHeight="1" spans="1:6">
-      <c r="A24" s="5"/>
-      <c r="B24" s="6"/>
-      <c r="C24" s="6"/>
-      <c r="D24" s="6"/>
-      <c r="E24" s="6"/>
+    <row r="24" ht="18" customHeight="1" spans="1:6">
+      <c r="A24" s="5">
+        <v>3.15</v>
+      </c>
+      <c r="B24" s="6" t="s">
+        <v>180</v>
+      </c>
+      <c r="C24" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="D24" s="9" t="s">
+        <v>181</v>
+      </c>
+      <c r="E24" s="6" t="s">
+        <v>144</v>
+      </c>
       <c r="F24" s="6"/>
     </row>
-    <row r="25" hidden="1" spans="1:6">
-      <c r="A25" s="5"/>
-      <c r="B25" s="6"/>
-      <c r="C25" s="6"/>
-      <c r="D25" s="6"/>
-      <c r="E25" s="6"/>
+    <row r="25" ht="18" customHeight="1" spans="1:6">
+      <c r="A25" s="5">
+        <v>3.16</v>
+      </c>
+      <c r="B25" s="6" t="s">
+        <v>182</v>
+      </c>
+      <c r="C25" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="D25" s="6" t="s">
+        <v>183</v>
+      </c>
+      <c r="E25" s="6" t="s">
+        <v>184</v>
+      </c>
       <c r="F25" s="6"/>
     </row>
-    <row r="26" hidden="1" spans="1:6">
-      <c r="A26" s="5"/>
-      <c r="B26" s="6"/>
-      <c r="C26" s="6"/>
-      <c r="D26" s="6"/>
-      <c r="E26" s="6"/>
+    <row r="26" ht="18" customHeight="1" spans="1:6">
+      <c r="A26" s="5">
+        <v>3.17</v>
+      </c>
+      <c r="B26" s="6" t="s">
+        <v>185</v>
+      </c>
+      <c r="C26" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="D26" s="6" t="s">
+        <v>170</v>
+      </c>
+      <c r="E26" s="6" t="s">
+        <v>142</v>
+      </c>
       <c r="F26" s="6"/>
     </row>
-    <row r="27" hidden="1" spans="1:6">
-      <c r="A27" s="5"/>
-      <c r="B27" s="6"/>
-      <c r="C27" s="6"/>
-      <c r="D27" s="6"/>
-      <c r="E27" s="6"/>
+    <row r="27" ht="18" customHeight="1" spans="1:6">
+      <c r="A27" s="5">
+        <v>3.17</v>
+      </c>
+      <c r="B27" s="6" t="s">
+        <v>175</v>
+      </c>
+      <c r="C27" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="D27" s="6" t="s">
+        <v>186</v>
+      </c>
+      <c r="E27" s="6" t="s">
+        <v>142</v>
+      </c>
       <c r="F27" s="6"/>
     </row>
-    <row r="28" hidden="1" spans="1:6">
-      <c r="A28" s="5"/>
-      <c r="B28" s="6"/>
-      <c r="C28" s="6"/>
-      <c r="D28" s="6"/>
-      <c r="E28" s="6"/>
+    <row r="28" ht="18" customHeight="1" spans="1:6">
+      <c r="A28" s="5">
+        <v>3.17</v>
+      </c>
+      <c r="B28" s="6" t="s">
+        <v>187</v>
+      </c>
+      <c r="C28" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="D28" s="6" t="s">
+        <v>188</v>
+      </c>
+      <c r="E28" s="6" t="s">
+        <v>142</v>
+      </c>
       <c r="F28" s="6"/>
     </row>
-    <row r="29" hidden="1" spans="1:6">
-      <c r="A29" s="5"/>
-      <c r="B29" s="6"/>
-      <c r="C29" s="6"/>
-      <c r="D29" s="6"/>
-      <c r="E29" s="6"/>
+    <row r="29" ht="18" customHeight="1" spans="1:6">
+      <c r="A29" s="5">
+        <v>3.17</v>
+      </c>
+      <c r="B29" s="6" t="s">
+        <v>189</v>
+      </c>
+      <c r="C29" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="D29" s="6" t="s">
+        <v>190</v>
+      </c>
+      <c r="E29" s="6" t="s">
+        <v>191</v>
+      </c>
       <c r="F29" s="6"/>
     </row>
-    <row r="30" hidden="1" spans="1:6">
-      <c r="A30" s="5"/>
-      <c r="B30" s="6"/>
-      <c r="C30" s="6"/>
-      <c r="D30" s="6"/>
-      <c r="E30" s="6"/>
+    <row r="30" ht="18" customHeight="1" spans="1:6">
+      <c r="A30" s="5">
+        <v>3.17</v>
+      </c>
+      <c r="B30" s="6" t="s">
+        <v>169</v>
+      </c>
+      <c r="C30" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="D30" s="6" t="s">
+        <v>170</v>
+      </c>
+      <c r="E30" s="6" t="s">
+        <v>192</v>
+      </c>
       <c r="F30" s="6"/>
     </row>
-    <row r="31" hidden="1" spans="1:6">
-      <c r="A31" s="5"/>
-      <c r="B31" s="6"/>
-      <c r="C31" s="6"/>
-      <c r="D31" s="6"/>
-      <c r="E31" s="6"/>
+    <row r="31" ht="18" customHeight="1" spans="1:6">
+      <c r="A31" s="5">
+        <v>3.17</v>
+      </c>
+      <c r="B31" s="6" t="s">
+        <v>193</v>
+      </c>
+      <c r="C31" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="D31" s="6" t="s">
+        <v>194</v>
+      </c>
+      <c r="E31" s="6" t="s">
+        <v>195</v>
+      </c>
       <c r="F31" s="6"/>
     </row>
-    <row r="32" hidden="1" spans="1:6">
-      <c r="A32" s="5"/>
-      <c r="B32" s="6"/>
-      <c r="C32" s="6"/>
-      <c r="D32" s="6"/>
-      <c r="E32" s="6"/>
+    <row r="32" ht="18" customHeight="1" spans="1:6">
+      <c r="A32" s="5">
+        <v>3.18</v>
+      </c>
+      <c r="B32" s="6" t="s">
+        <v>196</v>
+      </c>
+      <c r="C32" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="D32" s="6" t="s">
+        <v>153</v>
+      </c>
+      <c r="E32" s="6" t="s">
+        <v>191</v>
+      </c>
       <c r="F32" s="6"/>
     </row>
-    <row r="33" hidden="1" spans="1:6">
+    <row r="33" spans="1:6">
       <c r="A33" s="5"/>
       <c r="B33" s="6"/>
       <c r="C33" s="6"/>
@@ -3297,7 +3543,7 @@
       <c r="E33" s="6"/>
       <c r="F33" s="6"/>
     </row>
-    <row r="34" hidden="1" spans="1:6">
+    <row r="34" spans="1:6">
       <c r="A34" s="5"/>
       <c r="B34" s="6"/>
       <c r="C34" s="6"/>
@@ -3305,15 +3551,20 @@
       <c r="E34" s="6"/>
       <c r="F34" s="6"/>
     </row>
+    <row r="35" spans="1:5">
+      <c r="A35" s="10"/>
+      <c r="B35" s="11"/>
+      <c r="C35" s="11"/>
+      <c r="D35" s="11"/>
+      <c r="E35" s="11"/>
+    </row>
   </sheetData>
-  <autoFilter ref="C1:C34">
-    <filterColumn colId="0">
-      <customFilters>
-        <customFilter operator="equal" val="合肥"/>
-      </customFilters>
-    </filterColumn>
+  <autoFilter ref="C1:C35">
     <extLst/>
   </autoFilter>
+  <sortState ref="A2:F35">
+    <sortCondition ref="A2"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>

--- a/OverView/interview.xlsx
+++ b/OverView/interview.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="16005" windowHeight="11790" activeTab="1"/>
+    <workbookView windowWidth="18525" windowHeight="11790" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="368" uniqueCount="197">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="411" uniqueCount="217">
   <si>
     <t>时间</t>
   </si>
@@ -588,6 +588,9 @@
     <t>15-30 14</t>
   </si>
   <si>
+    <t>简历已发 未回复 28号复式</t>
+  </si>
+  <si>
     <t>云南白药</t>
   </si>
   <si>
@@ -610,6 +613,63 @@
   </si>
   <si>
     <t>大智慧</t>
+  </si>
+  <si>
+    <t>中科美络</t>
+  </si>
+  <si>
+    <t>HR脑残</t>
+  </si>
+  <si>
+    <t>人瑞科技</t>
+  </si>
+  <si>
+    <t>16-24 15</t>
+  </si>
+  <si>
+    <t>洽洽</t>
+  </si>
+  <si>
+    <t>12-20 14</t>
+  </si>
+  <si>
+    <t>百得思维</t>
+  </si>
+  <si>
+    <t>城市智能科技</t>
+  </si>
+  <si>
+    <t>12-24</t>
+  </si>
+  <si>
+    <t>饿了么</t>
+  </si>
+  <si>
+    <t>斑马网络</t>
+  </si>
+  <si>
+    <t>敏桥</t>
+  </si>
+  <si>
+    <t>17-28 14</t>
+  </si>
+  <si>
+    <t>亚创电子科技</t>
+  </si>
+  <si>
+    <t>15-20 15</t>
+  </si>
+  <si>
+    <t>赤尾狐科技</t>
+  </si>
+  <si>
+    <t>15-22</t>
+  </si>
+  <si>
+    <t>华为</t>
+  </si>
+  <si>
+    <t>20-40 14</t>
   </si>
 </sst>
 </file>
@@ -617,9 +677,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
@@ -647,14 +707,45 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -669,44 +760,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -736,16 +790,22 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -760,15 +820,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -789,6 +841,14 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="34">
     <fill>
@@ -805,7 +865,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -817,7 +877,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -829,25 +925,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -859,13 +949,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -883,13 +1009,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -901,91 +1045,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1066,21 +1126,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
@@ -1105,11 +1150,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1134,16 +1185,25 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
+      <right style="double">
         <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
+      <top style="double">
         <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
+      <bottom style="double">
         <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
@@ -1156,10 +1216,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="20" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="19" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1168,141 +1228,144 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="32" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="10" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1326,13 +1389,22 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="58" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
@@ -1711,1211 +1783,1211 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16" customHeight="1" outlineLevelCol="4"/>
   <cols>
-    <col min="1" max="1" width="9" style="12"/>
-    <col min="2" max="2" width="49.75" style="12" customWidth="1"/>
-    <col min="3" max="3" width="26.25" style="12" customWidth="1"/>
-    <col min="4" max="4" width="20.25" style="12" customWidth="1"/>
-    <col min="5" max="5" width="22.5" style="12" customWidth="1"/>
-    <col min="6" max="16384" width="9" style="12"/>
+    <col min="1" max="1" width="9" style="16"/>
+    <col min="2" max="2" width="49.75" style="16" customWidth="1"/>
+    <col min="3" max="3" width="26.25" style="16" customWidth="1"/>
+    <col min="4" max="4" width="20.25" style="16" customWidth="1"/>
+    <col min="5" max="5" width="22.5" style="16" customWidth="1"/>
+    <col min="6" max="16384" width="9" style="16"/>
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="1" customHeight="1" spans="1:5">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="E1" s="5" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="2" customHeight="1" spans="1:5">
-      <c r="A2" s="13">
+      <c r="A2" s="17">
         <v>8.13</v>
       </c>
-      <c r="B2" s="14" t="s">
+      <c r="B2" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="14" t="s">
+      <c r="C2" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="14"/>
-      <c r="E2" s="14" t="s">
+      <c r="D2" s="18"/>
+      <c r="E2" s="18" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="3" customHeight="1" spans="1:5">
-      <c r="A3" s="13"/>
-      <c r="B3" s="14" t="s">
+      <c r="A3" s="17"/>
+      <c r="B3" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="14" t="s">
+      <c r="C3" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="D3" s="14" t="s">
+      <c r="D3" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="E3" s="14"/>
+      <c r="E3" s="18"/>
     </row>
     <row r="4" customHeight="1" spans="1:5">
-      <c r="A4" s="13"/>
-      <c r="B4" s="14" t="s">
+      <c r="A4" s="17"/>
+      <c r="B4" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="C4" s="14" t="s">
+      <c r="C4" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="D4" s="14" t="s">
+      <c r="D4" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="E4" s="14"/>
+      <c r="E4" s="18"/>
     </row>
     <row r="5" customHeight="1" spans="1:5">
-      <c r="A5" s="13"/>
-      <c r="B5" s="14" t="s">
+      <c r="A5" s="17"/>
+      <c r="B5" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="14" t="s">
+      <c r="C5" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="D5" s="14" t="s">
+      <c r="D5" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="E5" s="14"/>
+      <c r="E5" s="18"/>
     </row>
     <row r="6" customHeight="1" spans="1:5">
-      <c r="A6" s="13">
+      <c r="A6" s="17">
         <v>8.16</v>
       </c>
-      <c r="B6" s="14" t="s">
+      <c r="B6" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="C6" s="14" t="s">
+      <c r="C6" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="D6" s="14"/>
-      <c r="E6" s="14" t="s">
+      <c r="D6" s="18"/>
+      <c r="E6" s="18" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="7" customHeight="1" spans="1:5">
-      <c r="A7" s="13"/>
-      <c r="B7" s="14" t="s">
+      <c r="A7" s="17"/>
+      <c r="B7" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="C7" s="14" t="s">
+      <c r="C7" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="D7" s="14" t="s">
+      <c r="D7" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="E7" s="14"/>
+      <c r="E7" s="18"/>
     </row>
     <row r="8" customHeight="1" spans="1:5">
-      <c r="A8" s="13"/>
-      <c r="B8" s="14" t="s">
+      <c r="A8" s="17"/>
+      <c r="B8" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="C8" s="14" t="s">
+      <c r="C8" s="18" t="s">
         <v>21</v>
       </c>
-      <c r="D8" s="14" t="s">
+      <c r="D8" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="E8" s="14"/>
+      <c r="E8" s="18"/>
     </row>
     <row r="9" customHeight="1" spans="1:5">
-      <c r="A9" s="13"/>
-      <c r="B9" s="14" t="s">
+      <c r="A9" s="17"/>
+      <c r="B9" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="C9" s="14" t="s">
+      <c r="C9" s="18" t="s">
         <v>23</v>
       </c>
-      <c r="D9" s="14" t="s">
+      <c r="D9" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="E9" s="14"/>
+      <c r="E9" s="18"/>
     </row>
     <row r="10" customHeight="1" spans="1:5">
-      <c r="A10" s="13"/>
-      <c r="B10" s="14" t="s">
+      <c r="A10" s="17"/>
+      <c r="B10" s="18" t="s">
         <v>25</v>
       </c>
-      <c r="C10" s="14" t="s">
+      <c r="C10" s="18" t="s">
         <v>23</v>
       </c>
-      <c r="D10" s="14" t="s">
+      <c r="D10" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="E10" s="14"/>
+      <c r="E10" s="18"/>
     </row>
     <row r="11" customHeight="1" spans="1:5">
-      <c r="A11" s="13">
+      <c r="A11" s="17">
         <v>8.17</v>
       </c>
-      <c r="B11" s="14" t="s">
+      <c r="B11" s="18" t="s">
         <v>26</v>
       </c>
-      <c r="C11" s="14" t="s">
+      <c r="C11" s="18" t="s">
         <v>27</v>
       </c>
-      <c r="D11" s="14" t="s">
+      <c r="D11" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="E11" s="14"/>
+      <c r="E11" s="18"/>
     </row>
     <row r="12" customHeight="1" spans="1:5">
-      <c r="A12" s="13"/>
-      <c r="B12" s="14" t="s">
+      <c r="A12" s="17"/>
+      <c r="B12" s="18" t="s">
         <v>28</v>
       </c>
-      <c r="C12" s="14" t="s">
+      <c r="C12" s="18" t="s">
         <v>29</v>
       </c>
-      <c r="D12" s="14" t="s">
+      <c r="D12" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="E12" s="14"/>
+      <c r="E12" s="18"/>
     </row>
     <row r="13" customHeight="1" spans="1:5">
-      <c r="A13" s="13"/>
-      <c r="B13" s="14" t="s">
+      <c r="A13" s="17"/>
+      <c r="B13" s="18" t="s">
         <v>30</v>
       </c>
-      <c r="C13" s="14" t="s">
+      <c r="C13" s="18" t="s">
         <v>31</v>
       </c>
-      <c r="D13" s="14" t="s">
+      <c r="D13" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="E13" s="14"/>
+      <c r="E13" s="18"/>
     </row>
     <row r="14" customHeight="1" spans="1:5">
-      <c r="A14" s="13"/>
-      <c r="B14" s="14" t="s">
+      <c r="A14" s="17"/>
+      <c r="B14" s="18" t="s">
         <v>32</v>
       </c>
-      <c r="C14" s="14" t="s">
+      <c r="C14" s="18" t="s">
         <v>33</v>
       </c>
-      <c r="D14" s="14" t="s">
+      <c r="D14" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="E14" s="14"/>
+      <c r="E14" s="18"/>
     </row>
     <row r="15" customHeight="1" spans="1:5">
-      <c r="A15" s="13"/>
-      <c r="B15" s="14" t="s">
+      <c r="A15" s="17"/>
+      <c r="B15" s="18" t="s">
         <v>34</v>
       </c>
-      <c r="C15" s="14" t="s">
+      <c r="C15" s="18" t="s">
         <v>35</v>
       </c>
-      <c r="D15" s="14" t="s">
+      <c r="D15" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="E15" s="14"/>
+      <c r="E15" s="18"/>
     </row>
     <row r="16" customHeight="1" spans="1:5">
-      <c r="A16" s="13"/>
-      <c r="B16" s="14" t="s">
+      <c r="A16" s="17"/>
+      <c r="B16" s="18" t="s">
         <v>36</v>
       </c>
-      <c r="C16" s="14" t="s">
+      <c r="C16" s="18" t="s">
         <v>37</v>
       </c>
-      <c r="D16" s="14" t="s">
+      <c r="D16" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="E16" s="14"/>
+      <c r="E16" s="18"/>
     </row>
     <row r="17" customHeight="1" spans="1:5">
-      <c r="A17" s="13"/>
-      <c r="B17" s="14" t="s">
+      <c r="A17" s="17"/>
+      <c r="B17" s="18" t="s">
         <v>38</v>
       </c>
-      <c r="C17" s="14" t="s">
+      <c r="C17" s="18" t="s">
         <v>35</v>
       </c>
-      <c r="D17" s="14" t="s">
+      <c r="D17" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="E17" s="14"/>
+      <c r="E17" s="18"/>
     </row>
     <row r="18" customHeight="1" spans="1:5">
-      <c r="A18" s="13"/>
-      <c r="B18" s="14" t="s">
+      <c r="A18" s="17"/>
+      <c r="B18" s="18" t="s">
         <v>39</v>
       </c>
-      <c r="C18" s="14" t="s">
+      <c r="C18" s="18" t="s">
         <v>40</v>
       </c>
-      <c r="D18" s="14" t="s">
+      <c r="D18" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="E18" s="14"/>
+      <c r="E18" s="18"/>
     </row>
     <row r="19" customHeight="1" spans="1:5">
-      <c r="A19" s="13"/>
-      <c r="B19" s="14" t="s">
+      <c r="A19" s="17"/>
+      <c r="B19" s="18" t="s">
         <v>41</v>
       </c>
-      <c r="C19" s="14" t="s">
+      <c r="C19" s="18" t="s">
         <v>42</v>
       </c>
-      <c r="D19" s="14" t="s">
+      <c r="D19" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="E19" s="14"/>
+      <c r="E19" s="18"/>
     </row>
     <row r="20" customHeight="1" spans="1:5">
-      <c r="A20" s="13"/>
-      <c r="B20" s="14" t="s">
+      <c r="A20" s="17"/>
+      <c r="B20" s="18" t="s">
         <v>43</v>
       </c>
-      <c r="C20" s="14" t="s">
+      <c r="C20" s="18" t="s">
         <v>44</v>
       </c>
-      <c r="D20" s="14"/>
-      <c r="E20" s="14" t="s">
+      <c r="D20" s="18"/>
+      <c r="E20" s="18" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="21" ht="24" customHeight="1" spans="1:5">
-      <c r="A21" s="15">
+      <c r="A21" s="19">
         <v>8.18</v>
       </c>
-      <c r="B21" s="14" t="s">
+      <c r="B21" s="18" t="s">
         <v>46</v>
       </c>
-      <c r="C21" s="14" t="s">
+      <c r="C21" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="D21" s="14" t="s">
+      <c r="D21" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="E21" s="14"/>
+      <c r="E21" s="18"/>
     </row>
     <row r="22" customHeight="1" spans="1:5">
-      <c r="A22" s="16"/>
-      <c r="B22" s="14" t="s">
+      <c r="A22" s="20"/>
+      <c r="B22" s="18" t="s">
         <v>47</v>
       </c>
-      <c r="C22" s="14" t="s">
+      <c r="C22" s="18" t="s">
         <v>48</v>
       </c>
-      <c r="D22" s="14" t="s">
+      <c r="D22" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="E22" s="14"/>
+      <c r="E22" s="18"/>
     </row>
     <row r="23" customHeight="1" spans="1:5">
-      <c r="A23" s="16"/>
-      <c r="B23" s="14" t="s">
+      <c r="A23" s="20"/>
+      <c r="B23" s="18" t="s">
         <v>30</v>
       </c>
-      <c r="C23" s="14" t="s">
+      <c r="C23" s="18" t="s">
         <v>31</v>
       </c>
-      <c r="D23" s="14" t="s">
+      <c r="D23" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="E23" s="14"/>
+      <c r="E23" s="18"/>
     </row>
     <row r="24" customHeight="1" spans="1:5">
-      <c r="A24" s="16"/>
-      <c r="B24" s="14" t="s">
+      <c r="A24" s="20"/>
+      <c r="B24" s="18" t="s">
         <v>49</v>
       </c>
-      <c r="C24" s="14" t="s">
+      <c r="C24" s="18" t="s">
         <v>50</v>
       </c>
-      <c r="D24" s="14" t="s">
+      <c r="D24" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="E24" s="14"/>
+      <c r="E24" s="18"/>
     </row>
     <row r="25" customHeight="1" spans="1:5">
-      <c r="A25" s="16"/>
-      <c r="B25" s="14" t="s">
+      <c r="A25" s="20"/>
+      <c r="B25" s="18" t="s">
         <v>51</v>
       </c>
-      <c r="C25" s="14" t="s">
+      <c r="C25" s="18" t="s">
         <v>52</v>
       </c>
-      <c r="D25" s="14" t="s">
+      <c r="D25" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="E25" s="14"/>
+      <c r="E25" s="18"/>
     </row>
     <row r="26" customHeight="1" spans="1:5">
-      <c r="A26" s="16"/>
-      <c r="B26" s="14" t="s">
+      <c r="A26" s="20"/>
+      <c r="B26" s="18" t="s">
         <v>53</v>
       </c>
-      <c r="C26" s="14" t="s">
+      <c r="C26" s="18" t="s">
         <v>54</v>
       </c>
-      <c r="D26" s="14" t="s">
+      <c r="D26" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="E26" s="14"/>
+      <c r="E26" s="18"/>
     </row>
     <row r="27" customHeight="1" spans="1:5">
-      <c r="A27" s="16"/>
-      <c r="B27" s="14" t="s">
+      <c r="A27" s="20"/>
+      <c r="B27" s="18" t="s">
         <v>43</v>
       </c>
-      <c r="C27" s="14" t="s">
+      <c r="C27" s="18" t="s">
         <v>55</v>
       </c>
-      <c r="D27" s="14" t="s">
+      <c r="D27" s="18" t="s">
         <v>56</v>
       </c>
-      <c r="E27" s="14"/>
+      <c r="E27" s="18"/>
     </row>
     <row r="28" customHeight="1" spans="1:5">
-      <c r="A28" s="16"/>
-      <c r="B28" s="14" t="s">
+      <c r="A28" s="20"/>
+      <c r="B28" s="18" t="s">
         <v>57</v>
       </c>
-      <c r="C28" s="14" t="s">
+      <c r="C28" s="18" t="s">
         <v>58</v>
       </c>
-      <c r="D28" s="14" t="s">
+      <c r="D28" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="E28" s="14"/>
+      <c r="E28" s="18"/>
     </row>
     <row r="29" customHeight="1" spans="1:5">
-      <c r="A29" s="16"/>
-      <c r="B29" s="14" t="s">
+      <c r="A29" s="20"/>
+      <c r="B29" s="18" t="s">
         <v>59</v>
       </c>
-      <c r="C29" s="14" t="s">
+      <c r="C29" s="18" t="s">
         <v>21</v>
       </c>
-      <c r="D29" s="14" t="s">
+      <c r="D29" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="E29" s="14"/>
+      <c r="E29" s="18"/>
     </row>
     <row r="30" customHeight="1" spans="1:5">
-      <c r="A30" s="17"/>
-      <c r="B30" s="14" t="s">
+      <c r="A30" s="21"/>
+      <c r="B30" s="18" t="s">
         <v>60</v>
       </c>
-      <c r="C30" s="14" t="s">
+      <c r="C30" s="18" t="s">
         <v>27</v>
       </c>
-      <c r="D30" s="14" t="s">
+      <c r="D30" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="E30" s="14"/>
+      <c r="E30" s="18"/>
     </row>
     <row r="31" customHeight="1" spans="1:5">
-      <c r="A31" s="13">
+      <c r="A31" s="17">
         <v>8.23</v>
       </c>
-      <c r="B31" s="14" t="s">
+      <c r="B31" s="18" t="s">
         <v>61</v>
       </c>
-      <c r="C31" s="14" t="s">
+      <c r="C31" s="18" t="s">
         <v>62</v>
       </c>
-      <c r="D31" s="14" t="s">
+      <c r="D31" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="E31" s="14"/>
+      <c r="E31" s="18"/>
     </row>
     <row r="32" customHeight="1" spans="1:5">
-      <c r="A32" s="13">
+      <c r="A32" s="17">
         <v>8.24</v>
       </c>
-      <c r="B32" s="14" t="s">
+      <c r="B32" s="18" t="s">
         <v>63</v>
       </c>
-      <c r="C32" s="14" t="s">
+      <c r="C32" s="18" t="s">
         <v>64</v>
       </c>
-      <c r="D32" s="14" t="s">
+      <c r="D32" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="E32" s="14"/>
+      <c r="E32" s="18"/>
     </row>
     <row r="33" customHeight="1" spans="1:5">
-      <c r="A33" s="15">
+      <c r="A33" s="19">
         <v>8.25</v>
       </c>
-      <c r="B33" s="14" t="s">
+      <c r="B33" s="18" t="s">
         <v>65</v>
       </c>
-      <c r="C33" s="14" t="s">
+      <c r="C33" s="18" t="s">
         <v>23</v>
       </c>
-      <c r="D33" s="14" t="s">
+      <c r="D33" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="E33" s="14"/>
+      <c r="E33" s="18"/>
     </row>
     <row r="34" customHeight="1" spans="1:5">
-      <c r="A34" s="16"/>
-      <c r="B34" s="14" t="s">
+      <c r="A34" s="20"/>
+      <c r="B34" s="18" t="s">
         <v>66</v>
       </c>
-      <c r="C34" s="14" t="s">
+      <c r="C34" s="18" t="s">
         <v>67</v>
       </c>
-      <c r="D34" s="14" t="s">
+      <c r="D34" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="E34" s="14"/>
+      <c r="E34" s="18"/>
     </row>
     <row r="35" customHeight="1" spans="1:5">
-      <c r="A35" s="16"/>
-      <c r="B35" s="14" t="s">
+      <c r="A35" s="20"/>
+      <c r="B35" s="18" t="s">
         <v>68</v>
       </c>
-      <c r="C35" s="14" t="s">
+      <c r="C35" s="18" t="s">
         <v>69</v>
       </c>
-      <c r="D35" s="14" t="s">
+      <c r="D35" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="E35" s="14"/>
+      <c r="E35" s="18"/>
     </row>
     <row r="36" customHeight="1" spans="1:5">
-      <c r="A36" s="16"/>
-      <c r="B36" s="14" t="s">
+      <c r="A36" s="20"/>
+      <c r="B36" s="18" t="s">
         <v>70</v>
       </c>
-      <c r="C36" s="14" t="s">
+      <c r="C36" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="D36" s="14" t="s">
+      <c r="D36" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="E36" s="14"/>
+      <c r="E36" s="18"/>
     </row>
     <row r="37" customHeight="1" spans="1:5">
-      <c r="A37" s="16"/>
-      <c r="B37" s="14" t="s">
+      <c r="A37" s="20"/>
+      <c r="B37" s="18" t="s">
         <v>71</v>
       </c>
-      <c r="C37" s="14" t="s">
+      <c r="C37" s="18" t="s">
         <v>72</v>
       </c>
-      <c r="D37" s="14" t="s">
+      <c r="D37" s="18" t="s">
         <v>73</v>
       </c>
-      <c r="E37" s="14"/>
+      <c r="E37" s="18"/>
     </row>
     <row r="38" customHeight="1" spans="1:5">
-      <c r="A38" s="17"/>
-      <c r="B38" s="14" t="s">
+      <c r="A38" s="21"/>
+      <c r="B38" s="18" t="s">
         <v>74</v>
       </c>
-      <c r="C38" s="14" t="s">
+      <c r="C38" s="18" t="s">
         <v>75</v>
       </c>
-      <c r="D38" s="14" t="s">
+      <c r="D38" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="E38" s="14"/>
+      <c r="E38" s="18"/>
     </row>
     <row r="39" customHeight="1" spans="1:5">
-      <c r="A39" s="15">
+      <c r="A39" s="19">
         <v>9.1</v>
       </c>
-      <c r="B39" s="14" t="s">
+      <c r="B39" s="18" t="s">
         <v>76</v>
       </c>
-      <c r="C39" s="14" t="s">
+      <c r="C39" s="18" t="s">
         <v>33</v>
       </c>
-      <c r="D39" s="14" t="s">
+      <c r="D39" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="E39" s="14"/>
+      <c r="E39" s="18"/>
     </row>
     <row r="40" customHeight="1" spans="1:5">
-      <c r="A40" s="16"/>
-      <c r="B40" s="14" t="s">
+      <c r="A40" s="20"/>
+      <c r="B40" s="18" t="s">
         <v>77</v>
       </c>
-      <c r="C40" s="14" t="s">
+      <c r="C40" s="18" t="s">
         <v>33</v>
       </c>
-      <c r="D40" s="14" t="s">
+      <c r="D40" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="E40" s="14"/>
+      <c r="E40" s="18"/>
     </row>
     <row r="41" customHeight="1" spans="1:5">
-      <c r="A41" s="16"/>
-      <c r="B41" s="14" t="s">
+      <c r="A41" s="20"/>
+      <c r="B41" s="18" t="s">
         <v>78</v>
       </c>
-      <c r="C41" s="14" t="s">
+      <c r="C41" s="18" t="s">
         <v>79</v>
       </c>
-      <c r="D41" s="14" t="s">
+      <c r="D41" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="E41" s="14"/>
+      <c r="E41" s="18"/>
     </row>
     <row r="42" customHeight="1" spans="1:5">
-      <c r="A42" s="16"/>
-      <c r="B42" s="14" t="s">
+      <c r="A42" s="20"/>
+      <c r="B42" s="18" t="s">
         <v>80</v>
       </c>
-      <c r="C42" s="14" t="s">
+      <c r="C42" s="18" t="s">
         <v>81</v>
       </c>
-      <c r="D42" s="14" t="s">
+      <c r="D42" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="E42" s="14"/>
+      <c r="E42" s="18"/>
     </row>
     <row r="43" customHeight="1" spans="1:5">
-      <c r="A43" s="16"/>
-      <c r="B43" s="14" t="s">
+      <c r="A43" s="20"/>
+      <c r="B43" s="18" t="s">
         <v>82</v>
       </c>
-      <c r="C43" s="14" t="s">
+      <c r="C43" s="18" t="s">
         <v>83</v>
       </c>
-      <c r="D43" s="14" t="s">
+      <c r="D43" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="E43" s="14"/>
+      <c r="E43" s="18"/>
     </row>
     <row r="44" customHeight="1" spans="1:5">
-      <c r="A44" s="16"/>
-      <c r="B44" s="14" t="s">
+      <c r="A44" s="20"/>
+      <c r="B44" s="18" t="s">
         <v>84</v>
       </c>
-      <c r="C44" s="14" t="s">
+      <c r="C44" s="18" t="s">
         <v>21</v>
       </c>
-      <c r="D44" s="14" t="s">
+      <c r="D44" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="E44" s="14"/>
+      <c r="E44" s="18"/>
     </row>
     <row r="45" customHeight="1" spans="1:5">
-      <c r="A45" s="16"/>
-      <c r="B45" s="14" t="s">
+      <c r="A45" s="20"/>
+      <c r="B45" s="18" t="s">
         <v>85</v>
       </c>
-      <c r="C45" s="14" t="s">
+      <c r="C45" s="18" t="s">
         <v>86</v>
       </c>
-      <c r="D45" s="14" t="s">
+      <c r="D45" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="E45" s="14"/>
+      <c r="E45" s="18"/>
     </row>
     <row r="46" customHeight="1" spans="1:5">
-      <c r="A46" s="16"/>
-      <c r="B46" s="14" t="s">
+      <c r="A46" s="20"/>
+      <c r="B46" s="18" t="s">
         <v>36</v>
       </c>
-      <c r="C46" s="14" t="s">
+      <c r="C46" s="18" t="s">
         <v>87</v>
       </c>
-      <c r="D46" s="14" t="s">
+      <c r="D46" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="E46" s="14"/>
+      <c r="E46" s="18"/>
     </row>
     <row r="47" customHeight="1" spans="1:5">
-      <c r="A47" s="17"/>
-      <c r="B47" s="14" t="s">
+      <c r="A47" s="21"/>
+      <c r="B47" s="18" t="s">
         <v>88</v>
       </c>
-      <c r="C47" s="14" t="s">
+      <c r="C47" s="18" t="s">
         <v>89</v>
       </c>
-      <c r="D47" s="14" t="s">
+      <c r="D47" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="E47" s="14"/>
+      <c r="E47" s="18"/>
     </row>
     <row r="48" customHeight="1" spans="1:5">
-      <c r="A48" s="15">
+      <c r="A48" s="19">
         <v>9.2</v>
       </c>
-      <c r="B48" s="14" t="s">
+      <c r="B48" s="18" t="s">
         <v>39</v>
       </c>
-      <c r="C48" s="14" t="s">
+      <c r="C48" s="18" t="s">
         <v>21</v>
       </c>
-      <c r="D48" s="14" t="s">
+      <c r="D48" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="E48" s="14"/>
+      <c r="E48" s="18"/>
     </row>
     <row r="49" customHeight="1" spans="1:5">
-      <c r="A49" s="16"/>
-      <c r="B49" s="14" t="s">
+      <c r="A49" s="20"/>
+      <c r="B49" s="18" t="s">
         <v>90</v>
       </c>
-      <c r="C49" s="14" t="s">
+      <c r="C49" s="18" t="s">
         <v>91</v>
       </c>
-      <c r="D49" s="14" t="s">
+      <c r="D49" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="E49" s="14"/>
+      <c r="E49" s="18"/>
     </row>
     <row r="50" customHeight="1" spans="1:5">
-      <c r="A50" s="16"/>
-      <c r="B50" s="14" t="s">
+      <c r="A50" s="20"/>
+      <c r="B50" s="18" t="s">
         <v>92</v>
       </c>
-      <c r="C50" s="14" t="s">
+      <c r="C50" s="18" t="s">
         <v>89</v>
       </c>
-      <c r="D50" s="14" t="s">
+      <c r="D50" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="E50" s="14"/>
+      <c r="E50" s="18"/>
     </row>
     <row r="51" customHeight="1" spans="1:5">
-      <c r="A51" s="16"/>
-      <c r="B51" s="14" t="s">
+      <c r="A51" s="20"/>
+      <c r="B51" s="18" t="s">
         <v>93</v>
       </c>
-      <c r="C51" s="14" t="s">
+      <c r="C51" s="18" t="s">
         <v>94</v>
       </c>
-      <c r="D51" s="14" t="s">
+      <c r="D51" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="E51" s="14"/>
+      <c r="E51" s="18"/>
     </row>
     <row r="52" customHeight="1" spans="1:5">
-      <c r="A52" s="16"/>
-      <c r="B52" s="14" t="s">
+      <c r="A52" s="20"/>
+      <c r="B52" s="18" t="s">
         <v>95</v>
       </c>
-      <c r="C52" s="14" t="s">
+      <c r="C52" s="18" t="s">
         <v>79</v>
       </c>
-      <c r="D52" s="14" t="s">
+      <c r="D52" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="E52" s="14"/>
+      <c r="E52" s="18"/>
     </row>
     <row r="53" customHeight="1" spans="1:5">
-      <c r="A53" s="16"/>
-      <c r="B53" s="14" t="s">
+      <c r="A53" s="20"/>
+      <c r="B53" s="18" t="s">
         <v>96</v>
       </c>
-      <c r="D53" s="14"/>
-      <c r="E53" s="14" t="s">
+      <c r="D53" s="18"/>
+      <c r="E53" s="18" t="s">
         <v>97</v>
       </c>
     </row>
     <row r="54" customHeight="1" spans="1:5">
-      <c r="A54" s="16"/>
-      <c r="B54" s="14" t="s">
+      <c r="A54" s="20"/>
+      <c r="B54" s="18" t="s">
         <v>98</v>
       </c>
-      <c r="C54" s="14" t="s">
+      <c r="C54" s="18" t="s">
         <v>79</v>
       </c>
-      <c r="D54" s="14" t="s">
+      <c r="D54" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="E54" s="14"/>
+      <c r="E54" s="18"/>
     </row>
     <row r="55" customHeight="1" spans="1:5">
-      <c r="A55" s="16"/>
-      <c r="B55" s="14" t="s">
+      <c r="A55" s="20"/>
+      <c r="B55" s="18" t="s">
         <v>99</v>
       </c>
-      <c r="C55" s="14" t="s">
+      <c r="C55" s="18" t="s">
         <v>100</v>
       </c>
-      <c r="D55" s="14" t="s">
+      <c r="D55" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="E55" s="14"/>
+      <c r="E55" s="18"/>
     </row>
     <row r="56" customHeight="1" spans="1:5">
-      <c r="A56" s="16"/>
-      <c r="B56" s="14" t="s">
+      <c r="A56" s="20"/>
+      <c r="B56" s="18" t="s">
         <v>101</v>
       </c>
-      <c r="C56" s="14" t="s">
+      <c r="C56" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="D56" s="14" t="s">
+      <c r="D56" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="E56" s="14"/>
+      <c r="E56" s="18"/>
     </row>
     <row r="57" customHeight="1" spans="1:5">
-      <c r="A57" s="17"/>
-      <c r="B57" s="14" t="s">
+      <c r="A57" s="21"/>
+      <c r="B57" s="18" t="s">
         <v>102</v>
       </c>
-      <c r="C57" s="14" t="s">
+      <c r="C57" s="18" t="s">
         <v>21</v>
       </c>
-      <c r="D57" s="14" t="s">
+      <c r="D57" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="E57" s="14"/>
+      <c r="E57" s="18"/>
     </row>
     <row r="58" customHeight="1" spans="1:5">
-      <c r="A58" s="15">
+      <c r="A58" s="19">
         <v>9.3</v>
       </c>
-      <c r="B58" s="14" t="s">
+      <c r="B58" s="18" t="s">
         <v>103</v>
       </c>
-      <c r="C58" s="14" t="s">
+      <c r="C58" s="18" t="s">
         <v>75</v>
       </c>
-      <c r="D58" s="14" t="s">
+      <c r="D58" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="E58" s="14"/>
+      <c r="E58" s="18"/>
     </row>
     <row r="59" customHeight="1" spans="1:5">
-      <c r="A59" s="16"/>
-      <c r="B59" s="14" t="s">
+      <c r="A59" s="20"/>
+      <c r="B59" s="18" t="s">
         <v>104</v>
       </c>
-      <c r="C59" s="14" t="s">
+      <c r="C59" s="18" t="s">
         <v>105</v>
       </c>
-      <c r="D59" s="14" t="s">
+      <c r="D59" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="E59" s="14"/>
+      <c r="E59" s="18"/>
     </row>
     <row r="60" customHeight="1" spans="1:5">
-      <c r="A60" s="17"/>
-      <c r="B60" s="14" t="s">
+      <c r="A60" s="21"/>
+      <c r="B60" s="18" t="s">
         <v>106</v>
       </c>
-      <c r="C60" s="14" t="s">
+      <c r="C60" s="18" t="s">
         <v>107</v>
       </c>
-      <c r="D60" s="14" t="s">
+      <c r="D60" s="18" t="s">
         <v>108</v>
       </c>
-      <c r="E60" s="14"/>
+      <c r="E60" s="18"/>
     </row>
     <row r="61" customHeight="1" spans="1:5">
-      <c r="A61" s="15">
+      <c r="A61" s="19">
         <v>9.23</v>
       </c>
-      <c r="B61" s="14" t="s">
+      <c r="B61" s="18" t="s">
         <v>109</v>
       </c>
-      <c r="C61" s="14" t="s">
+      <c r="C61" s="18" t="s">
         <v>33</v>
       </c>
-      <c r="D61" s="14" t="s">
+      <c r="D61" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="E61" s="14"/>
+      <c r="E61" s="18"/>
     </row>
     <row r="62" customHeight="1" spans="1:5">
-      <c r="A62" s="16"/>
-      <c r="B62" s="14" t="s">
+      <c r="A62" s="20"/>
+      <c r="B62" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="C62" s="14" t="s">
+      <c r="C62" s="18" t="s">
         <v>110</v>
       </c>
-      <c r="D62" s="14" t="s">
+      <c r="D62" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="E62" s="14"/>
+      <c r="E62" s="18"/>
     </row>
     <row r="63" customHeight="1" spans="1:5">
-      <c r="A63" s="16"/>
-      <c r="B63" s="14" t="s">
+      <c r="A63" s="20"/>
+      <c r="B63" s="18" t="s">
         <v>111</v>
       </c>
-      <c r="C63" s="14" t="s">
+      <c r="C63" s="18" t="s">
         <v>72</v>
       </c>
-      <c r="D63" s="14" t="s">
+      <c r="D63" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="E63" s="14"/>
+      <c r="E63" s="18"/>
     </row>
     <row r="64" customHeight="1" spans="1:5">
-      <c r="A64" s="16"/>
-      <c r="B64" s="14" t="s">
+      <c r="A64" s="20"/>
+      <c r="B64" s="18" t="s">
         <v>61</v>
       </c>
-      <c r="C64" s="14" t="s">
+      <c r="C64" s="18" t="s">
         <v>112</v>
       </c>
-      <c r="D64" s="14" t="s">
+      <c r="D64" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="E64" s="14"/>
+      <c r="E64" s="18"/>
     </row>
     <row r="65" customHeight="1" spans="1:5">
-      <c r="A65" s="17"/>
-      <c r="B65" s="14" t="s">
+      <c r="A65" s="21"/>
+      <c r="B65" s="18" t="s">
         <v>113</v>
       </c>
-      <c r="C65" s="14" t="s">
+      <c r="C65" s="18" t="s">
         <v>89</v>
       </c>
-      <c r="D65" s="14" t="s">
+      <c r="D65" s="18" t="s">
         <v>114</v>
       </c>
-      <c r="E65" s="14"/>
+      <c r="E65" s="18"/>
     </row>
     <row r="66" customHeight="1" spans="1:5">
-      <c r="A66" s="15">
+      <c r="A66" s="19">
         <v>9.24</v>
       </c>
-      <c r="B66" s="14" t="s">
+      <c r="B66" s="18" t="s">
         <v>115</v>
       </c>
-      <c r="C66" s="14" t="s">
+      <c r="C66" s="18" t="s">
         <v>116</v>
       </c>
-      <c r="D66" s="14" t="s">
+      <c r="D66" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="E66" s="14"/>
+      <c r="E66" s="18"/>
     </row>
     <row r="67" customHeight="1" spans="1:5">
-      <c r="A67" s="16"/>
-      <c r="B67" s="14" t="s">
+      <c r="A67" s="20"/>
+      <c r="B67" s="18" t="s">
         <v>117</v>
       </c>
-      <c r="C67" s="14" t="s">
+      <c r="C67" s="18" t="s">
         <v>118</v>
       </c>
-      <c r="D67" s="14" t="s">
+      <c r="D67" s="18" t="s">
         <v>114</v>
       </c>
-      <c r="E67" s="14"/>
+      <c r="E67" s="18"/>
     </row>
     <row r="68" customHeight="1" spans="1:5">
-      <c r="A68" s="16"/>
-      <c r="B68" s="14" t="s">
+      <c r="A68" s="20"/>
+      <c r="B68" s="18" t="s">
         <v>119</v>
       </c>
-      <c r="C68" s="14" t="s">
+      <c r="C68" s="18" t="s">
         <v>120</v>
       </c>
-      <c r="D68" s="14" t="s">
+      <c r="D68" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="E68" s="14"/>
+      <c r="E68" s="18"/>
     </row>
     <row r="69" customHeight="1" spans="1:5">
-      <c r="A69" s="16"/>
-      <c r="B69" s="14" t="s">
+      <c r="A69" s="20"/>
+      <c r="B69" s="18" t="s">
         <v>121</v>
       </c>
-      <c r="C69" s="14" t="s">
+      <c r="C69" s="18" t="s">
         <v>122</v>
       </c>
-      <c r="D69" s="14" t="s">
+      <c r="D69" s="18" t="s">
         <v>123</v>
       </c>
-      <c r="E69" s="14"/>
+      <c r="E69" s="18"/>
     </row>
     <row r="70" customHeight="1" spans="1:5">
-      <c r="A70" s="16"/>
-      <c r="B70" s="14" t="s">
+      <c r="A70" s="20"/>
+      <c r="B70" s="18" t="s">
         <v>124</v>
       </c>
-      <c r="C70" s="14" t="s">
+      <c r="C70" s="18" t="s">
         <v>120</v>
       </c>
-      <c r="D70" s="14" t="s">
+      <c r="D70" s="18" t="s">
         <v>125</v>
       </c>
-      <c r="E70" s="14"/>
+      <c r="E70" s="18"/>
     </row>
     <row r="71" customHeight="1" spans="1:5">
-      <c r="A71" s="16"/>
-      <c r="B71" s="14" t="s">
+      <c r="A71" s="20"/>
+      <c r="B71" s="18" t="s">
         <v>126</v>
       </c>
-      <c r="C71" s="14" t="s">
+      <c r="C71" s="18" t="s">
         <v>62</v>
       </c>
-      <c r="D71" s="14" t="s">
+      <c r="D71" s="18" t="s">
         <v>125</v>
       </c>
-      <c r="E71" s="14"/>
+      <c r="E71" s="18"/>
     </row>
     <row r="72" customHeight="1" spans="1:5">
-      <c r="A72" s="17"/>
-      <c r="B72" s="14" t="s">
+      <c r="A72" s="21"/>
+      <c r="B72" s="18" t="s">
         <v>127</v>
       </c>
-      <c r="C72" s="14" t="s">
+      <c r="C72" s="18" t="s">
         <v>128</v>
       </c>
-      <c r="D72" s="14" t="s">
+      <c r="D72" s="18" t="s">
         <v>125</v>
       </c>
-      <c r="E72" s="14"/>
+      <c r="E72" s="18"/>
     </row>
     <row r="73" customHeight="1" spans="1:5">
-      <c r="A73" s="15">
+      <c r="A73" s="19">
         <v>9.26</v>
       </c>
-      <c r="B73" s="14" t="s">
+      <c r="B73" s="18" t="s">
         <v>129</v>
       </c>
-      <c r="C73" s="14" t="s">
+      <c r="C73" s="18" t="s">
         <v>130</v>
       </c>
-      <c r="D73" s="14" t="s">
+      <c r="D73" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="E73" s="14"/>
+      <c r="E73" s="18"/>
     </row>
     <row r="74" customHeight="1" spans="1:5">
-      <c r="A74" s="16"/>
-      <c r="B74" s="14" t="s">
+      <c r="A74" s="20"/>
+      <c r="B74" s="18" t="s">
         <v>131</v>
       </c>
-      <c r="C74" s="14" t="s">
+      <c r="C74" s="18" t="s">
         <v>132</v>
       </c>
-      <c r="D74" s="14" t="s">
+      <c r="D74" s="18" t="s">
         <v>133</v>
       </c>
-      <c r="E74" s="14"/>
+      <c r="E74" s="18"/>
     </row>
     <row r="75" customHeight="1" spans="1:5">
-      <c r="A75" s="17"/>
-      <c r="B75" s="14" t="s">
+      <c r="A75" s="21"/>
+      <c r="B75" s="18" t="s">
         <v>134</v>
       </c>
-      <c r="C75" s="14"/>
-      <c r="D75" s="14" t="s">
+      <c r="C75" s="18"/>
+      <c r="D75" s="18" t="s">
         <v>125</v>
       </c>
-      <c r="E75" s="14"/>
+      <c r="E75" s="18"/>
     </row>
     <row r="76" customHeight="1" spans="1:5">
-      <c r="A76" s="15">
+      <c r="A76" s="19">
         <v>9.27</v>
       </c>
-      <c r="B76" s="14" t="s">
+      <c r="B76" s="18" t="s">
         <v>135</v>
       </c>
-      <c r="C76" s="14" t="s">
+      <c r="C76" s="18" t="s">
         <v>23</v>
       </c>
-      <c r="D76" s="14" t="s">
+      <c r="D76" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="E76" s="14"/>
+      <c r="E76" s="18"/>
     </row>
     <row r="77" customHeight="1" spans="1:5">
-      <c r="A77" s="16"/>
-      <c r="B77" s="14" t="s">
+      <c r="A77" s="20"/>
+      <c r="B77" s="18" t="s">
         <v>136</v>
       </c>
-      <c r="C77" s="14" t="s">
+      <c r="C77" s="18" t="s">
         <v>64</v>
       </c>
-      <c r="D77" s="14" t="s">
+      <c r="D77" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="E77" s="14"/>
+      <c r="E77" s="18"/>
     </row>
     <row r="78" customHeight="1" spans="1:5">
-      <c r="A78" s="17"/>
-      <c r="B78" s="14" t="s">
+      <c r="A78" s="21"/>
+      <c r="B78" s="18" t="s">
         <v>109</v>
       </c>
-      <c r="C78" s="14" t="s">
+      <c r="C78" s="18" t="s">
         <v>33</v>
       </c>
-      <c r="D78" s="14" t="s">
+      <c r="D78" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="E78" s="14"/>
+      <c r="E78" s="18"/>
     </row>
     <row r="79" customHeight="1" spans="1:5">
-      <c r="A79" s="15">
+      <c r="A79" s="19">
         <v>10.13</v>
       </c>
-      <c r="B79" s="14" t="s">
+      <c r="B79" s="18" t="s">
         <v>137</v>
       </c>
-      <c r="C79" s="14" t="s">
+      <c r="C79" s="18" t="s">
         <v>23</v>
       </c>
-      <c r="D79" s="14"/>
-      <c r="E79" s="14"/>
+      <c r="D79" s="18"/>
+      <c r="E79" s="18"/>
     </row>
     <row r="80" customHeight="1" spans="1:5">
-      <c r="A80" s="17"/>
-      <c r="B80" s="14" t="s">
+      <c r="A80" s="21"/>
+      <c r="B80" s="18" t="s">
         <v>78</v>
       </c>
-      <c r="C80" s="14" t="s">
+      <c r="C80" s="18" t="s">
         <v>79</v>
       </c>
-      <c r="D80" s="14"/>
-      <c r="E80" s="14"/>
+      <c r="D80" s="18"/>
+      <c r="E80" s="18"/>
     </row>
     <row r="81" customHeight="1" spans="1:5">
-      <c r="A81" s="14"/>
-      <c r="B81" s="14"/>
-      <c r="C81" s="14"/>
-      <c r="D81" s="14"/>
-      <c r="E81" s="14"/>
+      <c r="A81" s="18"/>
+      <c r="B81" s="18"/>
+      <c r="C81" s="18"/>
+      <c r="D81" s="18"/>
+      <c r="E81" s="18"/>
     </row>
     <row r="82" customHeight="1" spans="1:5">
-      <c r="A82" s="14"/>
-      <c r="B82" s="14"/>
-      <c r="C82" s="14"/>
-      <c r="D82" s="14"/>
-      <c r="E82" s="14"/>
+      <c r="A82" s="18"/>
+      <c r="B82" s="18"/>
+      <c r="C82" s="18"/>
+      <c r="D82" s="18"/>
+      <c r="E82" s="18"/>
     </row>
     <row r="83" customHeight="1" spans="1:5">
-      <c r="A83" s="14"/>
-      <c r="B83" s="14"/>
-      <c r="C83" s="14"/>
-      <c r="D83" s="14"/>
-      <c r="E83" s="14"/>
+      <c r="A83" s="18"/>
+      <c r="B83" s="18"/>
+      <c r="C83" s="18"/>
+      <c r="D83" s="18"/>
+      <c r="E83" s="18"/>
     </row>
     <row r="84" customHeight="1" spans="1:5">
-      <c r="A84" s="14"/>
-      <c r="B84" s="14"/>
-      <c r="C84" s="14"/>
-      <c r="D84" s="14"/>
-      <c r="E84" s="14"/>
+      <c r="A84" s="18"/>
+      <c r="B84" s="18"/>
+      <c r="C84" s="18"/>
+      <c r="D84" s="18"/>
+      <c r="E84" s="18"/>
     </row>
     <row r="85" customHeight="1" spans="1:5">
-      <c r="A85" s="14"/>
-      <c r="B85" s="14"/>
-      <c r="C85" s="14"/>
-      <c r="D85" s="14"/>
-      <c r="E85" s="14"/>
+      <c r="A85" s="18"/>
+      <c r="B85" s="18"/>
+      <c r="C85" s="18"/>
+      <c r="D85" s="18"/>
+      <c r="E85" s="18"/>
     </row>
     <row r="86" customHeight="1" spans="1:5">
-      <c r="A86" s="14"/>
-      <c r="B86" s="14"/>
-      <c r="C86" s="14"/>
-      <c r="D86" s="14"/>
-      <c r="E86" s="14"/>
+      <c r="A86" s="18"/>
+      <c r="B86" s="18"/>
+      <c r="C86" s="18"/>
+      <c r="D86" s="18"/>
+      <c r="E86" s="18"/>
     </row>
     <row r="87" customHeight="1" spans="1:5">
-      <c r="A87" s="14"/>
-      <c r="B87" s="14"/>
-      <c r="C87" s="14"/>
-      <c r="D87" s="14"/>
-      <c r="E87" s="14"/>
+      <c r="A87" s="18"/>
+      <c r="B87" s="18"/>
+      <c r="C87" s="18"/>
+      <c r="D87" s="18"/>
+      <c r="E87" s="18"/>
     </row>
     <row r="88" customHeight="1" spans="1:5">
-      <c r="A88" s="14"/>
-      <c r="B88" s="14"/>
-      <c r="C88" s="14"/>
-      <c r="D88" s="14"/>
-      <c r="E88" s="14"/>
+      <c r="A88" s="18"/>
+      <c r="B88" s="18"/>
+      <c r="C88" s="18"/>
+      <c r="D88" s="18"/>
+      <c r="E88" s="18"/>
     </row>
     <row r="89" customHeight="1" spans="1:5">
-      <c r="A89" s="14"/>
-      <c r="B89" s="14"/>
-      <c r="C89" s="14"/>
-      <c r="D89" s="14"/>
-      <c r="E89" s="14"/>
+      <c r="A89" s="18"/>
+      <c r="B89" s="18"/>
+      <c r="C89" s="18"/>
+      <c r="D89" s="18"/>
+      <c r="E89" s="18"/>
     </row>
     <row r="90" customHeight="1" spans="1:5">
-      <c r="A90" s="14"/>
-      <c r="B90" s="14"/>
-      <c r="C90" s="14"/>
-      <c r="D90" s="14"/>
-      <c r="E90" s="14"/>
+      <c r="A90" s="18"/>
+      <c r="B90" s="18"/>
+      <c r="C90" s="18"/>
+      <c r="D90" s="18"/>
+      <c r="E90" s="18"/>
     </row>
     <row r="91" customHeight="1" spans="1:5">
-      <c r="A91" s="14"/>
-      <c r="B91" s="14"/>
-      <c r="C91" s="14"/>
-      <c r="D91" s="14"/>
-      <c r="E91" s="14"/>
+      <c r="A91" s="18"/>
+      <c r="B91" s="18"/>
+      <c r="C91" s="18"/>
+      <c r="D91" s="18"/>
+      <c r="E91" s="18"/>
     </row>
     <row r="92" customHeight="1" spans="1:5">
-      <c r="A92" s="14"/>
-      <c r="B92" s="14"/>
-      <c r="C92" s="14"/>
-      <c r="D92" s="14"/>
-      <c r="E92" s="14"/>
+      <c r="A92" s="18"/>
+      <c r="B92" s="18"/>
+      <c r="C92" s="18"/>
+      <c r="D92" s="18"/>
+      <c r="E92" s="18"/>
     </row>
     <row r="93" customHeight="1" spans="1:5">
-      <c r="A93" s="14"/>
-      <c r="B93" s="14"/>
-      <c r="C93" s="14"/>
-      <c r="D93" s="14"/>
-      <c r="E93" s="14"/>
+      <c r="A93" s="18"/>
+      <c r="B93" s="18"/>
+      <c r="C93" s="18"/>
+      <c r="D93" s="18"/>
+      <c r="E93" s="18"/>
     </row>
     <row r="94" customHeight="1" spans="1:5">
-      <c r="A94" s="14"/>
-      <c r="B94" s="14"/>
-      <c r="C94" s="14"/>
-      <c r="D94" s="14"/>
-      <c r="E94" s="14"/>
+      <c r="A94" s="18"/>
+      <c r="B94" s="18"/>
+      <c r="C94" s="18"/>
+      <c r="D94" s="18"/>
+      <c r="E94" s="18"/>
     </row>
     <row r="95" customHeight="1" spans="1:5">
-      <c r="A95" s="14"/>
-      <c r="B95" s="14"/>
-      <c r="C95" s="14"/>
-      <c r="D95" s="14"/>
-      <c r="E95" s="14"/>
+      <c r="A95" s="18"/>
+      <c r="B95" s="18"/>
+      <c r="C95" s="18"/>
+      <c r="D95" s="18"/>
+      <c r="E95" s="18"/>
     </row>
     <row r="96" customHeight="1" spans="1:5">
-      <c r="A96" s="14"/>
-      <c r="B96" s="14"/>
-      <c r="C96" s="14"/>
-      <c r="D96" s="14"/>
-      <c r="E96" s="14"/>
+      <c r="A96" s="18"/>
+      <c r="B96" s="18"/>
+      <c r="C96" s="18"/>
+      <c r="D96" s="18"/>
+      <c r="E96" s="18"/>
     </row>
     <row r="97" customHeight="1" spans="1:5">
-      <c r="A97" s="14"/>
-      <c r="B97" s="14"/>
-      <c r="C97" s="14"/>
-      <c r="D97" s="14"/>
-      <c r="E97" s="14"/>
+      <c r="A97" s="18"/>
+      <c r="B97" s="18"/>
+      <c r="C97" s="18"/>
+      <c r="D97" s="18"/>
+      <c r="E97" s="18"/>
     </row>
     <row r="98" customHeight="1" spans="1:5">
-      <c r="A98" s="14"/>
-      <c r="B98" s="14"/>
-      <c r="C98" s="14"/>
-      <c r="D98" s="14"/>
-      <c r="E98" s="14"/>
+      <c r="A98" s="18"/>
+      <c r="B98" s="18"/>
+      <c r="C98" s="18"/>
+      <c r="D98" s="18"/>
+      <c r="E98" s="18"/>
     </row>
     <row r="99" customHeight="1" spans="1:5">
-      <c r="A99" s="14"/>
-      <c r="B99" s="14"/>
-      <c r="C99" s="14"/>
-      <c r="D99" s="14"/>
-      <c r="E99" s="14"/>
+      <c r="A99" s="18"/>
+      <c r="B99" s="18"/>
+      <c r="C99" s="18"/>
+      <c r="D99" s="18"/>
+      <c r="E99" s="18"/>
     </row>
   </sheetData>
   <mergeCells count="13">
@@ -2942,15 +3014,15 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F35"/>
+  <dimension ref="A1:F44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="B28" sqref="B28"/>
+    <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
+      <selection activeCell="E42" sqref="E42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
   <cols>
-    <col min="1" max="1" width="15.5" style="2" customWidth="1"/>
+    <col min="1" max="1" width="15.5" style="3" customWidth="1"/>
     <col min="2" max="2" width="31.375" customWidth="1"/>
     <col min="3" max="4" width="13.25" customWidth="1"/>
     <col min="5" max="5" width="32.75" customWidth="1"/>
@@ -2958,605 +3030,773 @@
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="1" ht="16" customHeight="1" spans="1:6">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="5" t="s">
         <v>138</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="E1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="F1" s="5" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="2" ht="18" customHeight="1" spans="1:6">
-      <c r="A2" s="5">
+      <c r="A2" s="6">
         <v>2.14</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="B2" s="7" t="s">
         <v>139</v>
       </c>
-      <c r="C2" s="6" t="s">
+      <c r="C2" s="7" t="s">
         <v>140</v>
       </c>
-      <c r="D2" s="6" t="s">
+      <c r="D2" s="7" t="s">
         <v>141</v>
       </c>
-      <c r="E2" s="6" t="s">
+      <c r="E2" s="7" t="s">
         <v>142</v>
       </c>
-      <c r="F2" s="6"/>
+      <c r="F2" s="7"/>
     </row>
     <row r="3" ht="18" customHeight="1" spans="1:6">
-      <c r="A3" s="5">
+      <c r="A3" s="6">
         <v>2.15</v>
       </c>
-      <c r="B3" s="6" t="s">
+      <c r="B3" s="7" t="s">
         <v>143</v>
       </c>
-      <c r="C3" s="6" t="s">
+      <c r="C3" s="7" t="s">
         <v>140</v>
       </c>
-      <c r="D3" s="6" t="s">
+      <c r="D3" s="7" t="s">
         <v>89</v>
       </c>
-      <c r="E3" s="6" t="s">
+      <c r="E3" s="7" t="s">
         <v>144</v>
       </c>
-      <c r="F3" s="6"/>
+      <c r="F3" s="7"/>
     </row>
     <row r="4" ht="18" customHeight="1" spans="1:6">
-      <c r="A4" s="5">
+      <c r="A4" s="6">
         <v>2.16</v>
       </c>
-      <c r="B4" s="6" t="s">
+      <c r="B4" s="7" t="s">
         <v>145</v>
       </c>
-      <c r="C4" s="6" t="s">
+      <c r="C4" s="7" t="s">
         <v>140</v>
       </c>
-      <c r="D4" s="6" t="s">
+      <c r="D4" s="7" t="s">
         <v>91</v>
       </c>
-      <c r="E4" s="6" t="s">
+      <c r="E4" s="7" t="s">
         <v>142</v>
       </c>
-      <c r="F4" s="6"/>
+      <c r="F4" s="7"/>
     </row>
     <row r="5" ht="18" customHeight="1" spans="1:6">
-      <c r="A5" s="5">
+      <c r="A5" s="6">
         <v>2.17</v>
       </c>
-      <c r="B5" s="6" t="s">
+      <c r="B5" s="7" t="s">
         <v>146</v>
       </c>
-      <c r="C5" s="6" t="s">
+      <c r="C5" s="7" t="s">
         <v>140</v>
       </c>
-      <c r="D5" s="6" t="s">
+      <c r="D5" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="E5" s="6" t="s">
+      <c r="E5" s="7" t="s">
         <v>147</v>
       </c>
-      <c r="F5" s="6"/>
+      <c r="F5" s="7"/>
     </row>
     <row r="6" ht="18" customHeight="1" spans="1:6">
-      <c r="A6" s="5">
+      <c r="A6" s="6">
         <v>2.25</v>
       </c>
-      <c r="B6" s="6" t="s">
+      <c r="B6" s="7" t="s">
         <v>148</v>
       </c>
-      <c r="C6" s="6" t="s">
+      <c r="C6" s="7" t="s">
         <v>140</v>
       </c>
-      <c r="D6" s="6" t="s">
+      <c r="D6" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="E6" s="6" t="s">
+      <c r="E6" s="7" t="s">
         <v>142</v>
       </c>
-      <c r="F6" s="6"/>
+      <c r="F6" s="7"/>
     </row>
     <row r="7" ht="18" customHeight="1" spans="1:6">
-      <c r="A7" s="5">
+      <c r="A7" s="6">
         <v>2.25</v>
       </c>
-      <c r="B7" s="6" t="s">
+      <c r="B7" s="7" t="s">
         <v>136</v>
       </c>
-      <c r="C7" s="6" t="s">
+      <c r="C7" s="7" t="s">
         <v>140</v>
       </c>
-      <c r="D7" s="6" t="s">
+      <c r="D7" s="7" t="s">
         <v>149</v>
       </c>
-      <c r="E7" s="6" t="s">
+      <c r="E7" s="7" t="s">
         <v>144</v>
       </c>
-      <c r="F7" s="6"/>
+      <c r="F7" s="7"/>
     </row>
     <row r="8" ht="18" customHeight="1" spans="1:6">
-      <c r="A8" s="5">
+      <c r="A8" s="6">
         <v>2.25</v>
       </c>
-      <c r="B8" s="6" t="s">
+      <c r="B8" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="C8" s="6" t="s">
+      <c r="C8" s="7" t="s">
         <v>140</v>
       </c>
-      <c r="D8" s="6" t="s">
+      <c r="D8" s="7" t="s">
         <v>150</v>
       </c>
-      <c r="E8" s="6" t="s">
+      <c r="E8" s="7" t="s">
         <v>144</v>
       </c>
-      <c r="F8" s="6"/>
+      <c r="F8" s="7"/>
     </row>
     <row r="9" ht="18" customHeight="1" spans="1:6">
-      <c r="A9" s="5">
+      <c r="A9" s="6">
         <v>3.14</v>
       </c>
-      <c r="B9" s="6" t="s">
+      <c r="B9" s="7" t="s">
         <v>151</v>
       </c>
-      <c r="C9" s="6" t="s">
+      <c r="C9" s="7" t="s">
         <v>152</v>
       </c>
-      <c r="D9" s="6" t="s">
+      <c r="D9" s="7" t="s">
         <v>153</v>
       </c>
-      <c r="E9" s="6" t="s">
+      <c r="E9" s="7" t="s">
         <v>154</v>
       </c>
-      <c r="F9" s="6"/>
+      <c r="F9" s="7"/>
     </row>
     <row r="10" ht="18" customHeight="1" spans="1:6">
-      <c r="A10" s="5">
+      <c r="A10" s="6">
         <v>3.4</v>
       </c>
-      <c r="B10" s="6" t="s">
+      <c r="B10" s="7" t="s">
         <v>155</v>
       </c>
-      <c r="C10" s="7" t="s">
+      <c r="C10" s="8" t="s">
         <v>152</v>
       </c>
-      <c r="D10" s="6" t="s">
+      <c r="D10" s="7" t="s">
         <v>156</v>
       </c>
-      <c r="E10" s="6" t="s">
+      <c r="E10" s="7" t="s">
         <v>142</v>
       </c>
-      <c r="F10" s="6"/>
+      <c r="F10" s="7"/>
     </row>
     <row r="11" ht="18" customHeight="1" spans="1:6">
-      <c r="A11" s="5">
+      <c r="A11" s="6">
         <v>3.4</v>
       </c>
-      <c r="B11" s="6" t="s">
+      <c r="B11" s="7" t="s">
         <v>157</v>
       </c>
-      <c r="C11" s="7" t="s">
+      <c r="C11" s="8" t="s">
         <v>152</v>
       </c>
-      <c r="D11" s="6" t="s">
+      <c r="D11" s="7" t="s">
         <v>158</v>
       </c>
-      <c r="E11" s="6" t="s">
+      <c r="E11" s="7" t="s">
         <v>159</v>
       </c>
-      <c r="F11" s="6"/>
+      <c r="F11" s="7"/>
     </row>
     <row r="12" ht="18" customHeight="1" spans="1:6">
-      <c r="A12" s="5">
+      <c r="A12" s="6">
         <v>3.7</v>
       </c>
-      <c r="B12" s="6" t="s">
+      <c r="B12" s="7" t="s">
         <v>160</v>
       </c>
-      <c r="C12" s="6" t="s">
+      <c r="C12" s="7" t="s">
         <v>140</v>
       </c>
-      <c r="D12" s="6" t="s">
+      <c r="D12" s="7" t="s">
         <v>161</v>
       </c>
-      <c r="E12" s="6" t="s">
+      <c r="E12" s="7" t="s">
         <v>144</v>
       </c>
-      <c r="F12" s="6"/>
+      <c r="F12" s="7"/>
     </row>
     <row r="13" ht="18" customHeight="1" spans="1:6">
-      <c r="A13" s="5">
+      <c r="A13" s="6">
         <v>3.7</v>
       </c>
-      <c r="B13" s="6" t="s">
+      <c r="B13" s="7" t="s">
         <v>162</v>
       </c>
-      <c r="C13" s="6" t="s">
+      <c r="C13" s="7" t="s">
         <v>140</v>
       </c>
-      <c r="D13" s="6" t="s">
+      <c r="D13" s="7" t="s">
         <v>163</v>
       </c>
-      <c r="E13" s="6" t="s">
+      <c r="E13" s="7" t="s">
         <v>144</v>
       </c>
-      <c r="F13" s="6"/>
+      <c r="F13" s="7"/>
     </row>
     <row r="14" ht="18" customHeight="1" spans="1:6">
-      <c r="A14" s="5">
+      <c r="A14" s="6">
         <v>3.7</v>
       </c>
-      <c r="B14" s="6" t="s">
+      <c r="B14" s="7" t="s">
         <v>164</v>
       </c>
-      <c r="C14" s="7" t="s">
+      <c r="C14" s="8" t="s">
         <v>152</v>
       </c>
-      <c r="D14" s="6" t="s">
+      <c r="D14" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="E14" s="6" t="s">
+      <c r="E14" s="7" t="s">
         <v>144</v>
       </c>
-      <c r="F14" s="6"/>
+      <c r="F14" s="7"/>
     </row>
     <row r="15" ht="18" customHeight="1" spans="1:6">
-      <c r="A15" s="5">
+      <c r="A15" s="6">
         <v>3.8</v>
       </c>
-      <c r="B15" s="6" t="s">
+      <c r="B15" s="7" t="s">
         <v>165</v>
       </c>
-      <c r="C15" s="6" t="s">
+      <c r="C15" s="7" t="s">
         <v>140</v>
       </c>
-      <c r="D15" s="6" t="s">
+      <c r="D15" s="7" t="s">
         <v>166</v>
       </c>
-      <c r="E15" s="8" t="s">
+      <c r="E15" s="9" t="s">
         <v>167</v>
       </c>
-      <c r="F15" s="6"/>
+      <c r="F15" s="7"/>
     </row>
     <row r="16" ht="18" customHeight="1" spans="1:6">
-      <c r="A16" s="5">
+      <c r="A16" s="6">
         <v>3.8</v>
       </c>
-      <c r="B16" s="6" t="s">
+      <c r="B16" s="7" t="s">
         <v>168</v>
       </c>
-      <c r="C16" s="6" t="s">
+      <c r="C16" s="7" t="s">
         <v>140</v>
       </c>
-      <c r="D16" s="6" t="s">
+      <c r="D16" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="E16" s="6" t="s">
+      <c r="E16" s="7" t="s">
         <v>142</v>
       </c>
-      <c r="F16" s="6"/>
+      <c r="F16" s="7"/>
     </row>
     <row r="17" ht="18" customHeight="1" spans="1:6">
-      <c r="A17" s="5">
+      <c r="A17" s="6">
         <v>3.8</v>
       </c>
-      <c r="B17" s="6" t="s">
+      <c r="B17" s="7" t="s">
         <v>77</v>
       </c>
-      <c r="C17" s="6" t="s">
+      <c r="C17" s="7" t="s">
         <v>140</v>
       </c>
-      <c r="D17" s="6" t="s">
+      <c r="D17" s="7" t="s">
         <v>79</v>
       </c>
-      <c r="E17" s="6" t="s">
+      <c r="E17" s="7" t="s">
         <v>144</v>
       </c>
-      <c r="F17" s="6"/>
+      <c r="F17" s="7"/>
     </row>
     <row r="18" ht="18" customHeight="1" spans="1:6">
-      <c r="A18" s="5">
+      <c r="A18" s="6">
         <v>3.8</v>
       </c>
-      <c r="B18" s="6" t="s">
+      <c r="B18" s="7" t="s">
         <v>169</v>
       </c>
-      <c r="C18" s="7" t="s">
+      <c r="C18" s="8" t="s">
         <v>152</v>
       </c>
-      <c r="D18" s="6" t="s">
+      <c r="D18" s="7" t="s">
         <v>170</v>
       </c>
-      <c r="E18" s="6" t="s">
+      <c r="E18" s="7" t="s">
         <v>144</v>
       </c>
-      <c r="F18" s="6"/>
+      <c r="F18" s="7"/>
     </row>
     <row r="19" ht="18" customHeight="1" spans="1:6">
-      <c r="A19" s="5">
+      <c r="A19" s="6">
         <v>3.14</v>
       </c>
-      <c r="B19" s="6" t="s">
+      <c r="B19" s="7" t="s">
         <v>151</v>
       </c>
-      <c r="C19" s="7" t="s">
+      <c r="C19" s="8" t="s">
         <v>152</v>
       </c>
-      <c r="D19" s="6" t="s">
+      <c r="D19" s="7" t="s">
         <v>153</v>
       </c>
-      <c r="E19" s="6" t="s">
+      <c r="E19" s="7" t="s">
         <v>154</v>
       </c>
-      <c r="F19" s="6"/>
+      <c r="F19" s="7"/>
     </row>
     <row r="20" ht="18" customHeight="1" spans="1:6">
-      <c r="A20" s="5">
+      <c r="A20" s="6">
         <v>3.14</v>
       </c>
-      <c r="B20" s="6" t="s">
+      <c r="B20" s="7" t="s">
         <v>171</v>
       </c>
-      <c r="C20" s="7" t="s">
+      <c r="C20" s="8" t="s">
         <v>152</v>
       </c>
-      <c r="D20" s="6" t="s">
+      <c r="D20" s="7" t="s">
         <v>172</v>
       </c>
-      <c r="E20" s="6" t="s">
+      <c r="E20" s="7" t="s">
         <v>144</v>
       </c>
-      <c r="F20" s="6"/>
+      <c r="F20" s="7"/>
     </row>
     <row r="21" ht="18" customHeight="1" spans="1:6">
-      <c r="A21" s="5">
+      <c r="A21" s="6">
         <v>3.16</v>
       </c>
-      <c r="B21" s="6" t="s">
+      <c r="B21" s="7" t="s">
         <v>173</v>
       </c>
-      <c r="C21" s="7" t="s">
+      <c r="C21" s="8" t="s">
         <v>152</v>
       </c>
-      <c r="D21" s="6" t="s">
+      <c r="D21" s="7" t="s">
         <v>174</v>
       </c>
-      <c r="E21" s="6" t="s">
+      <c r="E21" s="7" t="s">
         <v>142</v>
       </c>
-      <c r="F21" s="6"/>
+      <c r="F21" s="7"/>
     </row>
     <row r="22" ht="18" customHeight="1" spans="1:6">
-      <c r="A22" s="5">
+      <c r="A22" s="10">
         <v>3.16</v>
       </c>
-      <c r="B22" s="6" t="s">
+      <c r="B22" s="11" t="s">
         <v>175</v>
       </c>
-      <c r="C22" s="7" t="s">
+      <c r="C22" s="12" t="s">
         <v>152</v>
       </c>
-      <c r="D22" s="6" t="s">
+      <c r="D22" s="11" t="s">
         <v>176</v>
       </c>
-      <c r="E22" s="6" t="s">
+      <c r="E22" s="11" t="s">
         <v>177</v>
       </c>
-      <c r="F22" s="6"/>
-    </row>
-    <row r="23" ht="18" customHeight="1" spans="1:6">
-      <c r="A23" s="5">
+      <c r="F22" s="11"/>
+    </row>
+    <row r="23" s="2" customFormat="1" ht="18" customHeight="1" spans="1:6">
+      <c r="A23" s="6">
         <v>3.16</v>
       </c>
-      <c r="B23" s="6" t="s">
+      <c r="B23" s="7" t="s">
         <v>178</v>
       </c>
-      <c r="C23" s="7" t="s">
+      <c r="C23" s="8" t="s">
         <v>152</v>
       </c>
-      <c r="D23" s="6" t="s">
+      <c r="D23" s="7" t="s">
         <v>179</v>
       </c>
-      <c r="E23" s="6" t="s">
+      <c r="E23" s="7" t="s">
         <v>142</v>
       </c>
-      <c r="F23" s="6"/>
-    </row>
-    <row r="24" ht="18" customHeight="1" spans="1:6">
-      <c r="A24" s="5">
+      <c r="F23" s="7"/>
+    </row>
+    <row r="24" s="2" customFormat="1" ht="18" customHeight="1" spans="1:6">
+      <c r="A24" s="6">
         <v>3.15</v>
       </c>
-      <c r="B24" s="6" t="s">
+      <c r="B24" s="7" t="s">
         <v>180</v>
       </c>
-      <c r="C24" s="7" t="s">
+      <c r="C24" s="8" t="s">
         <v>152</v>
       </c>
-      <c r="D24" s="9" t="s">
+      <c r="D24" s="13" t="s">
         <v>181</v>
       </c>
-      <c r="E24" s="6" t="s">
+      <c r="E24" s="7" t="s">
         <v>144</v>
       </c>
-      <c r="F24" s="6"/>
-    </row>
-    <row r="25" ht="18" customHeight="1" spans="1:6">
-      <c r="A25" s="5">
+      <c r="F24" s="7"/>
+    </row>
+    <row r="25" s="2" customFormat="1" ht="18" customHeight="1" spans="1:6">
+      <c r="A25" s="6">
         <v>3.16</v>
       </c>
-      <c r="B25" s="6" t="s">
+      <c r="B25" s="7" t="s">
         <v>182</v>
       </c>
-      <c r="C25" s="7" t="s">
+      <c r="C25" s="8" t="s">
         <v>152</v>
       </c>
-      <c r="D25" s="6" t="s">
+      <c r="D25" s="7" t="s">
         <v>183</v>
       </c>
-      <c r="E25" s="6" t="s">
+      <c r="E25" s="7" t="s">
         <v>184</v>
       </c>
-      <c r="F25" s="6"/>
-    </row>
-    <row r="26" ht="18" customHeight="1" spans="1:6">
-      <c r="A26" s="5">
+      <c r="F25" s="7"/>
+    </row>
+    <row r="26" s="2" customFormat="1" ht="18" customHeight="1" spans="1:6">
+      <c r="A26" s="6">
         <v>3.17</v>
       </c>
-      <c r="B26" s="6" t="s">
+      <c r="B26" s="7" t="s">
         <v>185</v>
       </c>
-      <c r="C26" s="7" t="s">
+      <c r="C26" s="8" t="s">
         <v>152</v>
       </c>
-      <c r="D26" s="6" t="s">
+      <c r="D26" s="7" t="s">
         <v>170</v>
       </c>
-      <c r="E26" s="6" t="s">
+      <c r="E26" s="7" t="s">
         <v>142</v>
       </c>
-      <c r="F26" s="6"/>
-    </row>
-    <row r="27" ht="18" customHeight="1" spans="1:6">
-      <c r="A27" s="5">
+      <c r="F26" s="7"/>
+    </row>
+    <row r="27" s="2" customFormat="1" ht="18" customHeight="1" spans="1:6">
+      <c r="A27" s="6">
         <v>3.17</v>
       </c>
-      <c r="B27" s="6" t="s">
+      <c r="B27" s="7" t="s">
         <v>175</v>
       </c>
-      <c r="C27" s="7" t="s">
+      <c r="C27" s="8" t="s">
         <v>152</v>
       </c>
-      <c r="D27" s="6" t="s">
+      <c r="D27" s="7" t="s">
         <v>186</v>
       </c>
-      <c r="E27" s="6" t="s">
+      <c r="E27" s="7" t="s">
         <v>142</v>
       </c>
-      <c r="F27" s="6"/>
-    </row>
-    <row r="28" ht="18" customHeight="1" spans="1:6">
-      <c r="A28" s="5">
+      <c r="F27" s="7"/>
+    </row>
+    <row r="28" s="2" customFormat="1" ht="18" customHeight="1" spans="1:6">
+      <c r="A28" s="6">
         <v>3.17</v>
       </c>
-      <c r="B28" s="6" t="s">
+      <c r="B28" s="7" t="s">
         <v>187</v>
       </c>
-      <c r="C28" s="7" t="s">
+      <c r="C28" s="8" t="s">
         <v>152</v>
       </c>
-      <c r="D28" s="6" t="s">
+      <c r="D28" s="7" t="s">
         <v>188</v>
       </c>
-      <c r="E28" s="6" t="s">
+      <c r="E28" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="F28" s="7"/>
+    </row>
+    <row r="29" s="2" customFormat="1" ht="18" customHeight="1" spans="1:6">
+      <c r="A29" s="6">
+        <v>3.17</v>
+      </c>
+      <c r="B29" s="7" t="s">
+        <v>190</v>
+      </c>
+      <c r="C29" s="8" t="s">
+        <v>152</v>
+      </c>
+      <c r="D29" s="7" t="s">
+        <v>191</v>
+      </c>
+      <c r="E29" s="7" t="s">
+        <v>192</v>
+      </c>
+      <c r="F29" s="7"/>
+    </row>
+    <row r="30" s="2" customFormat="1" ht="18" customHeight="1" spans="1:6">
+      <c r="A30" s="6">
+        <v>3.17</v>
+      </c>
+      <c r="B30" s="7" t="s">
+        <v>169</v>
+      </c>
+      <c r="C30" s="8" t="s">
+        <v>152</v>
+      </c>
+      <c r="D30" s="7" t="s">
+        <v>170</v>
+      </c>
+      <c r="E30" s="7" t="s">
+        <v>193</v>
+      </c>
+      <c r="F30" s="7"/>
+    </row>
+    <row r="31" s="2" customFormat="1" ht="18" customHeight="1" spans="1:6">
+      <c r="A31" s="6">
+        <v>3.17</v>
+      </c>
+      <c r="B31" s="7" t="s">
+        <v>194</v>
+      </c>
+      <c r="C31" s="8" t="s">
+        <v>152</v>
+      </c>
+      <c r="D31" s="7" t="s">
+        <v>195</v>
+      </c>
+      <c r="E31" s="7" t="s">
+        <v>196</v>
+      </c>
+      <c r="F31" s="7"/>
+    </row>
+    <row r="32" s="2" customFormat="1" ht="18" customHeight="1" spans="1:6">
+      <c r="A32" s="6">
+        <v>3.18</v>
+      </c>
+      <c r="B32" s="7" t="s">
+        <v>197</v>
+      </c>
+      <c r="C32" s="8" t="s">
+        <v>152</v>
+      </c>
+      <c r="D32" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="E32" s="7" t="s">
+        <v>192</v>
+      </c>
+      <c r="F32" s="7"/>
+    </row>
+    <row r="33" s="2" customFormat="1" spans="1:6">
+      <c r="A33" s="6">
+        <v>3.22</v>
+      </c>
+      <c r="B33" s="7" t="s">
+        <v>198</v>
+      </c>
+      <c r="C33" s="8" t="s">
+        <v>152</v>
+      </c>
+      <c r="D33" s="13" t="s">
+        <v>156</v>
+      </c>
+      <c r="E33" s="7" t="s">
+        <v>199</v>
+      </c>
+      <c r="F33" s="7"/>
+    </row>
+    <row r="34" s="2" customFormat="1" spans="1:6">
+      <c r="A34" s="6">
+        <v>3.22</v>
+      </c>
+      <c r="B34" s="7" t="s">
+        <v>200</v>
+      </c>
+      <c r="C34" s="8" t="s">
+        <v>152</v>
+      </c>
+      <c r="D34" s="7" t="s">
+        <v>201</v>
+      </c>
+      <c r="E34" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="F34" s="7"/>
+    </row>
+    <row r="35" s="2" customFormat="1" spans="1:5">
+      <c r="A35" s="6">
+        <v>3.24</v>
+      </c>
+      <c r="B35" s="7" t="s">
+        <v>202</v>
+      </c>
+      <c r="C35" s="8" t="s">
+        <v>152</v>
+      </c>
+      <c r="D35" s="7" t="s">
+        <v>203</v>
+      </c>
+      <c r="E35" s="7" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="36" s="2" customFormat="1" spans="1:5">
+      <c r="A36" s="14">
+        <v>3.24</v>
+      </c>
+      <c r="B36" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="C36" s="8" t="s">
+        <v>152</v>
+      </c>
+      <c r="D36" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="E36" s="2" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="37" s="2" customFormat="1" spans="1:5">
+      <c r="A37" s="14">
+        <v>3.24</v>
+      </c>
+      <c r="B37" s="2" t="s">
+        <v>205</v>
+      </c>
+      <c r="C37" s="8" t="s">
+        <v>152</v>
+      </c>
+      <c r="D37" s="15" t="s">
+        <v>206</v>
+      </c>
+      <c r="E37" s="2" t="s">
         <v>142</v>
       </c>
-      <c r="F28" s="6"/>
-    </row>
-    <row r="29" ht="18" customHeight="1" spans="1:6">
-      <c r="A29" s="5">
-        <v>3.17</v>
-      </c>
-      <c r="B29" s="6" t="s">
-        <v>189</v>
-      </c>
-      <c r="C29" s="7" t="s">
+    </row>
+    <row r="38" s="2" customFormat="1" spans="1:5">
+      <c r="A38" s="14">
+        <v>3.24</v>
+      </c>
+      <c r="B38" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="C38" s="8" t="s">
         <v>152</v>
       </c>
-      <c r="D29" s="6" t="s">
-        <v>190</v>
-      </c>
-      <c r="E29" s="6" t="s">
-        <v>191</v>
-      </c>
-      <c r="F29" s="6"/>
-    </row>
-    <row r="30" ht="18" customHeight="1" spans="1:6">
-      <c r="A30" s="5">
-        <v>3.17</v>
-      </c>
-      <c r="B30" s="6" t="s">
-        <v>169</v>
-      </c>
-      <c r="C30" s="7" t="s">
+      <c r="D38" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="E38" s="2" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="39" s="2" customFormat="1" spans="1:5">
+      <c r="A39" s="14">
+        <v>3.24</v>
+      </c>
+      <c r="B39" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="C39" s="8" t="s">
         <v>152</v>
       </c>
-      <c r="D30" s="6" t="s">
-        <v>170</v>
-      </c>
-      <c r="E30" s="6" t="s">
-        <v>192</v>
-      </c>
-      <c r="F30" s="6"/>
-    </row>
-    <row r="31" ht="18" customHeight="1" spans="1:6">
-      <c r="A31" s="5">
-        <v>3.17</v>
-      </c>
-      <c r="B31" s="6" t="s">
-        <v>193</v>
-      </c>
-      <c r="C31" s="7" t="s">
+      <c r="D39" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="E39" s="2" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="40" s="2" customFormat="1" spans="1:4">
+      <c r="A40" s="14">
+        <v>3.28</v>
+      </c>
+      <c r="B40" s="2" t="s">
+        <v>209</v>
+      </c>
+      <c r="C40" s="8" t="s">
         <v>152</v>
       </c>
-      <c r="D31" s="6" t="s">
-        <v>194</v>
-      </c>
-      <c r="E31" s="6" t="s">
-        <v>195</v>
-      </c>
-      <c r="F31" s="6"/>
-    </row>
-    <row r="32" ht="18" customHeight="1" spans="1:6">
-      <c r="A32" s="5">
-        <v>3.18</v>
-      </c>
-      <c r="B32" s="6" t="s">
-        <v>196</v>
-      </c>
-      <c r="C32" s="7" t="s">
+      <c r="D40" s="2" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="41" s="2" customFormat="1" spans="1:4">
+      <c r="A41" s="14">
+        <v>3.28</v>
+      </c>
+      <c r="B41" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="C41" s="8" t="s">
         <v>152</v>
       </c>
-      <c r="D32" s="6" t="s">
-        <v>153</v>
-      </c>
-      <c r="E32" s="6" t="s">
-        <v>191</v>
-      </c>
-      <c r="F32" s="6"/>
-    </row>
-    <row r="33" spans="1:6">
-      <c r="A33" s="5"/>
-      <c r="B33" s="6"/>
-      <c r="C33" s="6"/>
-      <c r="D33" s="6"/>
-      <c r="E33" s="6"/>
-      <c r="F33" s="6"/>
-    </row>
-    <row r="34" spans="1:6">
-      <c r="A34" s="5"/>
-      <c r="B34" s="6"/>
-      <c r="C34" s="6"/>
-      <c r="D34" s="6"/>
-      <c r="E34" s="6"/>
-      <c r="F34" s="6"/>
-    </row>
-    <row r="35" spans="1:5">
-      <c r="A35" s="10"/>
-      <c r="B35" s="11"/>
-      <c r="C35" s="11"/>
-      <c r="D35" s="11"/>
-      <c r="E35" s="11"/>
+      <c r="D41" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="42" s="2" customFormat="1" spans="1:4">
+      <c r="A42" s="14">
+        <v>3.28</v>
+      </c>
+      <c r="B42" s="2" t="s">
+        <v>211</v>
+      </c>
+      <c r="C42" s="8" t="s">
+        <v>152</v>
+      </c>
+      <c r="D42" s="2" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="43" s="2" customFormat="1" spans="1:4">
+      <c r="A43" s="14">
+        <v>3.28</v>
+      </c>
+      <c r="B43" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="C43" s="8" t="s">
+        <v>152</v>
+      </c>
+      <c r="D43" s="2" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="44" s="2" customFormat="1" spans="1:4">
+      <c r="A44" s="14">
+        <v>3.28</v>
+      </c>
+      <c r="B44" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="C44" s="8" t="s">
+        <v>152</v>
+      </c>
+      <c r="D44" s="2" t="s">
+        <v>216</v>
+      </c>
     </row>
   </sheetData>
   <autoFilter ref="C1:C35">

--- a/OverView/interview.xlsx
+++ b/OverView/interview.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="18525" windowHeight="11790" activeTab="1"/>
+    <workbookView windowWidth="14220" windowHeight="12000" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -12,14 +12,14 @@
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Sheet2!$C$1:$C$35</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Sheet2!$C$1:$C$44</definedName>
   </definedNames>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="411" uniqueCount="217">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="239">
   <si>
     <t>时间</t>
   </si>
@@ -670,6 +670,72 @@
   </si>
   <si>
     <t>20-40 14</t>
+  </si>
+  <si>
+    <t>易宝软件</t>
+  </si>
+  <si>
+    <t>3.30</t>
+  </si>
+  <si>
+    <t>海顿中科</t>
+  </si>
+  <si>
+    <t>15-20</t>
+  </si>
+  <si>
+    <t>辰安天泽</t>
+  </si>
+  <si>
+    <t>12-20 15</t>
+  </si>
+  <si>
+    <t>令才科技</t>
+  </si>
+  <si>
+    <t>13-20 13</t>
+  </si>
+  <si>
+    <t>需要出差</t>
+  </si>
+  <si>
+    <t>逢月文化</t>
+  </si>
+  <si>
+    <t>11-20 13</t>
+  </si>
+  <si>
+    <t>外包，已拒绝</t>
+  </si>
+  <si>
+    <t>科大国创云网</t>
+  </si>
+  <si>
+    <t>青谷信息</t>
+  </si>
+  <si>
+    <t>15-20 14</t>
+  </si>
+  <si>
+    <t>科大讯飞(核心研发平台)</t>
+  </si>
+  <si>
+    <t>德科 华为</t>
+  </si>
+  <si>
+    <t>无合肥岗位</t>
+  </si>
+  <si>
+    <t>美的冰箱事业部</t>
+  </si>
+  <si>
+    <t>11-22 14</t>
+  </si>
+  <si>
+    <t>粒度智能科技</t>
+  </si>
+  <si>
+    <t>18-27 13</t>
   </si>
 </sst>
 </file>
@@ -707,7 +773,36 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -722,52 +817,7 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -784,28 +834,46 @@
     <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -820,23 +888,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -845,6 +897,20 @@
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -865,7 +931,61 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -877,31 +997,97 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -913,61 +1099,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -979,73 +1111,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1111,6 +1177,30 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -1136,21 +1226,6 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
@@ -1167,29 +1242,11 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
       <bottom style="double">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1208,161 +1265,173 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="31" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="26" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="19" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="32" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
@@ -1380,32 +1449,32 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="58" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="58" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
@@ -1428,54 +1497,54 @@
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="1" builtinId="52"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="2" builtinId="42"/>
+    <cellStyle name="强调文字颜色 4" xfId="3" builtinId="41"/>
+    <cellStyle name="输入" xfId="4" builtinId="20"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="5" builtinId="39"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="6" builtinId="38"/>
+    <cellStyle name="货币" xfId="7" builtinId="4"/>
+    <cellStyle name="强调文字颜色 3" xfId="8" builtinId="37"/>
+    <cellStyle name="百分比" xfId="9" builtinId="5"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="10" builtinId="36"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="11" builtinId="48"/>
+    <cellStyle name="强调文字颜色 2" xfId="12" builtinId="33"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="13" builtinId="32"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="14" builtinId="44"/>
+    <cellStyle name="计算" xfId="15" builtinId="22"/>
+    <cellStyle name="强调文字颜色 1" xfId="16" builtinId="29"/>
+    <cellStyle name="适中" xfId="17" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="18" builtinId="46"/>
+    <cellStyle name="好" xfId="19" builtinId="26"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="20" builtinId="30"/>
+    <cellStyle name="汇总" xfId="21" builtinId="25"/>
+    <cellStyle name="差" xfId="22" builtinId="27"/>
+    <cellStyle name="检查单元格" xfId="23" builtinId="23"/>
     <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="标题 1" xfId="25" builtinId="16"/>
+    <cellStyle name="解释性文本" xfId="26" builtinId="53"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="27" builtinId="34"/>
+    <cellStyle name="标题 4" xfId="28" builtinId="19"/>
+    <cellStyle name="货币[0]" xfId="29" builtinId="7"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="30" builtinId="43"/>
+    <cellStyle name="千位分隔" xfId="31" builtinId="3"/>
+    <cellStyle name="已访问的超链接" xfId="32" builtinId="9"/>
+    <cellStyle name="标题" xfId="33" builtinId="15"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="34" builtinId="35"/>
+    <cellStyle name="警告文本" xfId="35" builtinId="11"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
+    <cellStyle name="注释" xfId="37" builtinId="10"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="38" builtinId="50"/>
+    <cellStyle name="强调文字颜色 5" xfId="39" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="40" builtinId="51"/>
+    <cellStyle name="超链接" xfId="41" builtinId="8"/>
+    <cellStyle name="千位分隔[0]" xfId="42" builtinId="6"/>
+    <cellStyle name="标题 2" xfId="43" builtinId="17"/>
     <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="标题 3" xfId="45" builtinId="18"/>
     <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="47" builtinId="31"/>
+    <cellStyle name="链接单元格" xfId="48" builtinId="24"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -1771,7 +1840,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
   <dimension ref="A1:E99"/>
   <sheetViews>
@@ -1783,1211 +1852,1211 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16" customHeight="1" outlineLevelCol="4"/>
   <cols>
-    <col min="1" max="1" width="9" style="16"/>
-    <col min="2" max="2" width="49.75" style="16" customWidth="1"/>
-    <col min="3" max="3" width="26.25" style="16" customWidth="1"/>
-    <col min="4" max="4" width="20.25" style="16" customWidth="1"/>
-    <col min="5" max="5" width="22.5" style="16" customWidth="1"/>
-    <col min="6" max="16384" width="9" style="16"/>
+    <col min="1" max="1" width="9" style="17"/>
+    <col min="2" max="2" width="49.75" style="17" customWidth="1"/>
+    <col min="3" max="3" width="26.25" style="17" customWidth="1"/>
+    <col min="4" max="4" width="20.25" style="17" customWidth="1"/>
+    <col min="5" max="5" width="22.5" style="17" customWidth="1"/>
+    <col min="6" max="16384" width="9" style="17"/>
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="1" customHeight="1" spans="1:5">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="C1" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="D1" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="E1" s="6" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="2" customHeight="1" spans="1:5">
-      <c r="A2" s="17">
+      <c r="A2" s="18">
         <v>8.13</v>
       </c>
-      <c r="B2" s="18" t="s">
+      <c r="B2" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="18" t="s">
+      <c r="C2" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="18"/>
-      <c r="E2" s="18" t="s">
+      <c r="D2" s="19"/>
+      <c r="E2" s="19" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="3" customHeight="1" spans="1:5">
-      <c r="A3" s="17"/>
-      <c r="B3" s="18" t="s">
+      <c r="A3" s="18"/>
+      <c r="B3" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="18" t="s">
+      <c r="C3" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="D3" s="18" t="s">
+      <c r="D3" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="E3" s="18"/>
+      <c r="E3" s="19"/>
     </row>
     <row r="4" customHeight="1" spans="1:5">
-      <c r="A4" s="17"/>
-      <c r="B4" s="18" t="s">
+      <c r="A4" s="18"/>
+      <c r="B4" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="C4" s="18" t="s">
+      <c r="C4" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="D4" s="18" t="s">
+      <c r="D4" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="E4" s="18"/>
+      <c r="E4" s="19"/>
     </row>
     <row r="5" customHeight="1" spans="1:5">
-      <c r="A5" s="17"/>
-      <c r="B5" s="18" t="s">
+      <c r="A5" s="18"/>
+      <c r="B5" s="19" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="18" t="s">
+      <c r="C5" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="D5" s="18" t="s">
+      <c r="D5" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="E5" s="18"/>
+      <c r="E5" s="19"/>
     </row>
     <row r="6" customHeight="1" spans="1:5">
-      <c r="A6" s="17">
+      <c r="A6" s="18">
         <v>8.16</v>
       </c>
-      <c r="B6" s="18" t="s">
+      <c r="B6" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="C6" s="18" t="s">
+      <c r="C6" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="D6" s="18"/>
-      <c r="E6" s="18" t="s">
+      <c r="D6" s="19"/>
+      <c r="E6" s="19" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="7" customHeight="1" spans="1:5">
-      <c r="A7" s="17"/>
-      <c r="B7" s="18" t="s">
+      <c r="A7" s="18"/>
+      <c r="B7" s="19" t="s">
         <v>18</v>
       </c>
-      <c r="C7" s="18" t="s">
+      <c r="C7" s="19" t="s">
         <v>19</v>
       </c>
-      <c r="D7" s="18" t="s">
+      <c r="D7" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="E7" s="18"/>
+      <c r="E7" s="19"/>
     </row>
     <row r="8" customHeight="1" spans="1:5">
-      <c r="A8" s="17"/>
-      <c r="B8" s="18" t="s">
+      <c r="A8" s="18"/>
+      <c r="B8" s="19" t="s">
         <v>20</v>
       </c>
-      <c r="C8" s="18" t="s">
+      <c r="C8" s="19" t="s">
         <v>21</v>
       </c>
-      <c r="D8" s="18" t="s">
+      <c r="D8" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="E8" s="18"/>
+      <c r="E8" s="19"/>
     </row>
     <row r="9" customHeight="1" spans="1:5">
-      <c r="A9" s="17"/>
-      <c r="B9" s="18" t="s">
+      <c r="A9" s="18"/>
+      <c r="B9" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="C9" s="18" t="s">
+      <c r="C9" s="19" t="s">
         <v>23</v>
       </c>
-      <c r="D9" s="18" t="s">
+      <c r="D9" s="19" t="s">
         <v>24</v>
       </c>
-      <c r="E9" s="18"/>
+      <c r="E9" s="19"/>
     </row>
     <row r="10" customHeight="1" spans="1:5">
-      <c r="A10" s="17"/>
-      <c r="B10" s="18" t="s">
+      <c r="A10" s="18"/>
+      <c r="B10" s="19" t="s">
         <v>25</v>
       </c>
-      <c r="C10" s="18" t="s">
+      <c r="C10" s="19" t="s">
         <v>23</v>
       </c>
-      <c r="D10" s="18" t="s">
+      <c r="D10" s="19" t="s">
         <v>24</v>
       </c>
-      <c r="E10" s="18"/>
+      <c r="E10" s="19"/>
     </row>
     <row r="11" customHeight="1" spans="1:5">
-      <c r="A11" s="17">
+      <c r="A11" s="18">
         <v>8.17</v>
       </c>
-      <c r="B11" s="18" t="s">
+      <c r="B11" s="19" t="s">
         <v>26</v>
       </c>
-      <c r="C11" s="18" t="s">
+      <c r="C11" s="19" t="s">
         <v>27</v>
       </c>
-      <c r="D11" s="18" t="s">
+      <c r="D11" s="19" t="s">
         <v>24</v>
       </c>
-      <c r="E11" s="18"/>
+      <c r="E11" s="19"/>
     </row>
     <row r="12" customHeight="1" spans="1:5">
-      <c r="A12" s="17"/>
-      <c r="B12" s="18" t="s">
+      <c r="A12" s="18"/>
+      <c r="B12" s="19" t="s">
         <v>28</v>
       </c>
-      <c r="C12" s="18" t="s">
+      <c r="C12" s="19" t="s">
         <v>29</v>
       </c>
-      <c r="D12" s="18" t="s">
+      <c r="D12" s="19" t="s">
         <v>24</v>
       </c>
-      <c r="E12" s="18"/>
+      <c r="E12" s="19"/>
     </row>
     <row r="13" customHeight="1" spans="1:5">
-      <c r="A13" s="17"/>
-      <c r="B13" s="18" t="s">
+      <c r="A13" s="18"/>
+      <c r="B13" s="19" t="s">
         <v>30</v>
       </c>
-      <c r="C13" s="18" t="s">
+      <c r="C13" s="19" t="s">
         <v>31</v>
       </c>
-      <c r="D13" s="18" t="s">
+      <c r="D13" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="E13" s="18"/>
+      <c r="E13" s="19"/>
     </row>
     <row r="14" customHeight="1" spans="1:5">
-      <c r="A14" s="17"/>
-      <c r="B14" s="18" t="s">
+      <c r="A14" s="18"/>
+      <c r="B14" s="19" t="s">
         <v>32</v>
       </c>
-      <c r="C14" s="18" t="s">
+      <c r="C14" s="19" t="s">
         <v>33</v>
       </c>
-      <c r="D14" s="18" t="s">
+      <c r="D14" s="19" t="s">
         <v>24</v>
       </c>
-      <c r="E14" s="18"/>
+      <c r="E14" s="19"/>
     </row>
     <row r="15" customHeight="1" spans="1:5">
-      <c r="A15" s="17"/>
-      <c r="B15" s="18" t="s">
+      <c r="A15" s="18"/>
+      <c r="B15" s="19" t="s">
         <v>34</v>
       </c>
-      <c r="C15" s="18" t="s">
+      <c r="C15" s="19" t="s">
         <v>35</v>
       </c>
-      <c r="D15" s="18" t="s">
+      <c r="D15" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="E15" s="18"/>
+      <c r="E15" s="19"/>
     </row>
     <row r="16" customHeight="1" spans="1:5">
-      <c r="A16" s="17"/>
-      <c r="B16" s="18" t="s">
+      <c r="A16" s="18"/>
+      <c r="B16" s="19" t="s">
         <v>36</v>
       </c>
-      <c r="C16" s="18" t="s">
+      <c r="C16" s="19" t="s">
         <v>37</v>
       </c>
-      <c r="D16" s="18" t="s">
+      <c r="D16" s="19" t="s">
         <v>24</v>
       </c>
-      <c r="E16" s="18"/>
+      <c r="E16" s="19"/>
     </row>
     <row r="17" customHeight="1" spans="1:5">
-      <c r="A17" s="17"/>
-      <c r="B17" s="18" t="s">
+      <c r="A17" s="18"/>
+      <c r="B17" s="19" t="s">
         <v>38</v>
       </c>
-      <c r="C17" s="18" t="s">
+      <c r="C17" s="19" t="s">
         <v>35</v>
       </c>
-      <c r="D17" s="18" t="s">
+      <c r="D17" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="E17" s="18"/>
+      <c r="E17" s="19"/>
     </row>
     <row r="18" customHeight="1" spans="1:5">
-      <c r="A18" s="17"/>
-      <c r="B18" s="18" t="s">
+      <c r="A18" s="18"/>
+      <c r="B18" s="19" t="s">
         <v>39</v>
       </c>
-      <c r="C18" s="18" t="s">
+      <c r="C18" s="19" t="s">
         <v>40</v>
       </c>
-      <c r="D18" s="18" t="s">
+      <c r="D18" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="E18" s="18"/>
+      <c r="E18" s="19"/>
     </row>
     <row r="19" customHeight="1" spans="1:5">
-      <c r="A19" s="17"/>
-      <c r="B19" s="18" t="s">
+      <c r="A19" s="18"/>
+      <c r="B19" s="19" t="s">
         <v>41</v>
       </c>
-      <c r="C19" s="18" t="s">
+      <c r="C19" s="19" t="s">
         <v>42</v>
       </c>
-      <c r="D19" s="18" t="s">
+      <c r="D19" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="E19" s="18"/>
+      <c r="E19" s="19"/>
     </row>
     <row r="20" customHeight="1" spans="1:5">
-      <c r="A20" s="17"/>
-      <c r="B20" s="18" t="s">
+      <c r="A20" s="18"/>
+      <c r="B20" s="19" t="s">
         <v>43</v>
       </c>
-      <c r="C20" s="18" t="s">
+      <c r="C20" s="19" t="s">
         <v>44</v>
       </c>
-      <c r="D20" s="18"/>
-      <c r="E20" s="18" t="s">
+      <c r="D20" s="19"/>
+      <c r="E20" s="19" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="21" ht="24" customHeight="1" spans="1:5">
-      <c r="A21" s="19">
+      <c r="A21" s="20">
         <v>8.18</v>
       </c>
-      <c r="B21" s="18" t="s">
+      <c r="B21" s="19" t="s">
         <v>46</v>
       </c>
-      <c r="C21" s="18" t="s">
+      <c r="C21" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="D21" s="18" t="s">
+      <c r="D21" s="19" t="s">
         <v>24</v>
       </c>
-      <c r="E21" s="18"/>
+      <c r="E21" s="19"/>
     </row>
     <row r="22" customHeight="1" spans="1:5">
-      <c r="A22" s="20"/>
-      <c r="B22" s="18" t="s">
+      <c r="A22" s="21"/>
+      <c r="B22" s="19" t="s">
         <v>47</v>
       </c>
-      <c r="C22" s="18" t="s">
+      <c r="C22" s="19" t="s">
         <v>48</v>
       </c>
-      <c r="D22" s="18" t="s">
+      <c r="D22" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="E22" s="18"/>
+      <c r="E22" s="19"/>
     </row>
     <row r="23" customHeight="1" spans="1:5">
-      <c r="A23" s="20"/>
-      <c r="B23" s="18" t="s">
+      <c r="A23" s="21"/>
+      <c r="B23" s="19" t="s">
         <v>30</v>
       </c>
-      <c r="C23" s="18" t="s">
+      <c r="C23" s="19" t="s">
         <v>31</v>
       </c>
-      <c r="D23" s="18" t="s">
+      <c r="D23" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="E23" s="18"/>
+      <c r="E23" s="19"/>
     </row>
     <row r="24" customHeight="1" spans="1:5">
-      <c r="A24" s="20"/>
-      <c r="B24" s="18" t="s">
+      <c r="A24" s="21"/>
+      <c r="B24" s="19" t="s">
         <v>49</v>
       </c>
-      <c r="C24" s="18" t="s">
+      <c r="C24" s="19" t="s">
         <v>50</v>
       </c>
-      <c r="D24" s="18" t="s">
+      <c r="D24" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="E24" s="18"/>
+      <c r="E24" s="19"/>
     </row>
     <row r="25" customHeight="1" spans="1:5">
-      <c r="A25" s="20"/>
-      <c r="B25" s="18" t="s">
+      <c r="A25" s="21"/>
+      <c r="B25" s="19" t="s">
         <v>51</v>
       </c>
-      <c r="C25" s="18" t="s">
+      <c r="C25" s="19" t="s">
         <v>52</v>
       </c>
-      <c r="D25" s="18" t="s">
+      <c r="D25" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="E25" s="18"/>
+      <c r="E25" s="19"/>
     </row>
     <row r="26" customHeight="1" spans="1:5">
-      <c r="A26" s="20"/>
-      <c r="B26" s="18" t="s">
+      <c r="A26" s="21"/>
+      <c r="B26" s="19" t="s">
         <v>53</v>
       </c>
-      <c r="C26" s="18" t="s">
+      <c r="C26" s="19" t="s">
         <v>54</v>
       </c>
-      <c r="D26" s="18" t="s">
+      <c r="D26" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="E26" s="18"/>
+      <c r="E26" s="19"/>
     </row>
     <row r="27" customHeight="1" spans="1:5">
-      <c r="A27" s="20"/>
-      <c r="B27" s="18" t="s">
+      <c r="A27" s="21"/>
+      <c r="B27" s="19" t="s">
         <v>43</v>
       </c>
-      <c r="C27" s="18" t="s">
+      <c r="C27" s="19" t="s">
         <v>55</v>
       </c>
-      <c r="D27" s="18" t="s">
+      <c r="D27" s="19" t="s">
         <v>56</v>
       </c>
-      <c r="E27" s="18"/>
+      <c r="E27" s="19"/>
     </row>
     <row r="28" customHeight="1" spans="1:5">
-      <c r="A28" s="20"/>
-      <c r="B28" s="18" t="s">
+      <c r="A28" s="21"/>
+      <c r="B28" s="19" t="s">
         <v>57</v>
       </c>
-      <c r="C28" s="18" t="s">
+      <c r="C28" s="19" t="s">
         <v>58</v>
       </c>
-      <c r="D28" s="18" t="s">
+      <c r="D28" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="E28" s="18"/>
+      <c r="E28" s="19"/>
     </row>
     <row r="29" customHeight="1" spans="1:5">
-      <c r="A29" s="20"/>
-      <c r="B29" s="18" t="s">
+      <c r="A29" s="21"/>
+      <c r="B29" s="19" t="s">
         <v>59</v>
       </c>
-      <c r="C29" s="18" t="s">
+      <c r="C29" s="19" t="s">
         <v>21</v>
       </c>
-      <c r="D29" s="18" t="s">
+      <c r="D29" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="E29" s="18"/>
+      <c r="E29" s="19"/>
     </row>
     <row r="30" customHeight="1" spans="1:5">
-      <c r="A30" s="21"/>
-      <c r="B30" s="18" t="s">
+      <c r="A30" s="22"/>
+      <c r="B30" s="19" t="s">
         <v>60</v>
       </c>
-      <c r="C30" s="18" t="s">
+      <c r="C30" s="19" t="s">
         <v>27</v>
       </c>
-      <c r="D30" s="18" t="s">
+      <c r="D30" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="E30" s="18"/>
+      <c r="E30" s="19"/>
     </row>
     <row r="31" customHeight="1" spans="1:5">
-      <c r="A31" s="17">
+      <c r="A31" s="18">
         <v>8.23</v>
       </c>
-      <c r="B31" s="18" t="s">
+      <c r="B31" s="19" t="s">
         <v>61</v>
       </c>
-      <c r="C31" s="18" t="s">
+      <c r="C31" s="19" t="s">
         <v>62</v>
       </c>
-      <c r="D31" s="18" t="s">
+      <c r="D31" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="E31" s="18"/>
+      <c r="E31" s="19"/>
     </row>
     <row r="32" customHeight="1" spans="1:5">
-      <c r="A32" s="17">
+      <c r="A32" s="18">
         <v>8.24</v>
       </c>
-      <c r="B32" s="18" t="s">
+      <c r="B32" s="19" t="s">
         <v>63</v>
       </c>
-      <c r="C32" s="18" t="s">
+      <c r="C32" s="19" t="s">
         <v>64</v>
       </c>
-      <c r="D32" s="18" t="s">
+      <c r="D32" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="E32" s="18"/>
+      <c r="E32" s="19"/>
     </row>
     <row r="33" customHeight="1" spans="1:5">
-      <c r="A33" s="19">
+      <c r="A33" s="20">
         <v>8.25</v>
       </c>
-      <c r="B33" s="18" t="s">
+      <c r="B33" s="19" t="s">
         <v>65</v>
       </c>
-      <c r="C33" s="18" t="s">
+      <c r="C33" s="19" t="s">
         <v>23</v>
       </c>
-      <c r="D33" s="18" t="s">
+      <c r="D33" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="E33" s="18"/>
+      <c r="E33" s="19"/>
     </row>
     <row r="34" customHeight="1" spans="1:5">
-      <c r="A34" s="20"/>
-      <c r="B34" s="18" t="s">
+      <c r="A34" s="21"/>
+      <c r="B34" s="19" t="s">
         <v>66</v>
       </c>
-      <c r="C34" s="18" t="s">
+      <c r="C34" s="19" t="s">
         <v>67</v>
       </c>
-      <c r="D34" s="18" t="s">
+      <c r="D34" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="E34" s="18"/>
+      <c r="E34" s="19"/>
     </row>
     <row r="35" customHeight="1" spans="1:5">
-      <c r="A35" s="20"/>
-      <c r="B35" s="18" t="s">
+      <c r="A35" s="21"/>
+      <c r="B35" s="19" t="s">
         <v>68</v>
       </c>
-      <c r="C35" s="18" t="s">
+      <c r="C35" s="19" t="s">
         <v>69</v>
       </c>
-      <c r="D35" s="18" t="s">
+      <c r="D35" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="E35" s="18"/>
+      <c r="E35" s="19"/>
     </row>
     <row r="36" customHeight="1" spans="1:5">
-      <c r="A36" s="20"/>
-      <c r="B36" s="18" t="s">
+      <c r="A36" s="21"/>
+      <c r="B36" s="19" t="s">
         <v>70</v>
       </c>
-      <c r="C36" s="18" t="s">
+      <c r="C36" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="D36" s="18" t="s">
+      <c r="D36" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="E36" s="18"/>
+      <c r="E36" s="19"/>
     </row>
     <row r="37" customHeight="1" spans="1:5">
-      <c r="A37" s="20"/>
-      <c r="B37" s="18" t="s">
+      <c r="A37" s="21"/>
+      <c r="B37" s="19" t="s">
         <v>71</v>
       </c>
-      <c r="C37" s="18" t="s">
+      <c r="C37" s="19" t="s">
         <v>72</v>
       </c>
-      <c r="D37" s="18" t="s">
+      <c r="D37" s="19" t="s">
         <v>73</v>
       </c>
-      <c r="E37" s="18"/>
+      <c r="E37" s="19"/>
     </row>
     <row r="38" customHeight="1" spans="1:5">
-      <c r="A38" s="21"/>
-      <c r="B38" s="18" t="s">
+      <c r="A38" s="22"/>
+      <c r="B38" s="19" t="s">
         <v>74</v>
       </c>
-      <c r="C38" s="18" t="s">
+      <c r="C38" s="19" t="s">
         <v>75</v>
       </c>
-      <c r="D38" s="18" t="s">
+      <c r="D38" s="19" t="s">
         <v>24</v>
       </c>
-      <c r="E38" s="18"/>
+      <c r="E38" s="19"/>
     </row>
     <row r="39" customHeight="1" spans="1:5">
-      <c r="A39" s="19">
+      <c r="A39" s="20">
         <v>9.1</v>
       </c>
-      <c r="B39" s="18" t="s">
+      <c r="B39" s="19" t="s">
         <v>76</v>
       </c>
-      <c r="C39" s="18" t="s">
+      <c r="C39" s="19" t="s">
         <v>33</v>
       </c>
-      <c r="D39" s="18" t="s">
+      <c r="D39" s="19" t="s">
         <v>24</v>
       </c>
-      <c r="E39" s="18"/>
+      <c r="E39" s="19"/>
     </row>
     <row r="40" customHeight="1" spans="1:5">
-      <c r="A40" s="20"/>
-      <c r="B40" s="18" t="s">
+      <c r="A40" s="21"/>
+      <c r="B40" s="19" t="s">
         <v>77</v>
       </c>
-      <c r="C40" s="18" t="s">
+      <c r="C40" s="19" t="s">
         <v>33</v>
       </c>
-      <c r="D40" s="18" t="s">
+      <c r="D40" s="19" t="s">
         <v>24</v>
       </c>
-      <c r="E40" s="18"/>
+      <c r="E40" s="19"/>
     </row>
     <row r="41" customHeight="1" spans="1:5">
-      <c r="A41" s="20"/>
-      <c r="B41" s="18" t="s">
+      <c r="A41" s="21"/>
+      <c r="B41" s="19" t="s">
         <v>78</v>
       </c>
-      <c r="C41" s="18" t="s">
+      <c r="C41" s="19" t="s">
         <v>79</v>
       </c>
-      <c r="D41" s="18" t="s">
+      <c r="D41" s="19" t="s">
         <v>24</v>
       </c>
-      <c r="E41" s="18"/>
+      <c r="E41" s="19"/>
     </row>
     <row r="42" customHeight="1" spans="1:5">
-      <c r="A42" s="20"/>
-      <c r="B42" s="18" t="s">
+      <c r="A42" s="21"/>
+      <c r="B42" s="19" t="s">
         <v>80</v>
       </c>
-      <c r="C42" s="18" t="s">
+      <c r="C42" s="19" t="s">
         <v>81</v>
       </c>
-      <c r="D42" s="18" t="s">
+      <c r="D42" s="19" t="s">
         <v>24</v>
       </c>
-      <c r="E42" s="18"/>
+      <c r="E42" s="19"/>
     </row>
     <row r="43" customHeight="1" spans="1:5">
-      <c r="A43" s="20"/>
-      <c r="B43" s="18" t="s">
+      <c r="A43" s="21"/>
+      <c r="B43" s="19" t="s">
         <v>82</v>
       </c>
-      <c r="C43" s="18" t="s">
+      <c r="C43" s="19" t="s">
         <v>83</v>
       </c>
-      <c r="D43" s="18" t="s">
+      <c r="D43" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="E43" s="18"/>
+      <c r="E43" s="19"/>
     </row>
     <row r="44" customHeight="1" spans="1:5">
-      <c r="A44" s="20"/>
-      <c r="B44" s="18" t="s">
+      <c r="A44" s="21"/>
+      <c r="B44" s="19" t="s">
         <v>84</v>
       </c>
-      <c r="C44" s="18" t="s">
+      <c r="C44" s="19" t="s">
         <v>21</v>
       </c>
-      <c r="D44" s="18" t="s">
+      <c r="D44" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="E44" s="18"/>
+      <c r="E44" s="19"/>
     </row>
     <row r="45" customHeight="1" spans="1:5">
-      <c r="A45" s="20"/>
-      <c r="B45" s="18" t="s">
+      <c r="A45" s="21"/>
+      <c r="B45" s="19" t="s">
         <v>85</v>
       </c>
-      <c r="C45" s="18" t="s">
+      <c r="C45" s="19" t="s">
         <v>86</v>
       </c>
-      <c r="D45" s="18" t="s">
+      <c r="D45" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="E45" s="18"/>
+      <c r="E45" s="19"/>
     </row>
     <row r="46" customHeight="1" spans="1:5">
-      <c r="A46" s="20"/>
-      <c r="B46" s="18" t="s">
+      <c r="A46" s="21"/>
+      <c r="B46" s="19" t="s">
         <v>36</v>
       </c>
-      <c r="C46" s="18" t="s">
+      <c r="C46" s="19" t="s">
         <v>87</v>
       </c>
-      <c r="D46" s="18" t="s">
+      <c r="D46" s="19" t="s">
         <v>24</v>
       </c>
-      <c r="E46" s="18"/>
+      <c r="E46" s="19"/>
     </row>
     <row r="47" customHeight="1" spans="1:5">
-      <c r="A47" s="21"/>
-      <c r="B47" s="18" t="s">
+      <c r="A47" s="22"/>
+      <c r="B47" s="19" t="s">
         <v>88</v>
       </c>
-      <c r="C47" s="18" t="s">
+      <c r="C47" s="19" t="s">
         <v>89</v>
       </c>
-      <c r="D47" s="18" t="s">
+      <c r="D47" s="19" t="s">
         <v>24</v>
       </c>
-      <c r="E47" s="18"/>
+      <c r="E47" s="19"/>
     </row>
     <row r="48" customHeight="1" spans="1:5">
-      <c r="A48" s="19">
+      <c r="A48" s="20">
         <v>9.2</v>
       </c>
-      <c r="B48" s="18" t="s">
+      <c r="B48" s="19" t="s">
         <v>39</v>
       </c>
-      <c r="C48" s="18" t="s">
+      <c r="C48" s="19" t="s">
         <v>21</v>
       </c>
-      <c r="D48" s="18" t="s">
+      <c r="D48" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="E48" s="18"/>
+      <c r="E48" s="19"/>
     </row>
     <row r="49" customHeight="1" spans="1:5">
-      <c r="A49" s="20"/>
-      <c r="B49" s="18" t="s">
+      <c r="A49" s="21"/>
+      <c r="B49" s="19" t="s">
         <v>90</v>
       </c>
-      <c r="C49" s="18" t="s">
+      <c r="C49" s="19" t="s">
         <v>91</v>
       </c>
-      <c r="D49" s="18" t="s">
+      <c r="D49" s="19" t="s">
         <v>24</v>
       </c>
-      <c r="E49" s="18"/>
+      <c r="E49" s="19"/>
     </row>
     <row r="50" customHeight="1" spans="1:5">
-      <c r="A50" s="20"/>
-      <c r="B50" s="18" t="s">
+      <c r="A50" s="21"/>
+      <c r="B50" s="19" t="s">
         <v>92</v>
       </c>
-      <c r="C50" s="18" t="s">
+      <c r="C50" s="19" t="s">
         <v>89</v>
       </c>
-      <c r="D50" s="18" t="s">
+      <c r="D50" s="19" t="s">
         <v>24</v>
       </c>
-      <c r="E50" s="18"/>
+      <c r="E50" s="19"/>
     </row>
     <row r="51" customHeight="1" spans="1:5">
-      <c r="A51" s="20"/>
-      <c r="B51" s="18" t="s">
+      <c r="A51" s="21"/>
+      <c r="B51" s="19" t="s">
         <v>93</v>
       </c>
-      <c r="C51" s="18" t="s">
+      <c r="C51" s="19" t="s">
         <v>94</v>
       </c>
-      <c r="D51" s="18" t="s">
+      <c r="D51" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="E51" s="18"/>
+      <c r="E51" s="19"/>
     </row>
     <row r="52" customHeight="1" spans="1:5">
-      <c r="A52" s="20"/>
-      <c r="B52" s="18" t="s">
+      <c r="A52" s="21"/>
+      <c r="B52" s="19" t="s">
         <v>95</v>
       </c>
-      <c r="C52" s="18" t="s">
+      <c r="C52" s="19" t="s">
         <v>79</v>
       </c>
-      <c r="D52" s="18" t="s">
+      <c r="D52" s="19" t="s">
         <v>24</v>
       </c>
-      <c r="E52" s="18"/>
+      <c r="E52" s="19"/>
     </row>
     <row r="53" customHeight="1" spans="1:5">
-      <c r="A53" s="20"/>
-      <c r="B53" s="18" t="s">
+      <c r="A53" s="21"/>
+      <c r="B53" s="19" t="s">
         <v>96</v>
       </c>
-      <c r="D53" s="18"/>
-      <c r="E53" s="18" t="s">
+      <c r="D53" s="19"/>
+      <c r="E53" s="19" t="s">
         <v>97</v>
       </c>
     </row>
     <row r="54" customHeight="1" spans="1:5">
-      <c r="A54" s="20"/>
-      <c r="B54" s="18" t="s">
+      <c r="A54" s="21"/>
+      <c r="B54" s="19" t="s">
         <v>98</v>
       </c>
-      <c r="C54" s="18" t="s">
+      <c r="C54" s="19" t="s">
         <v>79</v>
       </c>
-      <c r="D54" s="18" t="s">
+      <c r="D54" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="E54" s="18"/>
+      <c r="E54" s="19"/>
     </row>
     <row r="55" customHeight="1" spans="1:5">
-      <c r="A55" s="20"/>
-      <c r="B55" s="18" t="s">
+      <c r="A55" s="21"/>
+      <c r="B55" s="19" t="s">
         <v>99</v>
       </c>
-      <c r="C55" s="18" t="s">
+      <c r="C55" s="19" t="s">
         <v>100</v>
       </c>
-      <c r="D55" s="18" t="s">
+      <c r="D55" s="19" t="s">
         <v>24</v>
       </c>
-      <c r="E55" s="18"/>
+      <c r="E55" s="19"/>
     </row>
     <row r="56" customHeight="1" spans="1:5">
-      <c r="A56" s="20"/>
-      <c r="B56" s="18" t="s">
+      <c r="A56" s="21"/>
+      <c r="B56" s="19" t="s">
         <v>101</v>
       </c>
-      <c r="C56" s="18" t="s">
+      <c r="C56" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="D56" s="18" t="s">
+      <c r="D56" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="E56" s="18"/>
+      <c r="E56" s="19"/>
     </row>
     <row r="57" customHeight="1" spans="1:5">
-      <c r="A57" s="21"/>
-      <c r="B57" s="18" t="s">
+      <c r="A57" s="22"/>
+      <c r="B57" s="19" t="s">
         <v>102</v>
       </c>
-      <c r="C57" s="18" t="s">
+      <c r="C57" s="19" t="s">
         <v>21</v>
       </c>
-      <c r="D57" s="18" t="s">
+      <c r="D57" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="E57" s="18"/>
+      <c r="E57" s="19"/>
     </row>
     <row r="58" customHeight="1" spans="1:5">
-      <c r="A58" s="19">
+      <c r="A58" s="20">
         <v>9.3</v>
       </c>
-      <c r="B58" s="18" t="s">
+      <c r="B58" s="19" t="s">
         <v>103</v>
       </c>
-      <c r="C58" s="18" t="s">
+      <c r="C58" s="19" t="s">
         <v>75</v>
       </c>
-      <c r="D58" s="18" t="s">
+      <c r="D58" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="E58" s="18"/>
+      <c r="E58" s="19"/>
     </row>
     <row r="59" customHeight="1" spans="1:5">
-      <c r="A59" s="20"/>
-      <c r="B59" s="18" t="s">
+      <c r="A59" s="21"/>
+      <c r="B59" s="19" t="s">
         <v>104</v>
       </c>
-      <c r="C59" s="18" t="s">
+      <c r="C59" s="19" t="s">
         <v>105</v>
       </c>
-      <c r="D59" s="18" t="s">
+      <c r="D59" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="E59" s="18"/>
+      <c r="E59" s="19"/>
     </row>
     <row r="60" customHeight="1" spans="1:5">
-      <c r="A60" s="21"/>
-      <c r="B60" s="18" t="s">
+      <c r="A60" s="22"/>
+      <c r="B60" s="19" t="s">
         <v>106</v>
       </c>
-      <c r="C60" s="18" t="s">
+      <c r="C60" s="19" t="s">
         <v>107</v>
       </c>
-      <c r="D60" s="18" t="s">
+      <c r="D60" s="19" t="s">
         <v>108</v>
       </c>
-      <c r="E60" s="18"/>
+      <c r="E60" s="19"/>
     </row>
     <row r="61" customHeight="1" spans="1:5">
-      <c r="A61" s="19">
+      <c r="A61" s="20">
         <v>9.23</v>
       </c>
-      <c r="B61" s="18" t="s">
+      <c r="B61" s="19" t="s">
         <v>109</v>
       </c>
-      <c r="C61" s="18" t="s">
+      <c r="C61" s="19" t="s">
         <v>33</v>
       </c>
-      <c r="D61" s="18" t="s">
+      <c r="D61" s="19" t="s">
         <v>24</v>
       </c>
-      <c r="E61" s="18"/>
+      <c r="E61" s="19"/>
     </row>
     <row r="62" customHeight="1" spans="1:5">
-      <c r="A62" s="20"/>
-      <c r="B62" s="18" t="s">
+      <c r="A62" s="21"/>
+      <c r="B62" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="C62" s="18" t="s">
+      <c r="C62" s="19" t="s">
         <v>110</v>
       </c>
-      <c r="D62" s="18" t="s">
+      <c r="D62" s="19" t="s">
         <v>24</v>
       </c>
-      <c r="E62" s="18"/>
+      <c r="E62" s="19"/>
     </row>
     <row r="63" customHeight="1" spans="1:5">
-      <c r="A63" s="20"/>
-      <c r="B63" s="18" t="s">
+      <c r="A63" s="21"/>
+      <c r="B63" s="19" t="s">
         <v>111</v>
       </c>
-      <c r="C63" s="18" t="s">
+      <c r="C63" s="19" t="s">
         <v>72</v>
       </c>
-      <c r="D63" s="18" t="s">
+      <c r="D63" s="19" t="s">
         <v>24</v>
       </c>
-      <c r="E63" s="18"/>
+      <c r="E63" s="19"/>
     </row>
     <row r="64" customHeight="1" spans="1:5">
-      <c r="A64" s="20"/>
-      <c r="B64" s="18" t="s">
+      <c r="A64" s="21"/>
+      <c r="B64" s="19" t="s">
         <v>61</v>
       </c>
-      <c r="C64" s="18" t="s">
+      <c r="C64" s="19" t="s">
         <v>112</v>
       </c>
-      <c r="D64" s="18" t="s">
+      <c r="D64" s="19" t="s">
         <v>24</v>
       </c>
-      <c r="E64" s="18"/>
+      <c r="E64" s="19"/>
     </row>
     <row r="65" customHeight="1" spans="1:5">
-      <c r="A65" s="21"/>
-      <c r="B65" s="18" t="s">
+      <c r="A65" s="22"/>
+      <c r="B65" s="19" t="s">
         <v>113</v>
       </c>
-      <c r="C65" s="18" t="s">
+      <c r="C65" s="19" t="s">
         <v>89</v>
       </c>
-      <c r="D65" s="18" t="s">
+      <c r="D65" s="19" t="s">
         <v>114</v>
       </c>
-      <c r="E65" s="18"/>
+      <c r="E65" s="19"/>
     </row>
     <row r="66" customHeight="1" spans="1:5">
-      <c r="A66" s="19">
+      <c r="A66" s="20">
         <v>9.24</v>
       </c>
-      <c r="B66" s="18" t="s">
+      <c r="B66" s="19" t="s">
         <v>115</v>
       </c>
-      <c r="C66" s="18" t="s">
+      <c r="C66" s="19" t="s">
         <v>116</v>
       </c>
-      <c r="D66" s="18" t="s">
+      <c r="D66" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="E66" s="18"/>
+      <c r="E66" s="19"/>
     </row>
     <row r="67" customHeight="1" spans="1:5">
-      <c r="A67" s="20"/>
-      <c r="B67" s="18" t="s">
+      <c r="A67" s="21"/>
+      <c r="B67" s="19" t="s">
         <v>117</v>
       </c>
-      <c r="C67" s="18" t="s">
+      <c r="C67" s="19" t="s">
         <v>118</v>
       </c>
-      <c r="D67" s="18" t="s">
+      <c r="D67" s="19" t="s">
         <v>114</v>
       </c>
-      <c r="E67" s="18"/>
+      <c r="E67" s="19"/>
     </row>
     <row r="68" customHeight="1" spans="1:5">
-      <c r="A68" s="20"/>
-      <c r="B68" s="18" t="s">
+      <c r="A68" s="21"/>
+      <c r="B68" s="19" t="s">
         <v>119</v>
       </c>
-      <c r="C68" s="18" t="s">
+      <c r="C68" s="19" t="s">
         <v>120</v>
       </c>
-      <c r="D68" s="18" t="s">
+      <c r="D68" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="E68" s="18"/>
+      <c r="E68" s="19"/>
     </row>
     <row r="69" customHeight="1" spans="1:5">
-      <c r="A69" s="20"/>
-      <c r="B69" s="18" t="s">
+      <c r="A69" s="21"/>
+      <c r="B69" s="19" t="s">
         <v>121</v>
       </c>
-      <c r="C69" s="18" t="s">
+      <c r="C69" s="19" t="s">
         <v>122</v>
       </c>
-      <c r="D69" s="18" t="s">
+      <c r="D69" s="19" t="s">
         <v>123</v>
       </c>
-      <c r="E69" s="18"/>
+      <c r="E69" s="19"/>
     </row>
     <row r="70" customHeight="1" spans="1:5">
-      <c r="A70" s="20"/>
-      <c r="B70" s="18" t="s">
+      <c r="A70" s="21"/>
+      <c r="B70" s="19" t="s">
         <v>124</v>
       </c>
-      <c r="C70" s="18" t="s">
+      <c r="C70" s="19" t="s">
         <v>120</v>
       </c>
-      <c r="D70" s="18" t="s">
+      <c r="D70" s="19" t="s">
         <v>125</v>
       </c>
-      <c r="E70" s="18"/>
+      <c r="E70" s="19"/>
     </row>
     <row r="71" customHeight="1" spans="1:5">
-      <c r="A71" s="20"/>
-      <c r="B71" s="18" t="s">
+      <c r="A71" s="21"/>
+      <c r="B71" s="19" t="s">
         <v>126</v>
       </c>
-      <c r="C71" s="18" t="s">
+      <c r="C71" s="19" t="s">
         <v>62</v>
       </c>
-      <c r="D71" s="18" t="s">
+      <c r="D71" s="19" t="s">
         <v>125</v>
       </c>
-      <c r="E71" s="18"/>
+      <c r="E71" s="19"/>
     </row>
     <row r="72" customHeight="1" spans="1:5">
-      <c r="A72" s="21"/>
-      <c r="B72" s="18" t="s">
+      <c r="A72" s="22"/>
+      <c r="B72" s="19" t="s">
         <v>127</v>
       </c>
-      <c r="C72" s="18" t="s">
+      <c r="C72" s="19" t="s">
         <v>128</v>
       </c>
-      <c r="D72" s="18" t="s">
+      <c r="D72" s="19" t="s">
         <v>125</v>
       </c>
-      <c r="E72" s="18"/>
+      <c r="E72" s="19"/>
     </row>
     <row r="73" customHeight="1" spans="1:5">
-      <c r="A73" s="19">
+      <c r="A73" s="20">
         <v>9.26</v>
       </c>
-      <c r="B73" s="18" t="s">
+      <c r="B73" s="19" t="s">
         <v>129</v>
       </c>
-      <c r="C73" s="18" t="s">
+      <c r="C73" s="19" t="s">
         <v>130</v>
       </c>
-      <c r="D73" s="18" t="s">
+      <c r="D73" s="19" t="s">
         <v>24</v>
       </c>
-      <c r="E73" s="18"/>
+      <c r="E73" s="19"/>
     </row>
     <row r="74" customHeight="1" spans="1:5">
-      <c r="A74" s="20"/>
-      <c r="B74" s="18" t="s">
+      <c r="A74" s="21"/>
+      <c r="B74" s="19" t="s">
         <v>131</v>
       </c>
-      <c r="C74" s="18" t="s">
+      <c r="C74" s="19" t="s">
         <v>132</v>
       </c>
-      <c r="D74" s="18" t="s">
+      <c r="D74" s="19" t="s">
         <v>133</v>
       </c>
-      <c r="E74" s="18"/>
+      <c r="E74" s="19"/>
     </row>
     <row r="75" customHeight="1" spans="1:5">
-      <c r="A75" s="21"/>
-      <c r="B75" s="18" t="s">
+      <c r="A75" s="22"/>
+      <c r="B75" s="19" t="s">
         <v>134</v>
       </c>
-      <c r="C75" s="18"/>
-      <c r="D75" s="18" t="s">
+      <c r="C75" s="19"/>
+      <c r="D75" s="19" t="s">
         <v>125</v>
       </c>
-      <c r="E75" s="18"/>
+      <c r="E75" s="19"/>
     </row>
     <row r="76" customHeight="1" spans="1:5">
-      <c r="A76" s="19">
+      <c r="A76" s="20">
         <v>9.27</v>
       </c>
-      <c r="B76" s="18" t="s">
+      <c r="B76" s="19" t="s">
         <v>135</v>
       </c>
-      <c r="C76" s="18" t="s">
+      <c r="C76" s="19" t="s">
         <v>23</v>
       </c>
-      <c r="D76" s="18" t="s">
+      <c r="D76" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="E76" s="18"/>
+      <c r="E76" s="19"/>
     </row>
     <row r="77" customHeight="1" spans="1:5">
-      <c r="A77" s="20"/>
-      <c r="B77" s="18" t="s">
+      <c r="A77" s="21"/>
+      <c r="B77" s="19" t="s">
         <v>136</v>
       </c>
-      <c r="C77" s="18" t="s">
+      <c r="C77" s="19" t="s">
         <v>64</v>
       </c>
-      <c r="D77" s="18" t="s">
+      <c r="D77" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="E77" s="18"/>
+      <c r="E77" s="19"/>
     </row>
     <row r="78" customHeight="1" spans="1:5">
-      <c r="A78" s="21"/>
-      <c r="B78" s="18" t="s">
+      <c r="A78" s="22"/>
+      <c r="B78" s="19" t="s">
         <v>109</v>
       </c>
-      <c r="C78" s="18" t="s">
+      <c r="C78" s="19" t="s">
         <v>33</v>
       </c>
-      <c r="D78" s="18" t="s">
+      <c r="D78" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="E78" s="18"/>
+      <c r="E78" s="19"/>
     </row>
     <row r="79" customHeight="1" spans="1:5">
-      <c r="A79" s="19">
+      <c r="A79" s="20">
         <v>10.13</v>
       </c>
-      <c r="B79" s="18" t="s">
+      <c r="B79" s="19" t="s">
         <v>137</v>
       </c>
-      <c r="C79" s="18" t="s">
+      <c r="C79" s="19" t="s">
         <v>23</v>
       </c>
-      <c r="D79" s="18"/>
-      <c r="E79" s="18"/>
+      <c r="D79" s="19"/>
+      <c r="E79" s="19"/>
     </row>
     <row r="80" customHeight="1" spans="1:5">
-      <c r="A80" s="21"/>
-      <c r="B80" s="18" t="s">
+      <c r="A80" s="22"/>
+      <c r="B80" s="19" t="s">
         <v>78</v>
       </c>
-      <c r="C80" s="18" t="s">
+      <c r="C80" s="19" t="s">
         <v>79</v>
       </c>
-      <c r="D80" s="18"/>
-      <c r="E80" s="18"/>
+      <c r="D80" s="19"/>
+      <c r="E80" s="19"/>
     </row>
     <row r="81" customHeight="1" spans="1:5">
-      <c r="A81" s="18"/>
-      <c r="B81" s="18"/>
-      <c r="C81" s="18"/>
-      <c r="D81" s="18"/>
-      <c r="E81" s="18"/>
+      <c r="A81" s="19"/>
+      <c r="B81" s="19"/>
+      <c r="C81" s="19"/>
+      <c r="D81" s="19"/>
+      <c r="E81" s="19"/>
     </row>
     <row r="82" customHeight="1" spans="1:5">
-      <c r="A82" s="18"/>
-      <c r="B82" s="18"/>
-      <c r="C82" s="18"/>
-      <c r="D82" s="18"/>
-      <c r="E82" s="18"/>
+      <c r="A82" s="19"/>
+      <c r="B82" s="19"/>
+      <c r="C82" s="19"/>
+      <c r="D82" s="19"/>
+      <c r="E82" s="19"/>
     </row>
     <row r="83" customHeight="1" spans="1:5">
-      <c r="A83" s="18"/>
-      <c r="B83" s="18"/>
-      <c r="C83" s="18"/>
-      <c r="D83" s="18"/>
-      <c r="E83" s="18"/>
+      <c r="A83" s="19"/>
+      <c r="B83" s="19"/>
+      <c r="C83" s="19"/>
+      <c r="D83" s="19"/>
+      <c r="E83" s="19"/>
     </row>
     <row r="84" customHeight="1" spans="1:5">
-      <c r="A84" s="18"/>
-      <c r="B84" s="18"/>
-      <c r="C84" s="18"/>
-      <c r="D84" s="18"/>
-      <c r="E84" s="18"/>
+      <c r="A84" s="19"/>
+      <c r="B84" s="19"/>
+      <c r="C84" s="19"/>
+      <c r="D84" s="19"/>
+      <c r="E84" s="19"/>
     </row>
     <row r="85" customHeight="1" spans="1:5">
-      <c r="A85" s="18"/>
-      <c r="B85" s="18"/>
-      <c r="C85" s="18"/>
-      <c r="D85" s="18"/>
-      <c r="E85" s="18"/>
+      <c r="A85" s="19"/>
+      <c r="B85" s="19"/>
+      <c r="C85" s="19"/>
+      <c r="D85" s="19"/>
+      <c r="E85" s="19"/>
     </row>
     <row r="86" customHeight="1" spans="1:5">
-      <c r="A86" s="18"/>
-      <c r="B86" s="18"/>
-      <c r="C86" s="18"/>
-      <c r="D86" s="18"/>
-      <c r="E86" s="18"/>
+      <c r="A86" s="19"/>
+      <c r="B86" s="19"/>
+      <c r="C86" s="19"/>
+      <c r="D86" s="19"/>
+      <c r="E86" s="19"/>
     </row>
     <row r="87" customHeight="1" spans="1:5">
-      <c r="A87" s="18"/>
-      <c r="B87" s="18"/>
-      <c r="C87" s="18"/>
-      <c r="D87" s="18"/>
-      <c r="E87" s="18"/>
+      <c r="A87" s="19"/>
+      <c r="B87" s="19"/>
+      <c r="C87" s="19"/>
+      <c r="D87" s="19"/>
+      <c r="E87" s="19"/>
     </row>
     <row r="88" customHeight="1" spans="1:5">
-      <c r="A88" s="18"/>
-      <c r="B88" s="18"/>
-      <c r="C88" s="18"/>
-      <c r="D88" s="18"/>
-      <c r="E88" s="18"/>
+      <c r="A88" s="19"/>
+      <c r="B88" s="19"/>
+      <c r="C88" s="19"/>
+      <c r="D88" s="19"/>
+      <c r="E88" s="19"/>
     </row>
     <row r="89" customHeight="1" spans="1:5">
-      <c r="A89" s="18"/>
-      <c r="B89" s="18"/>
-      <c r="C89" s="18"/>
-      <c r="D89" s="18"/>
-      <c r="E89" s="18"/>
+      <c r="A89" s="19"/>
+      <c r="B89" s="19"/>
+      <c r="C89" s="19"/>
+      <c r="D89" s="19"/>
+      <c r="E89" s="19"/>
     </row>
     <row r="90" customHeight="1" spans="1:5">
-      <c r="A90" s="18"/>
-      <c r="B90" s="18"/>
-      <c r="C90" s="18"/>
-      <c r="D90" s="18"/>
-      <c r="E90" s="18"/>
+      <c r="A90" s="19"/>
+      <c r="B90" s="19"/>
+      <c r="C90" s="19"/>
+      <c r="D90" s="19"/>
+      <c r="E90" s="19"/>
     </row>
     <row r="91" customHeight="1" spans="1:5">
-      <c r="A91" s="18"/>
-      <c r="B91" s="18"/>
-      <c r="C91" s="18"/>
-      <c r="D91" s="18"/>
-      <c r="E91" s="18"/>
+      <c r="A91" s="19"/>
+      <c r="B91" s="19"/>
+      <c r="C91" s="19"/>
+      <c r="D91" s="19"/>
+      <c r="E91" s="19"/>
     </row>
     <row r="92" customHeight="1" spans="1:5">
-      <c r="A92" s="18"/>
-      <c r="B92" s="18"/>
-      <c r="C92" s="18"/>
-      <c r="D92" s="18"/>
-      <c r="E92" s="18"/>
+      <c r="A92" s="19"/>
+      <c r="B92" s="19"/>
+      <c r="C92" s="19"/>
+      <c r="D92" s="19"/>
+      <c r="E92" s="19"/>
     </row>
     <row r="93" customHeight="1" spans="1:5">
-      <c r="A93" s="18"/>
-      <c r="B93" s="18"/>
-      <c r="C93" s="18"/>
-      <c r="D93" s="18"/>
-      <c r="E93" s="18"/>
+      <c r="A93" s="19"/>
+      <c r="B93" s="19"/>
+      <c r="C93" s="19"/>
+      <c r="D93" s="19"/>
+      <c r="E93" s="19"/>
     </row>
     <row r="94" customHeight="1" spans="1:5">
-      <c r="A94" s="18"/>
-      <c r="B94" s="18"/>
-      <c r="C94" s="18"/>
-      <c r="D94" s="18"/>
-      <c r="E94" s="18"/>
+      <c r="A94" s="19"/>
+      <c r="B94" s="19"/>
+      <c r="C94" s="19"/>
+      <c r="D94" s="19"/>
+      <c r="E94" s="19"/>
     </row>
     <row r="95" customHeight="1" spans="1:5">
-      <c r="A95" s="18"/>
-      <c r="B95" s="18"/>
-      <c r="C95" s="18"/>
-      <c r="D95" s="18"/>
-      <c r="E95" s="18"/>
+      <c r="A95" s="19"/>
+      <c r="B95" s="19"/>
+      <c r="C95" s="19"/>
+      <c r="D95" s="19"/>
+      <c r="E95" s="19"/>
     </row>
     <row r="96" customHeight="1" spans="1:5">
-      <c r="A96" s="18"/>
-      <c r="B96" s="18"/>
-      <c r="C96" s="18"/>
-      <c r="D96" s="18"/>
-      <c r="E96" s="18"/>
+      <c r="A96" s="19"/>
+      <c r="B96" s="19"/>
+      <c r="C96" s="19"/>
+      <c r="D96" s="19"/>
+      <c r="E96" s="19"/>
     </row>
     <row r="97" customHeight="1" spans="1:5">
-      <c r="A97" s="18"/>
-      <c r="B97" s="18"/>
-      <c r="C97" s="18"/>
-      <c r="D97" s="18"/>
-      <c r="E97" s="18"/>
+      <c r="A97" s="19"/>
+      <c r="B97" s="19"/>
+      <c r="C97" s="19"/>
+      <c r="D97" s="19"/>
+      <c r="E97" s="19"/>
     </row>
     <row r="98" customHeight="1" spans="1:5">
-      <c r="A98" s="18"/>
-      <c r="B98" s="18"/>
-      <c r="C98" s="18"/>
-      <c r="D98" s="18"/>
-      <c r="E98" s="18"/>
+      <c r="A98" s="19"/>
+      <c r="B98" s="19"/>
+      <c r="C98" s="19"/>
+      <c r="D98" s="19"/>
+      <c r="E98" s="19"/>
     </row>
     <row r="99" customHeight="1" spans="1:5">
-      <c r="A99" s="18"/>
-      <c r="B99" s="18"/>
-      <c r="C99" s="18"/>
-      <c r="D99" s="18"/>
-      <c r="E99" s="18"/>
+      <c r="A99" s="19"/>
+      <c r="B99" s="19"/>
+      <c r="C99" s="19"/>
+      <c r="D99" s="19"/>
+      <c r="E99" s="19"/>
     </row>
   </sheetData>
   <mergeCells count="13">
@@ -3005,24 +3074,24 @@
     <mergeCell ref="A76:A78"/>
     <mergeCell ref="A79:A80"/>
   </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:F44"/>
+  <dimension ref="A1:F61"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
-      <selection activeCell="E42" sqref="E42"/>
+    <sheetView tabSelected="1" topLeftCell="A41" workbookViewId="0">
+      <selection activeCell="B47" sqref="B47"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8" outlineLevelCol="5"/>
   <cols>
-    <col min="1" max="1" width="15.5" style="3" customWidth="1"/>
+    <col min="1" max="1" width="15.5" style="4" customWidth="1"/>
     <col min="2" max="2" width="31.375" customWidth="1"/>
     <col min="3" max="4" width="13.25" customWidth="1"/>
     <col min="5" max="5" width="32.75" customWidth="1"/>
@@ -3030,638 +3099,626 @@
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="1" ht="16" customHeight="1" spans="1:6">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="C1" s="6" t="s">
         <v>138</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="D1" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="E1" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="5" t="s">
+      <c r="F1" s="6" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="2" ht="18" customHeight="1" spans="1:6">
-      <c r="A2" s="6">
+      <c r="A2" s="7">
         <v>2.14</v>
       </c>
-      <c r="B2" s="7" t="s">
+      <c r="B2" s="2" t="s">
         <v>139</v>
       </c>
-      <c r="C2" s="7" t="s">
+      <c r="C2" s="2" t="s">
         <v>140</v>
       </c>
-      <c r="D2" s="7" t="s">
+      <c r="D2" s="2" t="s">
         <v>141</v>
       </c>
-      <c r="E2" s="7" t="s">
+      <c r="E2" s="2" t="s">
         <v>142</v>
       </c>
-      <c r="F2" s="7"/>
+      <c r="F2" s="2"/>
     </row>
     <row r="3" ht="18" customHeight="1" spans="1:6">
-      <c r="A3" s="6">
+      <c r="A3" s="7">
         <v>2.15</v>
       </c>
-      <c r="B3" s="7" t="s">
+      <c r="B3" s="2" t="s">
         <v>143</v>
       </c>
-      <c r="C3" s="7" t="s">
+      <c r="C3" s="2" t="s">
         <v>140</v>
       </c>
-      <c r="D3" s="7" t="s">
+      <c r="D3" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="E3" s="7" t="s">
+      <c r="E3" s="2" t="s">
         <v>144</v>
       </c>
-      <c r="F3" s="7"/>
+      <c r="F3" s="2"/>
     </row>
     <row r="4" ht="18" customHeight="1" spans="1:6">
-      <c r="A4" s="6">
+      <c r="A4" s="7">
         <v>2.16</v>
       </c>
-      <c r="B4" s="7" t="s">
+      <c r="B4" s="2" t="s">
         <v>145</v>
       </c>
-      <c r="C4" s="7" t="s">
+      <c r="C4" s="2" t="s">
         <v>140</v>
       </c>
-      <c r="D4" s="7" t="s">
+      <c r="D4" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="E4" s="7" t="s">
+      <c r="E4" s="2" t="s">
         <v>142</v>
       </c>
-      <c r="F4" s="7"/>
+      <c r="F4" s="2"/>
     </row>
     <row r="5" ht="18" customHeight="1" spans="1:6">
-      <c r="A5" s="6">
+      <c r="A5" s="7">
         <v>2.17</v>
       </c>
-      <c r="B5" s="7" t="s">
+      <c r="B5" s="2" t="s">
         <v>146</v>
       </c>
-      <c r="C5" s="7" t="s">
+      <c r="C5" s="2" t="s">
         <v>140</v>
       </c>
-      <c r="D5" s="7" t="s">
+      <c r="D5" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="E5" s="7" t="s">
+      <c r="E5" s="2" t="s">
         <v>147</v>
       </c>
-      <c r="F5" s="7"/>
+      <c r="F5" s="2"/>
     </row>
     <row r="6" ht="18" customHeight="1" spans="1:6">
-      <c r="A6" s="6">
+      <c r="A6" s="7">
         <v>2.25</v>
       </c>
-      <c r="B6" s="7" t="s">
+      <c r="B6" s="2" t="s">
         <v>148</v>
       </c>
-      <c r="C6" s="7" t="s">
+      <c r="C6" s="2" t="s">
         <v>140</v>
       </c>
-      <c r="D6" s="7" t="s">
+      <c r="D6" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="E6" s="7" t="s">
+      <c r="E6" s="2" t="s">
         <v>142</v>
       </c>
-      <c r="F6" s="7"/>
+      <c r="F6" s="2"/>
     </row>
     <row r="7" ht="18" customHeight="1" spans="1:6">
-      <c r="A7" s="6">
+      <c r="A7" s="7">
         <v>2.25</v>
       </c>
-      <c r="B7" s="7" t="s">
+      <c r="B7" s="2" t="s">
         <v>136</v>
       </c>
-      <c r="C7" s="7" t="s">
+      <c r="C7" s="2" t="s">
         <v>140</v>
       </c>
-      <c r="D7" s="7" t="s">
+      <c r="D7" s="2" t="s">
         <v>149</v>
       </c>
-      <c r="E7" s="7" t="s">
+      <c r="E7" s="2" t="s">
         <v>144</v>
       </c>
-      <c r="F7" s="7"/>
+      <c r="F7" s="2"/>
     </row>
     <row r="8" ht="18" customHeight="1" spans="1:6">
-      <c r="A8" s="6">
+      <c r="A8" s="7">
         <v>2.25</v>
       </c>
-      <c r="B8" s="7" t="s">
+      <c r="B8" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="C8" s="7" t="s">
+      <c r="C8" s="2" t="s">
         <v>140</v>
       </c>
-      <c r="D8" s="7" t="s">
+      <c r="D8" s="2" t="s">
         <v>150</v>
       </c>
-      <c r="E8" s="7" t="s">
+      <c r="E8" s="2" t="s">
         <v>144</v>
       </c>
-      <c r="F8" s="7"/>
+      <c r="F8" s="2"/>
     </row>
     <row r="9" ht="18" customHeight="1" spans="1:6">
-      <c r="A9" s="6">
+      <c r="A9" s="7">
         <v>3.14</v>
       </c>
-      <c r="B9" s="7" t="s">
+      <c r="B9" s="2" t="s">
         <v>151</v>
       </c>
-      <c r="C9" s="7" t="s">
+      <c r="C9" s="2" t="s">
         <v>152</v>
       </c>
-      <c r="D9" s="7" t="s">
+      <c r="D9" s="2" t="s">
         <v>153</v>
       </c>
-      <c r="E9" s="7" t="s">
+      <c r="E9" s="2" t="s">
         <v>154</v>
       </c>
-      <c r="F9" s="7"/>
+      <c r="F9" s="2"/>
     </row>
     <row r="10" ht="18" customHeight="1" spans="1:6">
-      <c r="A10" s="6">
+      <c r="A10" s="7">
         <v>3.4</v>
       </c>
-      <c r="B10" s="7" t="s">
+      <c r="B10" s="2" t="s">
         <v>155</v>
       </c>
       <c r="C10" s="8" t="s">
         <v>152</v>
       </c>
-      <c r="D10" s="7" t="s">
+      <c r="D10" s="2" t="s">
         <v>156</v>
       </c>
-      <c r="E10" s="7" t="s">
+      <c r="E10" s="2" t="s">
         <v>142</v>
       </c>
-      <c r="F10" s="7"/>
+      <c r="F10" s="2"/>
     </row>
     <row r="11" ht="18" customHeight="1" spans="1:6">
-      <c r="A11" s="6">
+      <c r="A11" s="7">
         <v>3.4</v>
       </c>
-      <c r="B11" s="7" t="s">
+      <c r="B11" s="2" t="s">
         <v>157</v>
       </c>
       <c r="C11" s="8" t="s">
         <v>152</v>
       </c>
-      <c r="D11" s="7" t="s">
+      <c r="D11" s="2" t="s">
         <v>158</v>
       </c>
-      <c r="E11" s="7" t="s">
+      <c r="E11" s="2" t="s">
         <v>159</v>
       </c>
-      <c r="F11" s="7"/>
+      <c r="F11" s="2"/>
     </row>
     <row r="12" ht="18" customHeight="1" spans="1:6">
-      <c r="A12" s="6">
+      <c r="A12" s="7">
         <v>3.7</v>
       </c>
-      <c r="B12" s="7" t="s">
+      <c r="B12" s="2" t="s">
         <v>160</v>
       </c>
-      <c r="C12" s="7" t="s">
+      <c r="C12" s="2" t="s">
         <v>140</v>
       </c>
-      <c r="D12" s="7" t="s">
+      <c r="D12" s="2" t="s">
         <v>161</v>
       </c>
-      <c r="E12" s="7" t="s">
+      <c r="E12" s="2" t="s">
         <v>144</v>
       </c>
-      <c r="F12" s="7"/>
+      <c r="F12" s="2"/>
     </row>
     <row r="13" ht="18" customHeight="1" spans="1:6">
-      <c r="A13" s="6">
+      <c r="A13" s="7">
         <v>3.7</v>
       </c>
-      <c r="B13" s="7" t="s">
+      <c r="B13" s="2" t="s">
         <v>162</v>
       </c>
-      <c r="C13" s="7" t="s">
+      <c r="C13" s="2" t="s">
         <v>140</v>
       </c>
-      <c r="D13" s="7" t="s">
+      <c r="D13" s="2" t="s">
         <v>163</v>
       </c>
-      <c r="E13" s="7" t="s">
+      <c r="E13" s="2" t="s">
         <v>144</v>
       </c>
-      <c r="F13" s="7"/>
+      <c r="F13" s="2"/>
     </row>
     <row r="14" ht="18" customHeight="1" spans="1:6">
-      <c r="A14" s="6">
+      <c r="A14" s="7">
         <v>3.7</v>
       </c>
-      <c r="B14" s="7" t="s">
+      <c r="B14" s="2" t="s">
         <v>164</v>
       </c>
       <c r="C14" s="8" t="s">
         <v>152</v>
       </c>
-      <c r="D14" s="7" t="s">
+      <c r="D14" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="E14" s="7" t="s">
+      <c r="E14" s="2" t="s">
         <v>144</v>
       </c>
-      <c r="F14" s="7"/>
+      <c r="F14" s="2"/>
     </row>
     <row r="15" ht="18" customHeight="1" spans="1:6">
-      <c r="A15" s="6">
+      <c r="A15" s="7">
         <v>3.8</v>
       </c>
-      <c r="B15" s="7" t="s">
+      <c r="B15" s="2" t="s">
         <v>165</v>
       </c>
-      <c r="C15" s="7" t="s">
+      <c r="C15" s="2" t="s">
         <v>140</v>
       </c>
-      <c r="D15" s="7" t="s">
+      <c r="D15" s="2" t="s">
         <v>166</v>
       </c>
-      <c r="E15" s="9" t="s">
+      <c r="E15" s="16" t="s">
         <v>167</v>
       </c>
-      <c r="F15" s="7"/>
+      <c r="F15" s="2"/>
     </row>
     <row r="16" ht="18" customHeight="1" spans="1:6">
-      <c r="A16" s="6">
+      <c r="A16" s="7">
         <v>3.8</v>
       </c>
-      <c r="B16" s="7" t="s">
+      <c r="B16" s="2" t="s">
         <v>168</v>
       </c>
-      <c r="C16" s="7" t="s">
+      <c r="C16" s="2" t="s">
         <v>140</v>
       </c>
-      <c r="D16" s="7" t="s">
+      <c r="D16" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="E16" s="7" t="s">
+      <c r="E16" s="2" t="s">
         <v>142</v>
       </c>
-      <c r="F16" s="7"/>
+      <c r="F16" s="2"/>
     </row>
     <row r="17" ht="18" customHeight="1" spans="1:6">
-      <c r="A17" s="6">
+      <c r="A17" s="7">
         <v>3.8</v>
       </c>
-      <c r="B17" s="7" t="s">
+      <c r="B17" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="C17" s="7" t="s">
+      <c r="C17" s="2" t="s">
         <v>140</v>
       </c>
-      <c r="D17" s="7" t="s">
+      <c r="D17" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="E17" s="7" t="s">
+      <c r="E17" s="2" t="s">
         <v>144</v>
       </c>
-      <c r="F17" s="7"/>
+      <c r="F17" s="2"/>
     </row>
     <row r="18" ht="18" customHeight="1" spans="1:6">
-      <c r="A18" s="6">
+      <c r="A18" s="7">
         <v>3.8</v>
       </c>
-      <c r="B18" s="7" t="s">
+      <c r="B18" s="2" t="s">
         <v>169</v>
       </c>
       <c r="C18" s="8" t="s">
         <v>152</v>
       </c>
-      <c r="D18" s="7" t="s">
+      <c r="D18" s="2" t="s">
         <v>170</v>
       </c>
-      <c r="E18" s="7" t="s">
+      <c r="E18" s="2" t="s">
         <v>144</v>
       </c>
-      <c r="F18" s="7"/>
+      <c r="F18" s="2"/>
     </row>
     <row r="19" ht="18" customHeight="1" spans="1:6">
-      <c r="A19" s="6">
+      <c r="A19" s="7">
         <v>3.14</v>
       </c>
-      <c r="B19" s="7" t="s">
+      <c r="B19" s="2" t="s">
         <v>151</v>
       </c>
       <c r="C19" s="8" t="s">
         <v>152</v>
       </c>
-      <c r="D19" s="7" t="s">
+      <c r="D19" s="2" t="s">
         <v>153</v>
       </c>
-      <c r="E19" s="7" t="s">
+      <c r="E19" s="2" t="s">
         <v>154</v>
       </c>
-      <c r="F19" s="7"/>
+      <c r="F19" s="2"/>
     </row>
     <row r="20" ht="18" customHeight="1" spans="1:6">
-      <c r="A20" s="6">
+      <c r="A20" s="7">
         <v>3.14</v>
       </c>
-      <c r="B20" s="7" t="s">
+      <c r="B20" s="2" t="s">
         <v>171</v>
       </c>
       <c r="C20" s="8" t="s">
         <v>152</v>
       </c>
-      <c r="D20" s="7" t="s">
+      <c r="D20" s="2" t="s">
         <v>172</v>
       </c>
-      <c r="E20" s="7" t="s">
+      <c r="E20" s="2" t="s">
         <v>144</v>
       </c>
-      <c r="F20" s="7"/>
+      <c r="F20" s="2"/>
     </row>
     <row r="21" ht="18" customHeight="1" spans="1:6">
-      <c r="A21" s="6">
+      <c r="A21" s="7">
         <v>3.16</v>
       </c>
-      <c r="B21" s="7" t="s">
+      <c r="B21" s="2" t="s">
         <v>173</v>
       </c>
       <c r="C21" s="8" t="s">
         <v>152</v>
       </c>
-      <c r="D21" s="7" t="s">
+      <c r="D21" s="2" t="s">
         <v>174</v>
       </c>
-      <c r="E21" s="7" t="s">
+      <c r="E21" s="2" t="s">
         <v>142</v>
       </c>
-      <c r="F21" s="7"/>
+      <c r="F21" s="2"/>
     </row>
     <row r="22" ht="18" customHeight="1" spans="1:6">
-      <c r="A22" s="10">
+      <c r="A22" s="9">
         <v>3.16</v>
       </c>
-      <c r="B22" s="11" t="s">
+      <c r="B22" s="10" t="s">
         <v>175</v>
       </c>
-      <c r="C22" s="12" t="s">
+      <c r="C22" s="11" t="s">
         <v>152</v>
       </c>
-      <c r="D22" s="11" t="s">
+      <c r="D22" s="10" t="s">
         <v>176</v>
       </c>
-      <c r="E22" s="11" t="s">
+      <c r="E22" s="10" t="s">
         <v>177</v>
       </c>
-      <c r="F22" s="11"/>
-    </row>
-    <row r="23" s="2" customFormat="1" ht="18" customHeight="1" spans="1:6">
-      <c r="A23" s="6">
+      <c r="F22" s="10"/>
+    </row>
+    <row r="23" s="2" customFormat="1" ht="18" customHeight="1" spans="1:5">
+      <c r="A23" s="7">
         <v>3.16</v>
       </c>
-      <c r="B23" s="7" t="s">
+      <c r="B23" s="2" t="s">
         <v>178</v>
       </c>
       <c r="C23" s="8" t="s">
         <v>152</v>
       </c>
-      <c r="D23" s="7" t="s">
+      <c r="D23" s="2" t="s">
         <v>179</v>
       </c>
-      <c r="E23" s="7" t="s">
+      <c r="E23" s="2" t="s">
         <v>142</v>
       </c>
-      <c r="F23" s="7"/>
-    </row>
-    <row r="24" s="2" customFormat="1" ht="18" customHeight="1" spans="1:6">
-      <c r="A24" s="6">
+    </row>
+    <row r="24" s="2" customFormat="1" ht="18" customHeight="1" spans="1:5">
+      <c r="A24" s="7">
         <v>3.15</v>
       </c>
-      <c r="B24" s="7" t="s">
+      <c r="B24" s="2" t="s">
         <v>180</v>
       </c>
       <c r="C24" s="8" t="s">
         <v>152</v>
       </c>
-      <c r="D24" s="13" t="s">
+      <c r="D24" s="12" t="s">
         <v>181</v>
       </c>
-      <c r="E24" s="7" t="s">
+      <c r="E24" s="2" t="s">
         <v>144</v>
       </c>
-      <c r="F24" s="7"/>
-    </row>
-    <row r="25" s="2" customFormat="1" ht="18" customHeight="1" spans="1:6">
-      <c r="A25" s="6">
+    </row>
+    <row r="25" s="2" customFormat="1" ht="18" customHeight="1" spans="1:5">
+      <c r="A25" s="7">
         <v>3.16</v>
       </c>
-      <c r="B25" s="7" t="s">
+      <c r="B25" s="2" t="s">
         <v>182</v>
       </c>
       <c r="C25" s="8" t="s">
         <v>152</v>
       </c>
-      <c r="D25" s="7" t="s">
+      <c r="D25" s="2" t="s">
         <v>183</v>
       </c>
-      <c r="E25" s="7" t="s">
+      <c r="E25" s="2" t="s">
         <v>184</v>
       </c>
-      <c r="F25" s="7"/>
-    </row>
-    <row r="26" s="2" customFormat="1" ht="18" customHeight="1" spans="1:6">
-      <c r="A26" s="6">
+    </row>
+    <row r="26" s="2" customFormat="1" ht="18" customHeight="1" spans="1:5">
+      <c r="A26" s="7">
         <v>3.17</v>
       </c>
-      <c r="B26" s="7" t="s">
+      <c r="B26" s="2" t="s">
         <v>185</v>
       </c>
       <c r="C26" s="8" t="s">
         <v>152</v>
       </c>
-      <c r="D26" s="7" t="s">
+      <c r="D26" s="2" t="s">
         <v>170</v>
       </c>
-      <c r="E26" s="7" t="s">
+      <c r="E26" s="2" t="s">
         <v>142</v>
       </c>
-      <c r="F26" s="7"/>
-    </row>
-    <row r="27" s="2" customFormat="1" ht="18" customHeight="1" spans="1:6">
-      <c r="A27" s="6">
+    </row>
+    <row r="27" s="2" customFormat="1" ht="18" customHeight="1" spans="1:5">
+      <c r="A27" s="7">
         <v>3.17</v>
       </c>
-      <c r="B27" s="7" t="s">
+      <c r="B27" s="2" t="s">
         <v>175</v>
       </c>
       <c r="C27" s="8" t="s">
         <v>152</v>
       </c>
-      <c r="D27" s="7" t="s">
+      <c r="D27" s="2" t="s">
         <v>186</v>
       </c>
-      <c r="E27" s="7" t="s">
+      <c r="E27" s="2" t="s">
         <v>142</v>
       </c>
-      <c r="F27" s="7"/>
-    </row>
-    <row r="28" s="2" customFormat="1" ht="18" customHeight="1" spans="1:6">
-      <c r="A28" s="6">
+    </row>
+    <row r="28" s="2" customFormat="1" ht="18" customHeight="1" spans="1:5">
+      <c r="A28" s="7">
         <v>3.17</v>
       </c>
-      <c r="B28" s="7" t="s">
+      <c r="B28" s="2" t="s">
         <v>187</v>
       </c>
       <c r="C28" s="8" t="s">
         <v>152</v>
       </c>
-      <c r="D28" s="7" t="s">
+      <c r="D28" s="2" t="s">
         <v>188</v>
       </c>
-      <c r="E28" s="7" t="s">
+      <c r="E28" s="2" t="s">
         <v>189</v>
       </c>
-      <c r="F28" s="7"/>
-    </row>
-    <row r="29" s="2" customFormat="1" ht="18" customHeight="1" spans="1:6">
-      <c r="A29" s="6">
+    </row>
+    <row r="29" s="2" customFormat="1" ht="18" customHeight="1" spans="1:5">
+      <c r="A29" s="7">
         <v>3.17</v>
       </c>
-      <c r="B29" s="7" t="s">
+      <c r="B29" s="2" t="s">
         <v>190</v>
       </c>
       <c r="C29" s="8" t="s">
         <v>152</v>
       </c>
-      <c r="D29" s="7" t="s">
+      <c r="D29" s="2" t="s">
         <v>191</v>
       </c>
-      <c r="E29" s="7" t="s">
+      <c r="E29" s="2" t="s">
         <v>192</v>
       </c>
-      <c r="F29" s="7"/>
-    </row>
-    <row r="30" s="2" customFormat="1" ht="18" customHeight="1" spans="1:6">
-      <c r="A30" s="6">
+    </row>
+    <row r="30" s="2" customFormat="1" ht="18" customHeight="1" spans="1:5">
+      <c r="A30" s="7">
         <v>3.17</v>
       </c>
-      <c r="B30" s="7" t="s">
+      <c r="B30" s="2" t="s">
         <v>169</v>
       </c>
       <c r="C30" s="8" t="s">
         <v>152</v>
       </c>
-      <c r="D30" s="7" t="s">
+      <c r="D30" s="2" t="s">
         <v>170</v>
       </c>
-      <c r="E30" s="7" t="s">
+      <c r="E30" s="2" t="s">
         <v>193</v>
       </c>
-      <c r="F30" s="7"/>
-    </row>
-    <row r="31" s="2" customFormat="1" ht="18" customHeight="1" spans="1:6">
-      <c r="A31" s="6">
+    </row>
+    <row r="31" s="2" customFormat="1" ht="18" customHeight="1" spans="1:5">
+      <c r="A31" s="7">
         <v>3.17</v>
       </c>
-      <c r="B31" s="7" t="s">
+      <c r="B31" s="2" t="s">
         <v>194</v>
       </c>
       <c r="C31" s="8" t="s">
         <v>152</v>
       </c>
-      <c r="D31" s="7" t="s">
+      <c r="D31" s="2" t="s">
         <v>195</v>
       </c>
-      <c r="E31" s="7" t="s">
+      <c r="E31" s="2" t="s">
         <v>196</v>
       </c>
-      <c r="F31" s="7"/>
-    </row>
-    <row r="32" s="2" customFormat="1" ht="18" customHeight="1" spans="1:6">
-      <c r="A32" s="6">
+    </row>
+    <row r="32" s="2" customFormat="1" ht="18" customHeight="1" spans="1:5">
+      <c r="A32" s="7">
         <v>3.18</v>
       </c>
-      <c r="B32" s="7" t="s">
+      <c r="B32" s="2" t="s">
         <v>197</v>
       </c>
       <c r="C32" s="8" t="s">
         <v>152</v>
       </c>
-      <c r="D32" s="7" t="s">
+      <c r="D32" s="2" t="s">
         <v>153</v>
       </c>
-      <c r="E32" s="7" t="s">
+      <c r="E32" s="2" t="s">
         <v>192</v>
       </c>
-      <c r="F32" s="7"/>
-    </row>
-    <row r="33" s="2" customFormat="1" spans="1:6">
-      <c r="A33" s="6">
+    </row>
+    <row r="33" s="2" customFormat="1" spans="1:5">
+      <c r="A33" s="7">
         <v>3.22</v>
       </c>
-      <c r="B33" s="7" t="s">
+      <c r="B33" s="2" t="s">
         <v>198</v>
       </c>
       <c r="C33" s="8" t="s">
         <v>152</v>
       </c>
-      <c r="D33" s="13" t="s">
+      <c r="D33" s="12" t="s">
         <v>156</v>
       </c>
-      <c r="E33" s="7" t="s">
+      <c r="E33" s="2" t="s">
         <v>199</v>
       </c>
-      <c r="F33" s="7"/>
-    </row>
-    <row r="34" s="2" customFormat="1" spans="1:6">
-      <c r="A34" s="6">
+    </row>
+    <row r="34" s="2" customFormat="1" spans="1:5">
+      <c r="A34" s="7">
         <v>3.22</v>
       </c>
-      <c r="B34" s="7" t="s">
+      <c r="B34" s="2" t="s">
         <v>200</v>
       </c>
       <c r="C34" s="8" t="s">
         <v>152</v>
       </c>
-      <c r="D34" s="7" t="s">
+      <c r="D34" s="2" t="s">
         <v>201</v>
       </c>
-      <c r="E34" s="7" t="s">
+      <c r="E34" s="2" t="s">
         <v>144</v>
       </c>
-      <c r="F34" s="7"/>
     </row>
     <row r="35" s="2" customFormat="1" spans="1:5">
-      <c r="A35" s="6">
+      <c r="A35" s="7">
         <v>3.24</v>
       </c>
-      <c r="B35" s="7" t="s">
+      <c r="B35" s="2" t="s">
         <v>202</v>
       </c>
       <c r="C35" s="8" t="s">
         <v>152</v>
       </c>
-      <c r="D35" s="7" t="s">
+      <c r="D35" s="2" t="s">
         <v>203</v>
       </c>
-      <c r="E35" s="7" t="s">
+      <c r="E35" s="2" t="s">
         <v>144</v>
       </c>
     </row>
     <row r="36" s="2" customFormat="1" spans="1:5">
-      <c r="A36" s="14">
+      <c r="A36" s="7">
         <v>3.24</v>
       </c>
       <c r="B36" s="2" t="s">
@@ -3678,7 +3735,7 @@
       </c>
     </row>
     <row r="37" s="2" customFormat="1" spans="1:5">
-      <c r="A37" s="14">
+      <c r="A37" s="7">
         <v>3.24</v>
       </c>
       <c r="B37" s="2" t="s">
@@ -3687,7 +3744,7 @@
       <c r="C37" s="8" t="s">
         <v>152</v>
       </c>
-      <c r="D37" s="15" t="s">
+      <c r="D37" s="13" t="s">
         <v>206</v>
       </c>
       <c r="E37" s="2" t="s">
@@ -3695,7 +3752,7 @@
       </c>
     </row>
     <row r="38" s="2" customFormat="1" spans="1:5">
-      <c r="A38" s="14">
+      <c r="A38" s="7">
         <v>3.24</v>
       </c>
       <c r="B38" s="2" t="s">
@@ -3712,7 +3769,7 @@
       </c>
     </row>
     <row r="39" s="2" customFormat="1" spans="1:5">
-      <c r="A39" s="14">
+      <c r="A39" s="7">
         <v>3.24</v>
       </c>
       <c r="B39" s="2" t="s">
@@ -3729,7 +3786,7 @@
       </c>
     </row>
     <row r="40" s="2" customFormat="1" spans="1:4">
-      <c r="A40" s="14">
+      <c r="A40" s="7">
         <v>3.28</v>
       </c>
       <c r="B40" s="2" t="s">
@@ -3743,7 +3800,7 @@
       </c>
     </row>
     <row r="41" s="2" customFormat="1" spans="1:4">
-      <c r="A41" s="14">
+      <c r="A41" s="7">
         <v>3.28</v>
       </c>
       <c r="B41" s="2" t="s">
@@ -3756,8 +3813,8 @@
         <v>23</v>
       </c>
     </row>
-    <row r="42" s="2" customFormat="1" spans="1:4">
-      <c r="A42" s="14">
+    <row r="42" s="2" customFormat="1" spans="1:5">
+      <c r="A42" s="7">
         <v>3.28</v>
       </c>
       <c r="B42" s="2" t="s">
@@ -3769,9 +3826,12 @@
       <c r="D42" s="2" t="s">
         <v>212</v>
       </c>
+      <c r="E42" s="2" t="s">
+        <v>144</v>
+      </c>
     </row>
     <row r="43" s="2" customFormat="1" spans="1:4">
-      <c r="A43" s="14">
+      <c r="A43" s="7">
         <v>3.28</v>
       </c>
       <c r="B43" s="2" t="s">
@@ -3784,8 +3844,8 @@
         <v>214</v>
       </c>
     </row>
-    <row r="44" s="2" customFormat="1" spans="1:4">
-      <c r="A44" s="14">
+    <row r="44" s="2" customFormat="1" ht="18" customHeight="1" spans="1:4">
+      <c r="A44" s="7">
         <v>3.28</v>
       </c>
       <c r="B44" s="2" t="s">
@@ -3798,21 +3858,184 @@
         <v>216</v>
       </c>
     </row>
+    <row r="45" s="3" customFormat="1" spans="1:5">
+      <c r="A45" s="14">
+        <v>3.29</v>
+      </c>
+      <c r="B45" s="3" t="s">
+        <v>217</v>
+      </c>
+      <c r="D45" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="E45" s="3" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="46" s="3" customFormat="1" spans="1:5">
+      <c r="A46" s="15" t="s">
+        <v>218</v>
+      </c>
+      <c r="B46" s="3" t="s">
+        <v>219</v>
+      </c>
+      <c r="D46" s="3" t="s">
+        <v>220</v>
+      </c>
+      <c r="E46" s="3" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="47" s="3" customFormat="1" spans="1:5">
+      <c r="A47" s="15" t="s">
+        <v>218</v>
+      </c>
+      <c r="B47" s="3" t="s">
+        <v>221</v>
+      </c>
+      <c r="D47" s="3" t="s">
+        <v>222</v>
+      </c>
+      <c r="E47" s="3" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="48" s="3" customFormat="1" spans="1:5">
+      <c r="A48" s="15" t="s">
+        <v>218</v>
+      </c>
+      <c r="B48" s="3" t="s">
+        <v>223</v>
+      </c>
+      <c r="D48" s="3" t="s">
+        <v>224</v>
+      </c>
+      <c r="E48" s="3" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="49" s="3" customFormat="1" spans="1:5">
+      <c r="A49" s="15" t="s">
+        <v>218</v>
+      </c>
+      <c r="B49" s="3" t="s">
+        <v>226</v>
+      </c>
+      <c r="D49" s="3" t="s">
+        <v>227</v>
+      </c>
+      <c r="E49" s="3" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="50" s="3" customFormat="1" spans="1:5">
+      <c r="A50" s="15" t="s">
+        <v>218</v>
+      </c>
+      <c r="B50" s="3" t="s">
+        <v>229</v>
+      </c>
+      <c r="D50" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="E50" s="2" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="51" s="3" customFormat="1" spans="1:4">
+      <c r="A51" s="15" t="s">
+        <v>218</v>
+      </c>
+      <c r="B51" s="3" t="s">
+        <v>230</v>
+      </c>
+      <c r="D51" s="3" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="52" s="3" customFormat="1" spans="1:5">
+      <c r="A52" s="15" t="s">
+        <v>218</v>
+      </c>
+      <c r="B52" s="3" t="s">
+        <v>232</v>
+      </c>
+      <c r="D52" s="3" t="s">
+        <v>231</v>
+      </c>
+      <c r="E52" s="2" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="53" s="3" customFormat="1" spans="1:5">
+      <c r="A53" s="15" t="s">
+        <v>218</v>
+      </c>
+      <c r="B53" s="3" t="s">
+        <v>233</v>
+      </c>
+      <c r="D53" s="3" t="s">
+        <v>188</v>
+      </c>
+      <c r="E53" s="3" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="54" s="3" customFormat="1" spans="1:4">
+      <c r="A54" s="14">
+        <v>3.31</v>
+      </c>
+      <c r="B54" s="3" t="s">
+        <v>235</v>
+      </c>
+      <c r="D54" s="3" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="55" s="3" customFormat="1" spans="1:4">
+      <c r="A55" s="14">
+        <v>3.31</v>
+      </c>
+      <c r="B55" s="3" t="s">
+        <v>237</v>
+      </c>
+      <c r="D55" s="3" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="56" s="3" customFormat="1" spans="1:1">
+      <c r="A56" s="14">
+        <v>4.1</v>
+      </c>
+    </row>
+    <row r="57" s="3" customFormat="1" spans="1:1">
+      <c r="A57" s="14"/>
+    </row>
+    <row r="58" s="3" customFormat="1" spans="1:1">
+      <c r="A58" s="14"/>
+    </row>
+    <row r="59" s="3" customFormat="1" spans="1:1">
+      <c r="A59" s="14"/>
+    </row>
+    <row r="60" s="3" customFormat="1" spans="1:1">
+      <c r="A60" s="14"/>
+    </row>
+    <row r="61" s="3" customFormat="1" spans="1:1">
+      <c r="A61" s="14"/>
+    </row>
   </sheetData>
-  <autoFilter ref="C1:C35">
-    <extLst/>
-  </autoFilter>
+  <autoFilter ref="C1:C44"/>
   <sortState ref="A2:F35">
     <sortCondition ref="A2"/>
   </sortState>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
   <dimension ref="A1"/>
   <sheetViews>
@@ -3820,9 +4043,9 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8"/>
   <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>
 </worksheet>
